--- a/on_trucks/Processed_Stand_Alone/56_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/56_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>106</v>
       </c>
       <c r="E2">
-        <v>0.002305312947467507</v>
+        <v>0.002206706367022727</v>
       </c>
       <c r="F2">
         <v>0.5283171893647869</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>101</v>
       </c>
       <c r="E4">
-        <v>0.00173152574578736</v>
+        <v>0.001677512835338351</v>
       </c>
       <c r="F4">
         <v>0.534999158882741</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>104</v>
       </c>
       <c r="E5">
-        <v>0.003319873005460865</v>
+        <v>0.003259024035047482</v>
       </c>
       <c r="F5">
         <v>0.5031633759311942</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>105</v>
       </c>
       <c r="E6">
-        <v>0.002518445147530421</v>
+        <v>0.002515579334610175</v>
       </c>
       <c r="F6">
         <v>0.5235916101929212</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>56</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>119</v>
       </c>
       <c r="E2">
-        <v>0.002305312947467507</v>
+        <v>0.002206706367022727</v>
       </c>
       <c r="F2">
         <v>0.7114620333808905</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>114</v>
       </c>
       <c r="E4">
-        <v>0.00173152574578736</v>
+        <v>0.001677512835338351</v>
       </c>
       <c r="F4">
         <v>0.7007472583666321</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>119</v>
       </c>
       <c r="E5">
-        <v>0.003319873005460865</v>
+        <v>0.003259024035047482</v>
       </c>
       <c r="F5">
         <v>0.7174297431562326</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>119</v>
       </c>
       <c r="E6">
-        <v>0.002518445147530421</v>
+        <v>0.002515579334610175</v>
       </c>
       <c r="F6">
         <v>0.7085008981558553</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>56</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>0.002305312947467507</v>
+        <v>0.002206706367022727</v>
       </c>
       <c r="F2">
         <v>0.803959137484113</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>126</v>
       </c>
       <c r="E4">
-        <v>0.00173152574578736</v>
+        <v>0.001677512835338351</v>
       </c>
       <c r="F4">
         <v>0.8018545140928639</v>
       </c>
       <c r="G4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>135</v>
       </c>
       <c r="E5">
-        <v>0.003319873005460865</v>
+        <v>0.003259024035047482</v>
       </c>
       <c r="F5">
         <v>0.8009268698434784</v>
       </c>
       <c r="G5">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>133</v>
       </c>
       <c r="E6">
-        <v>0.002518445147530421</v>
+        <v>0.002515579334610175</v>
       </c>
       <c r="F6">
         <v>0.8056515788101246</v>
       </c>
       <c r="G6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>56</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>161</v>
       </c>
       <c r="E2">
-        <v>0.002305312947467507</v>
+        <v>0.002206706367022727</v>
       </c>
       <c r="F2">
         <v>0.911049944469977</v>
       </c>
       <c r="G2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>156</v>
       </c>
       <c r="E4">
-        <v>0.00173152574578736</v>
+        <v>0.001677512835338351</v>
       </c>
       <c r="F4">
         <v>0.911451515004211</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5">
-        <v>0.003319873005460865</v>
+        <v>0.003259024035047482</v>
       </c>
       <c r="F5">
         <v>0.9003567499964646</v>
       </c>
       <c r="G5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>157</v>
       </c>
       <c r="E6">
-        <v>0.002518445147530421</v>
+        <v>0.002515579334610175</v>
       </c>
       <c r="F6">
         <v>0.9067184632220823</v>
       </c>
       <c r="G6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H6">
         <v>56</v>

--- a/on_trucks/Processed_Stand_Alone/56_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/56_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.651725316471681E-05</v>
+        <v>3.138814334463635E-05</v>
       </c>
       <c r="C2">
-        <v>2.603058411741504E-05</v>
+        <v>2.089170115936215E-05</v>
       </c>
       <c r="D2">
-        <v>6.776366730565867E-06</v>
+        <v>1.619539645333606E-06</v>
       </c>
       <c r="E2">
-        <v>2.181856209841606E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>6.130573527652915E-07</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5.158335023267481E-06</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.361838306142786E-05</v>
+        <v>8.467932449917567E-06</v>
       </c>
       <c r="I2">
-        <v>3.38605001527331E-05</v>
+        <v>2.872891434970442E-05</v>
       </c>
       <c r="J2">
-        <v>4.424823419958862E-05</v>
+        <v>3.912632933124023E-05</v>
       </c>
       <c r="K2">
-        <v>6.664433030060973E-05</v>
+        <v>6.154329765930044E-05</v>
       </c>
       <c r="L2">
-        <v>7.125470432140554E-05</v>
+        <v>6.615796835630548E-05</v>
       </c>
       <c r="M2">
-        <v>8.572505038667631E-05</v>
+        <v>8.064180018030162E-05</v>
       </c>
       <c r="N2">
-        <v>8.345520037643779E-05</v>
+        <v>7.836983476456811E-05</v>
       </c>
       <c r="O2">
-        <v>8.889583040097862E-05</v>
+        <v>8.381553522926939E-05</v>
       </c>
       <c r="P2">
-        <v>7.900684435637279E-05</v>
+        <v>7.391733306230998E-05</v>
       </c>
       <c r="Q2">
-        <v>6.489304029271027E-05</v>
+        <v>5.979037552219008E-05</v>
       </c>
       <c r="R2">
-        <v>4.59051732070625E-05</v>
+        <v>4.07848125367296E-05</v>
       </c>
       <c r="S2">
-        <v>2.516899011352868E-05</v>
+        <v>2.002930418581611E-05</v>
       </c>
       <c r="T2">
-        <v>1.112576805018453E-05</v>
+        <v>5.972994425493677E-06</v>
       </c>
       <c r="U2">
-        <v>4.679525021107733E-06</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>2.628935611858227E-07</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>4.504998720320505E-08</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>7.183854032403903E-06</v>
+        <v>2.027406708333638E-06</v>
       </c>
       <c r="Y2">
-        <v>3.218006514515324E-05</v>
+        <v>2.704691324681739E-05</v>
       </c>
       <c r="Z2">
-        <v>5.139435223182231E-05</v>
+        <v>4.627910724729224E-05</v>
       </c>
       <c r="AA2">
-        <v>5.847912726377929E-05</v>
+        <v>5.337048499395097E-05</v>
       </c>
       <c r="AB2">
-        <v>7.035135031733083E-05</v>
+        <v>6.525377246399343E-05</v>
       </c>
       <c r="AC2">
-        <v>8.644637038992994E-05</v>
+        <v>8.136379242369959E-05</v>
       </c>
       <c r="AD2">
-        <v>0.0001035690204671644</v>
+        <v>9.850240009632521E-05</v>
       </c>
       <c r="AE2">
-        <v>0.0001007626564545058</v>
+        <v>9.569342066950867E-05</v>
       </c>
       <c r="AF2">
-        <v>0.0001064139304799968</v>
+        <v>0.0001013499614465794</v>
       </c>
       <c r="AG2">
-        <v>9.139133041223496E-05</v>
+        <v>8.631336094240591E-05</v>
       </c>
       <c r="AH2">
-        <v>6.329264028549139E-05</v>
+        <v>5.818848400894473E-05</v>
       </c>
       <c r="AI2">
-        <v>3.522392615888305E-05</v>
+        <v>3.009361101200011E-05</v>
       </c>
       <c r="AJ2">
-        <v>1.770187607984709E-05</v>
+        <v>1.255523111343711E-05</v>
       </c>
       <c r="AK2">
-        <v>1.289064305814527E-05</v>
+        <v>7.739514223318496E-06</v>
       </c>
       <c r="AL2">
-        <v>3.35581701513694E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>8.784022039621712E-07</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.789494112582452E-07</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.021892154609405E-05</v>
+        <v>5.065302778301585E-06</v>
       </c>
       <c r="AP2">
-        <v>2.70605141220607E-05</v>
+        <v>2.192259101579602E-05</v>
       </c>
       <c r="AQ2">
-        <v>3.422048415435687E-05</v>
+        <v>2.908923384139657E-05</v>
       </c>
       <c r="AR2">
-        <v>1.562254107046793E-05</v>
+        <v>1.04739582505941E-05</v>
       </c>
       <c r="AS2">
-        <v>1.6739246075505E-05</v>
+        <v>1.159170397809886E-05</v>
       </c>
       <c r="AT2">
-        <v>3.139389814160711E-05</v>
+        <v>2.626001356842853E-05</v>
       </c>
       <c r="AU2">
-        <v>3.830596017278505E-05</v>
+        <v>3.317851735299832E-05</v>
       </c>
       <c r="AV2">
-        <v>3.440119315517199E-05</v>
+        <v>2.927011125545996E-05</v>
       </c>
       <c r="AW2">
-        <v>2.03206310916594E-05</v>
+        <v>1.517642669564704E-05</v>
       </c>
       <c r="AX2">
-        <v>1.648775807437062E-05</v>
+        <v>1.133998160064132E-05</v>
       </c>
       <c r="AY2">
-        <v>1.217858155493341E-05</v>
+        <v>7.026789108497992E-06</v>
       </c>
       <c r="AZ2">
-        <v>3.912956017650003E-06</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>3.382999015259549E-06</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>1.0734133648418E-07</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>7.370253333244686E-10</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>3.35581701513694E-06</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>6.61670302984568E-06</v>
+        <v>1.459727144706672E-06</v>
       </c>
       <c r="BF2">
-        <v>1.520108406856688E-05</v>
+        <v>1.005210846835351E-05</v>
       </c>
       <c r="BG2">
-        <v>1.508104206802541E-05</v>
+        <v>9.93195459367656E-06</v>
       </c>
       <c r="BH2">
-        <v>1.289064305814527E-05</v>
+        <v>7.739514223318496E-06</v>
       </c>
       <c r="BI2">
-        <v>1.544259806965627E-05</v>
+        <v>1.02938475504142E-05</v>
       </c>
       <c r="BJ2">
-        <v>1.544259806965627E-05</v>
+        <v>1.02938475504142E-05</v>
       </c>
       <c r="BK2">
-        <v>2.03930140919859E-05</v>
+        <v>1.524887715390949E-05</v>
       </c>
       <c r="BL2">
-        <v>1.046895254722186E-05</v>
+        <v>5.315566797889338E-06</v>
       </c>
       <c r="BM2">
-        <v>9.494562042826714E-06</v>
+        <v>4.340268202202717E-06</v>
       </c>
       <c r="BN2">
-        <v>5.407918324393266E-06</v>
+        <v>2.498159023480141E-07</v>
       </c>
       <c r="BO2">
-        <v>4.714291021264551E-06</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>3.35581701513694E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>7.938021035805692E-07</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>2.034289309175982E-07</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>2.497746711266479E-09</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>3.613776716300508E-06</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>5.514619024874556E-06</v>
+        <v>3.566160434298277E-07</v>
       </c>
       <c r="BV2">
-        <v>9.256524041753006E-06</v>
+        <v>4.102008359644675E-06</v>
       </c>
       <c r="BW2">
-        <v>1.207115805444886E-05</v>
+        <v>6.919265493793474E-06</v>
       </c>
       <c r="BX2">
-        <v>7.140921832210251E-06</v>
+        <v>1.984434497120847E-06</v>
       </c>
       <c r="BY2">
-        <v>8.611159038841986E-06</v>
+        <v>3.456041903480236E-06</v>
       </c>
       <c r="BZ2">
-        <v>4.813948021714069E-06</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>2.839365612807405E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>2.068533109330444E-06</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>1.852631008356583E-06</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>3.56468241607906E-08</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>1.060450704783329E-06</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>6.61670302984568E-06</v>
+        <v>1.459727144706672E-06</v>
       </c>
       <c r="CG2">
-        <v>9.118131041128764E-06</v>
+        <v>3.963486382518607E-06</v>
       </c>
       <c r="CH2">
-        <v>1.289064305814527E-05</v>
+        <v>7.739514223318496E-06</v>
       </c>
       <c r="CI2">
-        <v>1.59313370718608E-05</v>
+        <v>1.078304203697507E-05</v>
       </c>
       <c r="CJ2">
-        <v>1.902365108580917E-05</v>
+        <v>1.387823795855074E-05</v>
       </c>
       <c r="CK2">
-        <v>1.929371708702734E-05</v>
+        <v>1.414855565001294E-05</v>
       </c>
       <c r="CL2">
-        <v>2.387363710768579E-05</v>
+        <v>1.873274396502326E-05</v>
       </c>
       <c r="CM2">
-        <v>9.860658044478048E-05</v>
+        <v>9.353533528690937E-05</v>
       </c>
       <c r="CN2">
-        <v>0.03247764314649552</v>
+        <v>0.03250274781232968</v>
       </c>
       <c r="CO2">
-        <v>0.03363304015170712</v>
+        <v>0.03365922159933862</v>
       </c>
       <c r="CP2">
-        <v>0.1118528305045298</v>
+        <v>0.1119519095328749</v>
       </c>
       <c r="CQ2">
-        <v>0.07060981531849668</v>
+        <v>0.0706704575776452</v>
       </c>
       <c r="CR2">
-        <v>6.970078031439632E-05</v>
+        <v>6.460259615696268E-05</v>
       </c>
       <c r="CS2">
-        <v>0.005475715324699074</v>
+        <v>0.005475655320518991</v>
       </c>
       <c r="CT2">
-        <v>0.01253834555655618</v>
+        <v>0.01254486762904819</v>
       </c>
       <c r="CU2">
-        <v>0.0007736864034898342</v>
+        <v>0.0007692443045578296</v>
       </c>
       <c r="CV2">
-        <v>0.02025612309136843</v>
+        <v>0.0202698378104814</v>
       </c>
       <c r="CW2">
-        <v>0.03346080715093023</v>
+        <v>0.03348682808459182</v>
       </c>
       <c r="CX2">
-        <v>0.01944974408773113</v>
+        <v>0.01946270729526067</v>
       </c>
       <c r="CY2">
-        <v>0.1221547205509981</v>
+        <v>0.1222634005109971</v>
       </c>
       <c r="CZ2">
-        <v>4.046646618253035E-07</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.002424649410936763</v>
+        <v>0.002421745940637585</v>
       </c>
       <c r="DB2">
-        <v>0.02766664312479475</v>
+        <v>0.02768726413935839</v>
       </c>
       <c r="DC2">
-        <v>0.03316800714960951</v>
+        <v>0.0331937552058876</v>
       </c>
       <c r="DD2">
-        <v>0.0621568402803682</v>
+        <v>0.06220960471950043</v>
       </c>
       <c r="DE2">
-        <v>0.01754138807912319</v>
+        <v>0.01755257277848312</v>
       </c>
       <c r="DF2">
-        <v>0.009770920544073273</v>
+        <v>0.009774863491930628</v>
       </c>
       <c r="DG2">
-        <v>0.008881906040063234</v>
+        <v>0.008885020463498965</v>
       </c>
       <c r="DH2">
-        <v>0.0002363954410662988</v>
+        <v>0.0002314526093769793</v>
       </c>
       <c r="DI2">
-        <v>0.0001519890506855705</v>
+        <v>0.0001469675557624611</v>
       </c>
       <c r="DJ2">
-        <v>0.005144213023203782</v>
+        <v>0.005143844072711378</v>
       </c>
       <c r="DK2">
-        <v>0.01045496204715875</v>
+        <v>0.01045954249315382</v>
       </c>
       <c r="DL2">
-        <v>0.0002684746012109969</v>
+        <v>0.0002635616659603578</v>
       </c>
       <c r="DM2">
-        <v>0.003063520913818493</v>
+        <v>0.003061212845101662</v>
       </c>
       <c r="DN2">
-        <v>0.02672809512056127</v>
+        <v>0.02674784144754798</v>
       </c>
       <c r="DO2">
-        <v>0.002864552712921015</v>
+        <v>0.00286205921414334</v>
       </c>
       <c r="DP2">
-        <v>0.03588158616184953</v>
+        <v>0.03590986316053689</v>
       </c>
       <c r="DQ2">
-        <v>0.01266995905714984</v>
+        <v>0.01267660378793254</v>
       </c>
       <c r="DR2">
-        <v>0.007330992333067593</v>
+        <v>0.007332661369643737</v>
       </c>
       <c r="DS2">
-        <v>0.001016337704584351</v>
+        <v>0.0010121217465398</v>
       </c>
       <c r="DT2">
-        <v>0.007545117334033438</v>
+        <v>0.007546985926175639</v>
       </c>
       <c r="DU2">
-        <v>0.000194340860876605</v>
+        <v>0.0001893588360733699</v>
       </c>
       <c r="DV2">
-        <v>0.01251597005645525</v>
+        <v>0.01252247127591483</v>
       </c>
       <c r="DW2">
-        <v>1.041711204698802E-05</v>
+        <v>5.263677984472446E-06</v>
       </c>
       <c r="DX2">
-        <v>0.02100710009475583</v>
+        <v>0.02102151469309976</v>
       </c>
       <c r="DY2">
-        <v>0.006586188529708039</v>
+        <v>0.006587163440218053</v>
       </c>
       <c r="DZ2">
-        <v>5.552354025044766E-06</v>
+        <v>3.943862110456193E-07</v>
       </c>
       <c r="EA2">
-        <v>9.983577045032493E-05</v>
+        <v>9.476567084624828E-05</v>
       </c>
       <c r="EB2">
-        <v>0.0008066380436384677</v>
+        <v>0.0008022266542601008</v>
       </c>
       <c r="EC2">
-        <v>0.000202369850912821</v>
+        <v>0.0001973953087932722</v>
       </c>
       <c r="ED2">
-        <v>0.01438981706490753</v>
+        <v>0.01439806463158854</v>
       </c>
       <c r="EE2">
-        <v>0.003327709215010155</v>
+        <v>0.003325647358766189</v>
       </c>
       <c r="EF2">
-        <v>0.004788758721600449</v>
+        <v>0.004788058502531074</v>
       </c>
       <c r="EG2">
-        <v>9.819040044290323E-07</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.003638984916414213</v>
+        <v>0.003637213156135282</v>
       </c>
       <c r="EI2">
-        <v>0.003345529315090536</v>
+        <v>0.003343484066436261</v>
       </c>
       <c r="EJ2">
-        <v>1.6739246075505E-05</v>
+        <v>1.159170397809886E-05</v>
       </c>
       <c r="EK2">
-        <v>0.001358242806126568</v>
+        <v>0.001354345489369901</v>
       </c>
       <c r="EL2">
-        <v>0.003568610016096776</v>
+        <v>0.003566772669347299</v>
       </c>
       <c r="EM2">
-        <v>0.009338277042121767</v>
+        <v>0.009341816784288318</v>
       </c>
       <c r="EN2">
-        <v>1.718649007752237E-05</v>
+        <v>1.203936479286385E-05</v>
       </c>
       <c r="EO2">
-        <v>0.006013359427124203</v>
+        <v>0.006013800484813181</v>
       </c>
       <c r="EP2">
-        <v>0.005393840424329764</v>
+        <v>0.00539370411615895</v>
       </c>
       <c r="EQ2">
-        <v>7.256272532730558E-05</v>
+        <v>6.746720838320293E-05</v>
       </c>
       <c r="ER2">
-        <v>0.0004360549819668945</v>
+        <v>0.0004312982246384547</v>
       </c>
       <c r="ES2">
-        <v>6.194509027941306E-05</v>
+        <v>5.683967814249026E-05</v>
       </c>
       <c r="ET2">
-        <v>0.01087703704906259</v>
+        <v>0.01088201085134741</v>
       </c>
       <c r="EU2">
-        <v>0.004159759018763247</v>
+        <v>0.004158472598217244</v>
       </c>
       <c r="EV2">
-        <v>0.002194213209897343</v>
+        <v>0.002191094982674261</v>
       </c>
       <c r="EW2">
-        <v>0.001858433108382755</v>
+        <v>0.001855001948116234</v>
       </c>
       <c r="EX2">
-        <v>0.001773615808000173</v>
+        <v>0.001770105601548887</v>
       </c>
       <c r="EY2">
-        <v>0.001852426608355662</v>
+        <v>0.00184898985028175</v>
       </c>
       <c r="EZ2">
-        <v>0.0007485962033766608</v>
+        <v>0.0007441307214250953</v>
       </c>
       <c r="FA2">
-        <v>0.007399830533378099</v>
+        <v>0.007401563724284506</v>
       </c>
       <c r="FB2">
-        <v>0.02067095409323958</v>
+        <v>0.02068505541753655</v>
       </c>
       <c r="FC2">
-        <v>7.071841431898652E-08</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.007558522334093903</v>
+        <v>0.007560403419136808</v>
       </c>
       <c r="FE2">
-        <v>2.736349412342734E-06</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.01473229756645234</v>
+        <v>0.01474086431067003</v>
       </c>
       <c r="FG2">
-        <v>0.002714660312244902</v>
+        <v>0.002712027120004392</v>
       </c>
       <c r="FH2">
-        <v>0.002029060609152397</v>
+        <v>0.00202578846659678</v>
       </c>
       <c r="FI2">
-        <v>0.0006131092027655254</v>
+        <v>0.0006085174525828877</v>
       </c>
       <c r="FJ2">
-        <v>0.0001845750808325549</v>
+        <v>0.0001795839547298178</v>
       </c>
       <c r="FK2">
-        <v>0.003063520913818493</v>
+        <v>0.003061212845101662</v>
       </c>
       <c r="FL2">
-        <v>0.0128022580577466</v>
+        <v>0.01280902608567738</v>
       </c>
       <c r="FM2">
-        <v>0.004201648018952194</v>
+        <v>0.004200400637206455</v>
       </c>
       <c r="FN2">
-        <v>1.570354807083332E-06</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>5.921772026711083E-06</v>
+        <v>7.641484948746995E-07</v>
       </c>
       <c r="FP2">
-        <v>0.0003482221215707106</v>
+        <v>0.0003433835076814036</v>
       </c>
       <c r="FQ2">
-        <v>0.0009918986044741146</v>
+        <v>0.0009876598702080364</v>
       </c>
       <c r="FR2">
-        <v>0.0001171750505285365</v>
+        <v>0.0001121211104099726</v>
       </c>
       <c r="FS2">
-        <v>0.001496911406752054</v>
+        <v>0.001493143323344914</v>
       </c>
       <c r="FT2">
-        <v>0.004971941522426724</v>
+        <v>0.004971412022084009</v>
       </c>
       <c r="FU2">
-        <v>0.001340112406044788</v>
+        <v>0.001336198192511776</v>
       </c>
       <c r="FV2">
-        <v>0.003968061017898563</v>
+        <v>0.003966595942814781</v>
       </c>
       <c r="FW2">
-        <v>0.001078229704863525</v>
+        <v>0.001074071427580652</v>
       </c>
       <c r="FX2">
-        <v>0.00122147820550967</v>
+        <v>0.001217453429852036</v>
       </c>
       <c r="FY2">
-        <v>0.002909307113122887</v>
+        <v>0.002906855323578722</v>
       </c>
       <c r="FZ2">
-        <v>0.001565133507059781</v>
+        <v>0.001561429003803407</v>
       </c>
       <c r="GA2">
-        <v>0.000440576141987288</v>
+        <v>0.0004358235981913317</v>
       </c>
       <c r="GB2">
-        <v>0.0003317273014963081</v>
+        <v>0.000326873315122975</v>
       </c>
       <c r="GC2">
-        <v>1.48423830669489E-05</v>
+        <v>9.693073172369624E-06</v>
       </c>
       <c r="GD2">
-        <v>0.0004106671518523787</v>
+        <v>0.000405886734125636</v>
       </c>
       <c r="GE2">
-        <v>0.003873408517471618</v>
+        <v>0.003871855230207024</v>
       </c>
       <c r="GF2">
-        <v>5.250613023683715E-05</v>
+        <v>4.739192138301635E-05</v>
       </c>
       <c r="GG2">
-        <v>0.000229558351035459</v>
+        <v>0.0002246091474635237</v>
       </c>
       <c r="GH2">
-        <v>5.419155024443951E-05</v>
+        <v>4.907891213173788E-05</v>
       </c>
       <c r="GI2">
-        <v>0.0002454935711073374</v>
+        <v>0.0002405592184955764</v>
       </c>
       <c r="GJ2">
-        <v>0.00335803191514693</v>
+        <v>0.003355998318394209</v>
       </c>
       <c r="GK2">
-        <v>2.239006610099391E-05</v>
+        <v>1.724779033205846E-05</v>
       </c>
       <c r="GL2">
-        <v>0.01206955105444161</v>
+        <v>0.01207563623001914</v>
       </c>
       <c r="GM2">
-        <v>0.01559641007035006</v>
+        <v>0.01560578213136436</v>
       </c>
       <c r="GN2">
-        <v>0.004183669618871099</v>
+        <v>0.004182405482006673</v>
       </c>
       <c r="GO2">
-        <v>0.0001636132107380031</v>
+        <v>0.0001586025490470186</v>
       </c>
       <c r="GP2">
-        <v>3.296886314871124E-05</v>
+        <v>2.783644637720035E-05</v>
       </c>
       <c r="GQ2">
-        <v>0.0001964971708863314</v>
+        <v>0.0001915171556740485</v>
       </c>
       <c r="GR2">
-        <v>0.001594562307192524</v>
+        <v>0.001590885230349892</v>
       </c>
       <c r="GS2">
-        <v>0.000454595172050523</v>
+        <v>0.0004498556934056103</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.272936827747085E-05</v>
+        <v>3.263674079045709E-05</v>
       </c>
       <c r="C3">
-        <v>2.604327362935643E-05</v>
+        <v>2.595052351296847E-05</v>
       </c>
       <c r="D3">
-        <v>1.231124885206556E-05</v>
+        <v>1.221824687720212E-05</v>
       </c>
       <c r="E3">
-        <v>1.552116518312938E-05</v>
+        <v>1.542822208120323E-05</v>
       </c>
       <c r="F3">
-        <v>7.235724619187683E-06</v>
+        <v>7.14262955435272E-06</v>
       </c>
       <c r="G3">
-        <v>1.499874321062417E-06</v>
+        <v>1.406674055243981E-06</v>
       </c>
       <c r="H3">
-        <v>7.250803618394083E-08</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>9.322606509356206E-08</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8.256668565455948E-07</v>
+        <v>7.324542251170677E-07</v>
       </c>
       <c r="K3">
-        <v>1.086150342836488E-08</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>4.383313169308572E-06</v>
+        <v>4.290165788517962E-06</v>
       </c>
       <c r="M3">
-        <v>7.119498625304594E-06</v>
+        <v>7.02640142877368E-06</v>
       </c>
       <c r="N3">
-        <v>1.378915427428418E-06</v>
+        <v>1.285712943108121E-06</v>
       </c>
       <c r="O3">
-        <v>1.413747825595208E-05</v>
+        <v>1.404450977588355E-05</v>
       </c>
       <c r="P3">
-        <v>3.363794822965277E-05</v>
+        <v>3.354533740686482E-05</v>
       </c>
       <c r="Q3">
-        <v>1.684893411324961E-05</v>
+        <v>1.675601536387627E-05</v>
       </c>
       <c r="R3">
-        <v>4.808955546907241E-05</v>
+        <v>4.79972097025909E-05</v>
       </c>
       <c r="S3">
-        <v>5.153616528767918E-05</v>
+        <v>5.144388273532003E-05</v>
       </c>
       <c r="T3">
-        <v>1.804886905009767E-05</v>
+        <v>1.795597230867937E-05</v>
       </c>
       <c r="U3">
-        <v>1.176206838096863E-05</v>
+        <v>1.166905633360981E-05</v>
       </c>
       <c r="V3">
-        <v>2.700351257881957E-05</v>
+        <v>2.691078007413286E-05</v>
       </c>
       <c r="W3">
-        <v>4.534072761374176E-05</v>
+        <v>4.524833143112685E-05</v>
       </c>
       <c r="X3">
-        <v>1.744374208194518E-05</v>
+        <v>1.73508342419192E-05</v>
       </c>
       <c r="Y3">
-        <v>6.301220468370137E-06</v>
+        <v>6.208108263834761E-06</v>
       </c>
       <c r="Z3">
-        <v>3.367464422772148E-06</v>
+        <v>3.274298410343396E-06</v>
       </c>
       <c r="AA3">
-        <v>4.903152141949725E-07</v>
+        <v>3.970964320964052E-07</v>
       </c>
       <c r="AB3">
-        <v>2.554196165574022E-06</v>
+        <v>2.461015237027163E-06</v>
       </c>
       <c r="AC3">
-        <v>1.473896022429641E-05</v>
+        <v>1.464600277598277E-05</v>
       </c>
       <c r="AD3">
-        <v>3.749334202674546E-05</v>
+        <v>3.740080191556922E-05</v>
       </c>
       <c r="AE3">
-        <v>3.784600800818484E-05</v>
+        <v>3.775347436524019E-05</v>
       </c>
       <c r="AF3">
-        <v>2.575086564474571E-05</v>
+        <v>2.565811016531549E-05</v>
       </c>
       <c r="AG3">
-        <v>6.500333657890915E-05</v>
+        <v>6.491130102735908E-05</v>
       </c>
       <c r="AH3">
-        <v>8.779100537960633E-05</v>
+        <v>8.769938777570906E-05</v>
       </c>
       <c r="AI3">
-        <v>6.500333657890915E-05</v>
+        <v>6.491130102735908E-05</v>
       </c>
       <c r="AJ3">
-        <v>3.507091015423676E-05</v>
+        <v>3.497832561334179E-05</v>
       </c>
       <c r="AK3">
-        <v>7.287202616478424E-05</v>
+        <v>7.278013493253122E-05</v>
       </c>
       <c r="AL3">
-        <v>7.116535625460535E-05</v>
+        <v>7.107343372039296E-05</v>
       </c>
       <c r="AM3">
-        <v>2.375022475003837E-05</v>
+        <v>2.36574325769396E-05</v>
       </c>
       <c r="AN3">
-        <v>3.191271232045102E-05</v>
+        <v>3.18200698551855E-05</v>
       </c>
       <c r="AO3">
-        <v>1.609226415307274E-05</v>
+        <v>1.599933152564822E-05</v>
       </c>
       <c r="AP3">
-        <v>2.860883449433234E-06</v>
+        <v>2.76770814582465E-06</v>
       </c>
       <c r="AQ3">
-        <v>2.440247171571096E-06</v>
+        <v>2.347064153090643E-06</v>
       </c>
       <c r="AR3">
-        <v>3.858673796920061E-06</v>
+        <v>3.7655167937413E-06</v>
       </c>
       <c r="AS3">
-        <v>1.490376421562286E-05</v>
+        <v>1.481080978997214E-05</v>
       </c>
       <c r="AT3">
-        <v>3.864375096620006E-05</v>
+        <v>3.855123195462467E-05</v>
       </c>
       <c r="AU3">
-        <v>6.373328164575146E-05</v>
+        <v>6.364122280017852E-05</v>
       </c>
       <c r="AV3">
-        <v>7.447242608055605E-05</v>
+        <v>7.438056420116902E-05</v>
       </c>
       <c r="AW3">
-        <v>7.747734592240872E-05</v>
+        <v>7.738553915612719E-05</v>
       </c>
       <c r="AX3">
-        <v>0.0001132276840408875</v>
+        <v>0.0001131365329700189</v>
       </c>
       <c r="AY3">
-        <v>8.498458552730671E-05</v>
+        <v>8.489291645098369E-05</v>
       </c>
       <c r="AZ3">
-        <v>5.194949026592611E-05</v>
+        <v>5.18572152943426E-05</v>
       </c>
       <c r="BA3">
-        <v>3.618382309566474E-05</v>
+        <v>3.609125896665814E-05</v>
       </c>
       <c r="BB3">
-        <v>2.284747679754951E-05</v>
+        <v>2.275466806718939E-05</v>
       </c>
       <c r="BC3">
-        <v>8.905869531288849E-06</v>
+        <v>8.812805098509842E-06</v>
       </c>
       <c r="BD3">
-        <v>1.341815029380993E-11</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>6.876679638084028E-08</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>8.949651528984626E-06</v>
+        <v>8.856587899209356E-06</v>
       </c>
       <c r="BG3">
-        <v>1.529561419500001E-05</v>
+        <v>1.520266695625289E-05</v>
       </c>
       <c r="BH3">
-        <v>3.963409791407862E-05</v>
+        <v>3.954159706641398E-05</v>
       </c>
       <c r="BI3">
-        <v>3.927317593307375E-05</v>
+        <v>3.918066846575459E-05</v>
       </c>
       <c r="BJ3">
-        <v>2.431358272038914E-05</v>
+        <v>2.422080087981466E-05</v>
       </c>
       <c r="BK3">
-        <v>1.643987413477822E-05</v>
+        <v>1.634694788285341E-05</v>
       </c>
       <c r="BL3">
-        <v>2.85954054950391E-05</v>
+        <v>2.850270218719185E-05</v>
       </c>
       <c r="BM3">
-        <v>5.309674220554685E-05</v>
+        <v>5.300448827566179E-05</v>
       </c>
       <c r="BN3">
-        <v>9.122374519894306E-06</v>
+        <v>9.02931405802398E-06</v>
       </c>
       <c r="BO3">
-        <v>1.211046136263289E-05</v>
+        <v>1.201745570513476E-05</v>
       </c>
       <c r="BP3">
-        <v>1.323522230343733E-05</v>
+        <v>1.31422372751312E-05</v>
       </c>
       <c r="BQ3">
-        <v>2.024935493428728E-05</v>
+        <v>2.015649855188588E-05</v>
       </c>
       <c r="BR3">
-        <v>1.376298627566139E-05</v>
+        <v>1.367001092705157E-05</v>
       </c>
       <c r="BS3">
-        <v>1.499874321062417E-06</v>
+        <v>1.406674055243981E-06</v>
       </c>
       <c r="BT3">
-        <v>1.107362141720123E-06</v>
+        <v>1.014154676852698E-06</v>
       </c>
       <c r="BU3">
-        <v>1.833259603516527E-06</v>
+        <v>1.74006545230321E-06</v>
       </c>
       <c r="BV3">
-        <v>8.256668565455948E-07</v>
+        <v>7.324542251170677E-07</v>
       </c>
       <c r="BW3">
-        <v>3.4737328171793E-06</v>
+        <v>3.380568753814596E-06</v>
       </c>
       <c r="BX3">
-        <v>2.005460894453666E-05</v>
+        <v>1.996174899030744E-05</v>
       </c>
       <c r="BY3">
-        <v>5.331999219379733E-06</v>
+        <v>5.238869238399141E-06</v>
       </c>
       <c r="BZ3">
-        <v>4.383313169308572E-06</v>
+        <v>4.290165788517962E-06</v>
       </c>
       <c r="CA3">
-        <v>3.102469836718672E-05</v>
+        <v>3.09320396148955E-05</v>
       </c>
       <c r="CB3">
-        <v>2.944507145032164E-05</v>
+        <v>2.935238372616111E-05</v>
       </c>
       <c r="CC3">
-        <v>1.246190734413648E-05</v>
+        <v>1.236890813249396E-05</v>
       </c>
       <c r="CD3">
-        <v>4.476221764418842E-05</v>
+        <v>4.466981085114706E-05</v>
       </c>
       <c r="CE3">
-        <v>6.41928316215656E-05</v>
+        <v>6.410078120457898E-05</v>
       </c>
       <c r="CF3">
-        <v>2.730292856306147E-05</v>
+        <v>2.721020154995044E-05</v>
       </c>
       <c r="CG3">
-        <v>3.532487814087056E-05</v>
+        <v>3.52322982579915E-05</v>
       </c>
       <c r="CH3">
-        <v>2.944507145032164E-05</v>
+        <v>2.935238372616111E-05</v>
       </c>
       <c r="CI3">
-        <v>4.211161378368829E-05</v>
+        <v>4.201915837603559E-05</v>
       </c>
       <c r="CJ3">
-        <v>2.031275393095062E-05</v>
+        <v>2.021989871134749E-05</v>
       </c>
       <c r="CK3">
-        <v>1.490376421562286E-05</v>
+        <v>1.481080978997214E-05</v>
       </c>
       <c r="CL3">
-        <v>1.768455606927127E-05</v>
+        <v>1.759165264600426E-05</v>
       </c>
       <c r="CM3">
-        <v>0.0001343036329316716</v>
+        <v>0.0001342128684138746</v>
       </c>
       <c r="CN3">
-        <v>0.0557333650667828</v>
+        <v>0.05573429404225803</v>
       </c>
       <c r="CO3">
-        <v>0.02094310389777564</v>
+        <v>0.02094339478656798</v>
       </c>
       <c r="CP3">
-        <v>0.09625692493404953</v>
+        <v>0.09625859715039232</v>
       </c>
       <c r="CQ3">
-        <v>0.05787299295417533</v>
+        <v>0.05787396117247356</v>
       </c>
       <c r="CR3">
-        <v>0.0005162833728282822</v>
+        <v>0.000516199614184456</v>
       </c>
       <c r="CS3">
-        <v>0.0008231561066777343</v>
+        <v>0.000823077976373513</v>
       </c>
       <c r="CT3">
-        <v>0.02363113575630596</v>
+        <v>0.02363147594617494</v>
       </c>
       <c r="CU3">
-        <v>0.001793681105599522</v>
+        <v>0.001793620775652539</v>
       </c>
       <c r="CV3">
-        <v>0.02277121580156309</v>
+        <v>0.02277154021967719</v>
       </c>
       <c r="CW3">
-        <v>0.03065724738652547</v>
+        <v>0.03065771644200548</v>
       </c>
       <c r="CX3">
-        <v>0.01491005021529203</v>
+        <v>0.01491023045210642</v>
       </c>
       <c r="CY3">
-        <v>0.1462200623045163</v>
+        <v>0.1462226508926114</v>
       </c>
       <c r="CZ3">
-        <v>0.00192876119849033</v>
+        <v>0.001928703346041517</v>
       </c>
       <c r="DA3">
-        <v>0.0003618748809547186</v>
+        <v>0.0003617882903113879</v>
       </c>
       <c r="DB3">
-        <v>0.01946904897535437</v>
+        <v>0.01946931282856881</v>
       </c>
       <c r="DC3">
-        <v>0.02880473648402212</v>
+        <v>0.0288051715626794</v>
       </c>
       <c r="DD3">
-        <v>0.05991579684666365</v>
+        <v>0.05991680253194015</v>
       </c>
       <c r="DE3">
-        <v>0.006553032655117396</v>
+        <v>0.006553059616232361</v>
       </c>
       <c r="DF3">
-        <v>0.007749769892133755</v>
+        <v>0.007749818802554882</v>
       </c>
       <c r="DG3">
-        <v>0.00465146775519574</v>
+        <v>0.00465145983979071</v>
       </c>
       <c r="DH3">
-        <v>0.004600661057869669</v>
+        <v>0.004600652210621191</v>
       </c>
       <c r="DI3">
-        <v>0.000308780013749073</v>
+        <v>0.0003086924492950679</v>
       </c>
       <c r="DJ3">
-        <v>0.0006088811679549098</v>
+        <v>0.0006087991076432589</v>
       </c>
       <c r="DK3">
-        <v>0.02184439485034118</v>
+        <v>0.02184470226967209</v>
       </c>
       <c r="DL3">
-        <v>0.001238388634824268</v>
+        <v>0.001238318120281976</v>
       </c>
       <c r="DM3">
-        <v>0.00510588773127986</v>
+        <v>0.005105888150372055</v>
       </c>
       <c r="DN3">
-        <v>0.01087871442745908</v>
+        <v>0.01087882072571727</v>
       </c>
       <c r="DO3">
-        <v>0.003815053299215785</v>
+        <v>0.003815030043169214</v>
       </c>
       <c r="DP3">
-        <v>0.02565575264975146</v>
+        <v>0.02565612997303175</v>
       </c>
       <c r="DQ3">
-        <v>0.02436996471742179</v>
+        <v>0.02437031845812095</v>
       </c>
       <c r="DR3">
-        <v>0.0008788753837452585</v>
+        <v>0.0008787982753859001</v>
       </c>
       <c r="DS3">
-        <v>0.002089036090055148</v>
+        <v>0.002088981177201224</v>
       </c>
       <c r="DT3">
-        <v>0.004223857777700624</v>
+        <v>0.0042238420195194</v>
       </c>
       <c r="DU3">
-        <v>0.0001361444528347902</v>
+        <v>0.0001360537220793918</v>
       </c>
       <c r="DV3">
-        <v>0.008584209548217642</v>
+        <v>0.008584273763060592</v>
       </c>
       <c r="DW3">
-        <v>0.0003448584818502825</v>
+        <v>0.0003447715791099081</v>
       </c>
       <c r="DX3">
-        <v>0.01851101502577518</v>
+        <v>0.01851126130773019</v>
       </c>
       <c r="DY3">
-        <v>0.01336320729670155</v>
+        <v>0.01336335916293653</v>
       </c>
       <c r="DZ3">
-        <v>1.003786547171251E-06</v>
+        <v>9.105771826283042E-07</v>
       </c>
       <c r="EA3">
-        <v>0.004986477737564343</v>
+        <v>0.004986475966562984</v>
       </c>
       <c r="EB3">
-        <v>0.0005681218201000524</v>
+        <v>0.0005680390122229566</v>
       </c>
       <c r="EC3">
-        <v>0.003687500305928831</v>
+        <v>0.003687474710438299</v>
       </c>
       <c r="ED3">
-        <v>0.01232631135127283</v>
+        <v>0.0123264441998439</v>
       </c>
       <c r="EE3">
-        <v>0.01138796540065747</v>
+        <v>0.01138808103906585</v>
       </c>
       <c r="EF3">
-        <v>0.002649540660556092</v>
+        <v>0.002649496027892374</v>
       </c>
       <c r="EG3">
-        <v>0.002268031080634737</v>
+        <v>0.002267979450720232</v>
       </c>
       <c r="EH3">
-        <v>0.003608529810085006</v>
+        <v>0.003608502766200009</v>
       </c>
       <c r="EI3">
-        <v>0.00353982581370086</v>
+        <v>0.003539797509718822</v>
       </c>
       <c r="EJ3">
-        <v>0.0002840533850504223</v>
+        <v>0.0002839653670863842</v>
       </c>
       <c r="EK3">
-        <v>0.002680687358916858</v>
+        <v>0.002680643297513394</v>
       </c>
       <c r="EL3">
-        <v>0.00568277730091847</v>
+        <v>0.005682788300717436</v>
       </c>
       <c r="EM3">
-        <v>0.01591390916245947</v>
+        <v>0.01591410781100761</v>
       </c>
       <c r="EN3">
-        <v>0.0006825882240757468</v>
+        <v>0.0006825075156220402</v>
       </c>
       <c r="EO3">
-        <v>0.004860504744194235</v>
+        <v>0.004860500662727625</v>
       </c>
       <c r="EP3">
-        <v>0.003220070830529394</v>
+        <v>0.003220036661934971</v>
       </c>
       <c r="EQ3">
-        <v>4.680521753666643E-05</v>
+        <v>4.671284821419818E-05</v>
       </c>
       <c r="ER3">
-        <v>0.0002475401469720944</v>
+        <v>0.0002474514593203282</v>
       </c>
       <c r="ES3">
-        <v>0.0002131182187837021</v>
+        <v>0.0002130288998008323</v>
       </c>
       <c r="ET3">
-        <v>0.008705777541819584</v>
+        <v>0.008705843986335872</v>
       </c>
       <c r="EU3">
-        <v>0.004017319788570607</v>
+        <v>0.004017300242285014</v>
       </c>
       <c r="EV3">
-        <v>0.0006303347968258168</v>
+        <v>0.0006302531299942497</v>
       </c>
       <c r="EW3">
-        <v>0.0009377470506468742</v>
+        <v>0.0009376710220502249</v>
       </c>
       <c r="EX3">
-        <v>0.004437486766457445</v>
+        <v>0.004437474926436311</v>
       </c>
       <c r="EY3">
-        <v>0.003645747908126237</v>
+        <v>0.003645721546856774</v>
       </c>
       <c r="EZ3">
-        <v>0.0002091482089926416</v>
+        <v>0.0002090588171959931</v>
       </c>
       <c r="FA3">
-        <v>0.007420725309451196</v>
+        <v>0.007420768184879793</v>
       </c>
       <c r="FB3">
-        <v>0.02042041092528469</v>
+        <v>0.02042069222738772</v>
       </c>
       <c r="FC3">
-        <v>9.058420123260193E-07</v>
+        <v>8.12630851386574E-07</v>
       </c>
       <c r="FD3">
-        <v>0.007065016828171942</v>
+        <v>0.007065053179566592</v>
       </c>
       <c r="FE3">
-        <v>9.388132505907607E-09</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.01616131614943857</v>
+        <v>0.01616151933566761</v>
       </c>
       <c r="FG3">
-        <v>0.002557904565378851</v>
+        <v>0.002557858252021455</v>
       </c>
       <c r="FH3">
-        <v>0.002043990992425847</v>
+        <v>0.002043935253401726</v>
       </c>
       <c r="FI3">
-        <v>0.001756159407574269</v>
+        <v>0.001756098389443438</v>
       </c>
       <c r="FJ3">
-        <v>4.514747462391255E-05</v>
+        <v>4.505507489685287E-05</v>
       </c>
       <c r="FK3">
-        <v>0.002508034068003508</v>
+        <v>0.002507986839973466</v>
       </c>
       <c r="FL3">
-        <v>0.009247400513314257</v>
+        <v>0.009247476891714157</v>
       </c>
       <c r="FM3">
-        <v>0.004473924764539733</v>
+        <v>0.004473913592826353</v>
       </c>
       <c r="FN3">
-        <v>3.259719828442689E-07</v>
+        <v>2.327501865335679E-07</v>
       </c>
       <c r="FO3">
-        <v>0.001031477445713894</v>
+        <v>0.001031403136222386</v>
       </c>
       <c r="FP3">
-        <v>0.002382301874620726</v>
+        <v>0.002382252340541937</v>
       </c>
       <c r="FQ3">
-        <v>0.001195295737092225</v>
+        <v>0.00119522443218495</v>
       </c>
       <c r="FR3">
-        <v>0.0001074936343426675</v>
+        <v>0.0001074023781038401</v>
       </c>
       <c r="FS3">
-        <v>0.0006379386664256292</v>
+        <v>0.0006378571390563073</v>
       </c>
       <c r="FT3">
-        <v>0.005401564015718574</v>
+        <v>0.005401569857796779</v>
       </c>
       <c r="FU3">
-        <v>0.001382385727245778</v>
+        <v>0.001382317853747961</v>
       </c>
       <c r="FV3">
-        <v>0.005474637011872781</v>
+        <v>0.005474644194179664</v>
       </c>
       <c r="FW3">
-        <v>0.002471464869928126</v>
+        <v>0.002471416971183996</v>
       </c>
       <c r="FX3">
-        <v>0.001091376442561442</v>
+        <v>0.001091303231674858</v>
       </c>
       <c r="FY3">
-        <v>0.002623709461915574</v>
+        <v>0.002623664355482954</v>
       </c>
       <c r="FZ3">
-        <v>0.001401131926259176</v>
+        <v>0.001401064396584588</v>
       </c>
       <c r="GA3">
-        <v>2.913409846668798E-05</v>
+        <v>2.904140503898535E-05</v>
       </c>
       <c r="GB3">
-        <v>1.195995937055373E-05</v>
+        <v>1.186695095270503E-05</v>
       </c>
       <c r="GC3">
-        <v>1.413747825595208E-05</v>
+        <v>1.404450977588355E-05</v>
       </c>
       <c r="GD3">
-        <v>0.00126685953332586</v>
+        <v>0.001266789540967092</v>
       </c>
       <c r="GE3">
-        <v>0.004023677488236005</v>
+        <v>0.004023658058556707</v>
       </c>
       <c r="GF3">
-        <v>7.548154902744644E-06</v>
+        <v>7.455065568180066E-06</v>
       </c>
       <c r="GG3">
-        <v>0.0004515452062354172</v>
+        <v>0.0004514602602316635</v>
       </c>
       <c r="GH3">
-        <v>0.0002390262274201775</v>
+        <v>0.0002389373836149792</v>
       </c>
       <c r="GI3">
-        <v>1.146832939642796E-05</v>
+        <v>1.137531196161506E-05</v>
       </c>
       <c r="GJ3">
-        <v>0.002212942883534</v>
+        <v>0.002212890243249243</v>
       </c>
       <c r="GK3">
-        <v>1.176206838096863E-05</v>
+        <v>1.166905633360981E-05</v>
       </c>
       <c r="GL3">
-        <v>0.01350639928916543</v>
+        <v>0.01350655378167859</v>
       </c>
       <c r="GM3">
-        <v>0.01950915797324345</v>
+        <v>0.0195094225620953</v>
       </c>
       <c r="GN3">
-        <v>0.003995497489719104</v>
+        <v>0.003995477543191665</v>
       </c>
       <c r="GO3">
-        <v>3.684438806089956E-07</v>
+        <v>2.752228632735437E-07</v>
       </c>
       <c r="GP3">
-        <v>6.534892656072094E-05</v>
+        <v>6.525689734762185E-05</v>
       </c>
       <c r="GQ3">
-        <v>0.0009089386521630448</v>
+        <v>0.0009088620951927986</v>
       </c>
       <c r="GR3">
-        <v>0.002482904269326076</v>
+        <v>0.002482856580391478</v>
       </c>
       <c r="GS3">
-        <v>0.0003662603407239141</v>
+        <v>0.0003661738305141123</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.510976696483839E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.136232772554461E-05</v>
+        <v>6.574690140552735E-06</v>
       </c>
       <c r="D4">
-        <v>5.167333729961538E-05</v>
+        <v>4.691990867891783E-05</v>
       </c>
       <c r="E4">
-        <v>2.547049362642549E-05</v>
+        <v>2.069482859554875E-05</v>
       </c>
       <c r="F4">
-        <v>3.674072834608947E-08</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>2.397730853107773E-06</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.395348280666192E-05</v>
+        <v>3.919350291797338E-05</v>
       </c>
       <c r="I4">
-        <v>9.231027089449812E-06</v>
+        <v>4.441580827668865E-06</v>
       </c>
       <c r="J4">
-        <v>1.719829909820219E-06</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9.323379595347008E-07</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>5.138187928100426E-06</v>
+        <v>3.452683772549678E-07</v>
       </c>
       <c r="M4">
-        <v>1.346862386004274E-07</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>9.004497574984708E-06</v>
+        <v>4.214859074404638E-06</v>
       </c>
       <c r="O4">
-        <v>4.79321230607191E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2.835427681057026E-06</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>6.907958741109635E-06</v>
+        <v>2.116541063504045E-06</v>
       </c>
       <c r="R4">
-        <v>4.275883773037752E-05</v>
+        <v>3.799784403500959E-05</v>
       </c>
       <c r="S4">
-        <v>3.608348430412096E-05</v>
+        <v>3.131682573135543E-05</v>
       </c>
       <c r="T4">
-        <v>1.717856209694188E-05</v>
+        <v>1.239586031871944E-05</v>
       </c>
       <c r="U4">
-        <v>7.119317454606004E-06</v>
+        <v>2.328079141465847E-06</v>
       </c>
       <c r="V4">
-        <v>5.517622752329342E-06</v>
+        <v>7.250251996796931E-07</v>
       </c>
       <c r="W4">
-        <v>1.588087501407771E-05</v>
+        <v>1.109707198506667E-05</v>
       </c>
       <c r="X4">
-        <v>9.408073600755167E-06</v>
+        <v>4.618777585218302E-06</v>
       </c>
       <c r="Y4">
-        <v>2.782813877697357E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>2.12501333569332E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>9.654465616488599E-06</v>
+        <v>4.865378695582647E-06</v>
       </c>
       <c r="AB4">
-        <v>5.432454846890921E-07</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>2.19618114023776E-06</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>2.500140559647174E-07</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>9.068270979056976E-07</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.53041739772523E-07</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>3.334259212910053E-07</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>2.835427681057026E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>4.146579264780977E-07</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>4.384140779950534E-06</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>1.144036773052788E-06</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>6.073888387849839E-07</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>5.770416868471581E-06</v>
+        <v>9.780338434406717E-07</v>
       </c>
       <c r="AN4">
-        <v>4.228463470009716E-06</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>1.53041739772523E-07</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>6.631100823430795E-06</v>
+        <v>1.839448197042713E-06</v>
       </c>
       <c r="AQ4">
-        <v>1.058515367591794E-05</v>
+        <v>5.796856560946664E-06</v>
       </c>
       <c r="AR4">
-        <v>3.30109151079212E-06</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.324403184570135E-05</v>
+        <v>8.457991123445961E-06</v>
       </c>
       <c r="AT4">
-        <v>1.609361702766241E-05</v>
+        <v>1.1309994537021E-05</v>
       </c>
       <c r="AU4">
-        <v>3.055976195140214E-05</v>
+        <v>2.578841580512425E-05</v>
       </c>
       <c r="AV4">
-        <v>6.026088884797589E-05</v>
+        <v>5.551474784541039E-05</v>
       </c>
       <c r="AW4">
-        <v>2.46950715769107E-05</v>
+        <v>1.991874850284712E-05</v>
       </c>
       <c r="AX4">
-        <v>1.588087501407771E-05</v>
+        <v>1.109707198506667E-05</v>
       </c>
       <c r="AY4">
-        <v>3.372619715359574E-05</v>
+        <v>2.895753812604588E-05</v>
       </c>
       <c r="AZ4">
-        <v>1.87569361977294E-05</v>
+        <v>1.397557386855146E-05</v>
       </c>
       <c r="BA4">
-        <v>7.381597071353942E-07</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>1.422989290865379E-05</v>
+        <v>9.444688813569435E-06</v>
       </c>
       <c r="BC4">
-        <v>1.007219864316306E-05</v>
+        <v>5.283466221297071E-06</v>
       </c>
       <c r="BD4">
-        <v>8.058410514572054E-06</v>
+        <v>3.267969140067194E-06</v>
       </c>
       <c r="BE4">
-        <v>1.199872476618192E-05</v>
+        <v>7.211627244162175E-06</v>
       </c>
       <c r="BF4">
-        <v>2.500140559647174E-07</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>5.23814183448301E-07</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>3.734398938461087E-05</v>
+        <v>3.257840050902601E-05</v>
       </c>
       <c r="BI4">
-        <v>6.209612396516535E-05</v>
+        <v>5.735154039053973E-05</v>
       </c>
       <c r="BJ4">
-        <v>3.750674239500351E-05</v>
+        <v>3.274129163582854E-05</v>
       </c>
       <c r="BK4">
-        <v>6.378456407298115E-05</v>
+        <v>5.904141335225753E-05</v>
       </c>
       <c r="BL4">
-        <v>6.314875403238132E-05</v>
+        <v>5.840506374682896E-05</v>
       </c>
       <c r="BM4">
-        <v>4.134767264026718E-05</v>
+        <v>3.658548139374162E-05</v>
       </c>
       <c r="BN4">
-        <v>3.783330241585609E-05</v>
+        <v>3.306812878395259E-05</v>
       </c>
       <c r="BO4">
-        <v>4.645740296655044E-05</v>
+        <v>4.169954796920673E-05</v>
       </c>
       <c r="BP4">
-        <v>1.81648551599219E-05</v>
+        <v>1.338299037547689E-05</v>
       </c>
       <c r="BQ4">
-        <v>4.384140779950534E-06</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>4.899803312878309E-06</v>
+        <v>1.066814626889099E-07</v>
       </c>
       <c r="BS4">
-        <v>3.741177838893956E-06</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>1.186914375790749E-09</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>1.305110683338207E-05</v>
+        <v>8.264902389976363E-06</v>
       </c>
       <c r="BV4">
-        <v>2.52267176108591E-05</v>
+        <v>2.045084570535679E-05</v>
       </c>
       <c r="BW4">
-        <v>3.753607239687638E-05</v>
+        <v>3.277064652789884E-05</v>
       </c>
       <c r="BX4">
-        <v>4.703582800348594E-05</v>
+        <v>4.227846387257413E-05</v>
       </c>
       <c r="BY4">
-        <v>4.869225010925723E-05</v>
+        <v>4.393629166094358E-05</v>
       </c>
       <c r="BZ4">
-        <v>5.324951340026255E-05</v>
+        <v>4.849742236332978E-05</v>
       </c>
       <c r="CA4">
-        <v>0.0001078116868843454</v>
+        <v>0.0001031058987176275</v>
       </c>
       <c r="CB4">
-        <v>0.000100215926399316</v>
+        <v>9.550369227398858E-05</v>
       </c>
       <c r="CC4">
-        <v>4.48718528653047E-05</v>
+        <v>4.011265232917708E-05</v>
       </c>
       <c r="CD4">
-        <v>3.868567947028487E-05</v>
+        <v>3.392122918757376E-05</v>
       </c>
       <c r="CE4">
-        <v>4.31074647526392E-05</v>
+        <v>3.834676691117031E-05</v>
       </c>
       <c r="CF4">
-        <v>3.786276241773727E-05</v>
+        <v>3.309761378635256E-05</v>
       </c>
       <c r="CG4">
-        <v>2.562917163655791E-05</v>
+        <v>2.085364126394056E-05</v>
       </c>
       <c r="CH4">
-        <v>3.182411403213769E-07</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>1.42811199119249E-07</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>4.228463470009716E-06</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>1.502549295945705E-05</v>
+        <v>1.02409640311328E-05</v>
       </c>
       <c r="CL4">
-        <v>3.898741748955243E-05</v>
+        <v>3.422322326952089E-05</v>
       </c>
       <c r="CM4">
-        <v>5.960594380615419E-05</v>
+        <v>5.485924700030351E-05</v>
       </c>
       <c r="CN4">
-        <v>0.1688149507797258</v>
+        <v>0.1689534142289065</v>
       </c>
       <c r="CO4">
-        <v>0.01188448275888697</v>
+        <v>0.01188977095808164</v>
       </c>
       <c r="CP4">
-        <v>0.1846724317923097</v>
+        <v>0.1848243523096088</v>
       </c>
       <c r="CQ4">
-        <v>0.01586988901337619</v>
+        <v>0.01587855933129473</v>
       </c>
       <c r="CR4">
-        <v>0.01053538517273996</v>
+        <v>0.01053952849286458</v>
       </c>
       <c r="CS4">
-        <v>0.01208491277168548</v>
+        <v>0.01209037106096779</v>
       </c>
       <c r="CT4">
-        <v>0.002765435176587636</v>
+        <v>0.002762984716382872</v>
       </c>
       <c r="CU4">
-        <v>0.000456130509126341</v>
+        <v>0.0004517203133121595</v>
       </c>
       <c r="CV4">
-        <v>0.03950677252271599</v>
+        <v>0.0395355017107185</v>
       </c>
       <c r="CW4">
-        <v>9.470117104716973E-05</v>
+        <v>8.998425695795835E-05</v>
       </c>
       <c r="CX4">
-        <v>0.08652293552494621</v>
+        <v>0.08659156384369222</v>
       </c>
       <c r="CY4">
-        <v>0.01290557282408896</v>
+        <v>0.01291172754669624</v>
       </c>
       <c r="CZ4">
-        <v>0.002156857537726741</v>
+        <v>0.002153890622813001</v>
       </c>
       <c r="DA4">
-        <v>0.02153968437542256</v>
+        <v>0.02155316622818345</v>
       </c>
       <c r="DB4">
-        <v>0.001079993668963297</v>
+        <v>0.001076112899546145</v>
       </c>
       <c r="DC4">
-        <v>0.07089245052685722</v>
+        <v>0.07094781441216801</v>
       </c>
       <c r="DD4">
-        <v>0.003177295902887117</v>
+        <v>0.003175194958336491</v>
       </c>
       <c r="DE4">
-        <v>0.02122846035554926</v>
+        <v>0.02124167809556538</v>
       </c>
       <c r="DF4">
-        <v>0.001974541126084875</v>
+        <v>0.001971419492753462</v>
       </c>
       <c r="DG4">
-        <v>0.006756769931455431</v>
+        <v>0.006757706621053133</v>
       </c>
       <c r="DH4">
-        <v>0.001142797472973652</v>
+        <v>0.001138970000487329</v>
       </c>
       <c r="DI4">
-        <v>0.002917414186292298</v>
+        <v>0.002915092699402056</v>
       </c>
       <c r="DJ4">
-        <v>0.01848658518046606</v>
+        <v>0.01849747609436308</v>
       </c>
       <c r="DK4">
-        <v>0.001489676395123702</v>
+        <v>0.001486143293053493</v>
       </c>
       <c r="DL4">
-        <v>0.005242783334779394</v>
+        <v>0.005242435216232248</v>
       </c>
       <c r="DM4">
-        <v>0.01049768067033233</v>
+        <v>0.01050179199344199</v>
       </c>
       <c r="DN4">
-        <v>0.01926876123041213</v>
+        <v>0.01928031591911527</v>
       </c>
       <c r="DO4">
-        <v>0.004341386277220433</v>
+        <v>0.004340273209839635</v>
       </c>
       <c r="DP4">
-        <v>0.03572497228122808</v>
+        <v>0.0357504921358302</v>
       </c>
       <c r="DQ4">
-        <v>3.159790201769285E-05</v>
+        <v>2.682743686389904E-05</v>
       </c>
       <c r="DR4">
-        <v>0.004668416798103058</v>
+        <v>0.004667581257272208</v>
       </c>
       <c r="DS4">
-        <v>0.00335027021393244</v>
+        <v>0.003348316059851537</v>
       </c>
       <c r="DT4">
-        <v>0.001530843897752465</v>
+        <v>0.001527345731488686</v>
       </c>
       <c r="DU4">
-        <v>0.004454614284450639</v>
+        <v>0.004453597305282401</v>
       </c>
       <c r="DV4">
-        <v>0.0006905791140971222</v>
+        <v>0.0006863678774268828</v>
       </c>
       <c r="DW4">
-        <v>0.01130534972190626</v>
+        <v>0.01131014645384191</v>
       </c>
       <c r="DX4">
-        <v>0.014139613902889</v>
+        <v>0.01414681586464132</v>
       </c>
       <c r="DY4">
-        <v>0.004188501967457963</v>
+        <v>0.004187259158501623</v>
       </c>
       <c r="DZ4">
-        <v>0.001680036607279207</v>
+        <v>0.001676665049803626</v>
       </c>
       <c r="EA4">
-        <v>0.0004600137293743052</v>
+        <v>0.0004556068289611621</v>
       </c>
       <c r="EB4">
-        <v>0.0004691884999601627</v>
+        <v>0.0004647893854943997</v>
       </c>
       <c r="EC4">
-        <v>0.005926731878453119</v>
+        <v>0.005926964176312234</v>
       </c>
       <c r="ED4">
-        <v>0.009446029603178859</v>
+        <v>0.009449248468020003</v>
       </c>
       <c r="EE4">
-        <v>0.0005427445346571038</v>
+        <v>0.0005384078417429507</v>
       </c>
       <c r="EF4">
-        <v>0.0008281279528803417</v>
+        <v>0.000824033443708728</v>
       </c>
       <c r="EG4">
-        <v>0.003443578919890694</v>
+        <v>0.003441703949988609</v>
       </c>
       <c r="EH4">
-        <v>0.004586977692902742</v>
+        <v>0.004586073040742968</v>
       </c>
       <c r="EI4">
-        <v>0.004479507286040189</v>
+        <v>0.004478511431716293</v>
       </c>
       <c r="EJ4">
-        <v>8.595723548882328E-06</v>
+        <v>3.805738152101664E-06</v>
       </c>
       <c r="EK4">
-        <v>0.0001926990623048524</v>
+        <v>0.0001880653117582657</v>
       </c>
       <c r="EL4">
-        <v>0.009880117630897672</v>
+        <v>0.009883704874055255</v>
       </c>
       <c r="EM4">
-        <v>0.00332595381237971</v>
+        <v>0.003323979022772153</v>
       </c>
       <c r="EN4">
-        <v>0.002241691443143833</v>
+        <v>0.002238796520474198</v>
       </c>
       <c r="EO4">
-        <v>0.007439791475069963</v>
+        <v>0.007441307794397722</v>
       </c>
       <c r="EP4">
-        <v>0.001344334685842867</v>
+        <v>0.001340678243042773</v>
       </c>
       <c r="EQ4">
-        <v>0.0002508096660155213</v>
+        <v>0.0002462252296287251</v>
       </c>
       <c r="ER4">
-        <v>0.0003198891604266117</v>
+        <v>0.0003153633466836726</v>
       </c>
       <c r="ES4">
-        <v>0.003364143214818305</v>
+        <v>0.003362200833724408</v>
       </c>
       <c r="ET4">
-        <v>0.01039386966370345</v>
+        <v>0.01039789289011057</v>
       </c>
       <c r="EU4">
-        <v>0.0002069190932128765</v>
+        <v>0.0002022974101519403</v>
       </c>
       <c r="EV4">
-        <v>0.00239432215289011</v>
+        <v>0.00239155675658449</v>
       </c>
       <c r="EW4">
-        <v>5.205652332408383E-05</v>
+        <v>4.730341988494753E-05</v>
       </c>
       <c r="EX4">
-        <v>0.0007643323488066556</v>
+        <v>0.0007601837010370522</v>
       </c>
       <c r="EY4">
-        <v>0.0002205297940819916</v>
+        <v>0.0002159196614134909</v>
       </c>
       <c r="EZ4">
-        <v>0.001048748866968152</v>
+        <v>0.001044841582404712</v>
       </c>
       <c r="FA4">
-        <v>0.01595714401894789</v>
+        <v>0.01596588838371867</v>
       </c>
       <c r="FB4">
-        <v>0.006322255403709384</v>
+        <v>0.006322823353051704</v>
       </c>
       <c r="FC4">
-        <v>0.004513080288184002</v>
+        <v>0.004512112924777196</v>
       </c>
       <c r="FD4">
-        <v>0.003493434523074237</v>
+        <v>0.0034916018619252</v>
       </c>
       <c r="FE4">
-        <v>0.003435777719392546</v>
+        <v>0.003433896129190148</v>
       </c>
       <c r="FF4">
-        <v>0.00806790051517804</v>
+        <v>0.008069949864066533</v>
       </c>
       <c r="FG4">
-        <v>2.615866167036865E-06</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.0005298072338309889</v>
+        <v>0.0005254595619890764</v>
       </c>
       <c r="FI4">
-        <v>0.0001764388712665534</v>
+        <v>0.0001717913219017151</v>
       </c>
       <c r="FJ4">
-        <v>0.00014729901940582</v>
+        <v>0.0001426267412097672</v>
       </c>
       <c r="FK4">
-        <v>0.007494965478593114</v>
+        <v>0.007496528620005868</v>
       </c>
       <c r="FL4">
-        <v>0.006868360438581074</v>
+        <v>0.006869391826766436</v>
       </c>
       <c r="FM4">
-        <v>0.001149101473376195</v>
+        <v>0.001145279350627499</v>
       </c>
       <c r="FN4">
-        <v>1.607441402643619E-05</v>
+        <v>1.129077523963177E-05</v>
       </c>
       <c r="FO4">
-        <v>9.521966608027837E-05</v>
+        <v>9.050319199934914E-05</v>
       </c>
       <c r="FP4">
-        <v>0.001756319912150299</v>
+        <v>0.001753013090658265</v>
       </c>
       <c r="FQ4">
-        <v>0.0005794022369978916</v>
+        <v>0.0005750966527571193</v>
       </c>
       <c r="FR4">
-        <v>3.741177838893956E-06</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.001371785287595733</v>
+        <v>0.001368152140085564</v>
       </c>
       <c r="FT4">
-        <v>0.002729180674272594</v>
+        <v>0.00272669944756041</v>
       </c>
       <c r="FU4">
-        <v>0.0001499520195752281</v>
+        <v>0.0001452819927836681</v>
       </c>
       <c r="FV4">
-        <v>0.001006958264299601</v>
+        <v>0.001003015515150937</v>
       </c>
       <c r="FW4">
-        <v>0.0008529475844652062</v>
+        <v>0.0008488741378742537</v>
       </c>
       <c r="FX4">
-        <v>0.001516492796836071</v>
+        <v>0.001512982451857246</v>
       </c>
       <c r="FY4">
-        <v>0.002281137445662669</v>
+        <v>0.00227827599788999</v>
       </c>
       <c r="FZ4">
-        <v>0.0006364535406409186</v>
+        <v>0.0006321963716105289</v>
       </c>
       <c r="GA4">
-        <v>0.000515321432905994</v>
+        <v>0.0005109614680391274</v>
       </c>
       <c r="GB4">
-        <v>4.146579264780977E-07</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.0001162062074203798</v>
+        <v>0.0001115075430606893</v>
       </c>
       <c r="GD4">
-        <v>0.0007138425055826126</v>
+        <v>0.0007096510108274753</v>
       </c>
       <c r="GE4">
-        <v>0.001480449594534522</v>
+        <v>0.001476908662362928</v>
       </c>
       <c r="GF4">
-        <v>5.30206733856499E-05</v>
+        <v>4.826838814916789E-05</v>
       </c>
       <c r="GG4">
-        <v>0.000209606553384485</v>
+        <v>0.00020498715097169</v>
       </c>
       <c r="GH4">
-        <v>0.0002909870185810573</v>
+        <v>0.0002864366777337646</v>
       </c>
       <c r="GI4">
-        <v>0.001267603780943194</v>
+        <v>0.001263882222314602</v>
       </c>
       <c r="GJ4">
-        <v>0.001300971783073916</v>
+        <v>0.001297278541394107</v>
       </c>
       <c r="GK4">
-        <v>0.001932002423368554</v>
+        <v>0.001928844690594886</v>
       </c>
       <c r="GL4">
-        <v>0.0133045208495639</v>
+        <v>0.01331101412977375</v>
       </c>
       <c r="GM4">
-        <v>0.006789217433527376</v>
+        <v>0.006790181658913725</v>
       </c>
       <c r="GN4">
-        <v>0.001484362094784356</v>
+        <v>0.001480824482861566</v>
       </c>
       <c r="GO4">
-        <v>0.0003579887828594737</v>
+        <v>0.0003534953014405623</v>
       </c>
       <c r="GP4">
-        <v>3.734398938461087E-05</v>
+        <v>3.257840050902601E-05</v>
       </c>
       <c r="GQ4">
-        <v>0.0007740569894276253</v>
+        <v>0.0007699165942393214</v>
       </c>
       <c r="GR4">
-        <v>0.0002892560184705238</v>
+        <v>0.0002847042086518112</v>
       </c>
       <c r="GS4">
-        <v>0.002434610355462724</v>
+        <v>0.002431879148766788</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>4.377980429742217E-07</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.092786407423946E-06</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.10299210749328E-06</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3.303802722444691E-06</v>
+        <v>2.201275105213711E-06</v>
       </c>
       <c r="F5">
-        <v>2.12230551441808E-05</v>
+        <v>2.012430945993443E-05</v>
       </c>
       <c r="G5">
-        <v>5.190064635259187E-05</v>
+        <v>5.080837530196018E-05</v>
       </c>
       <c r="H5">
-        <v>5.426599036866105E-05</v>
+        <v>5.317421853375241E-05</v>
       </c>
       <c r="I5">
-        <v>8.210722055780304E-06</v>
+        <v>7.109230064346808E-06</v>
       </c>
       <c r="J5">
-        <v>1.58963601079934E-05</v>
+        <v>1.479649020253612E-05</v>
       </c>
       <c r="K5">
-        <v>9.462976064287608E-05</v>
+        <v>9.354650775008573E-05</v>
       </c>
       <c r="L5">
-        <v>0.0001497343310172341</v>
+        <v>0.0001486627081739233</v>
       </c>
       <c r="M5">
-        <v>9.869213067047418E-05</v>
+        <v>9.760973515782678E-05</v>
       </c>
       <c r="N5">
-        <v>3.452754023456606E-05</v>
+        <v>3.343160251740573E-05</v>
       </c>
       <c r="O5">
-        <v>3.197504321722543E-05</v>
+        <v>3.087856678492031E-05</v>
       </c>
       <c r="P5">
-        <v>2.793867318980398E-05</v>
+        <v>2.68413448647644E-05</v>
       </c>
       <c r="Q5">
-        <v>2.454721416676378E-06</v>
+        <v>1.352014597293359E-06</v>
       </c>
       <c r="R5">
-        <v>4.845887432920986E-06</v>
+        <v>3.743685279101892E-06</v>
       </c>
       <c r="S5">
-        <v>9.437454564114226E-06</v>
+        <v>8.336221479694671E-06</v>
       </c>
       <c r="T5">
-        <v>1.399616509508425E-06</v>
+        <v>2.966870058327389E-07</v>
       </c>
       <c r="U5">
-        <v>3.109165521122405E-05</v>
+        <v>2.999499233619468E-05</v>
       </c>
       <c r="V5">
-        <v>5.572591537857919E-05</v>
+        <v>5.463445166693486E-05</v>
       </c>
       <c r="W5">
-        <v>1.997338013569102E-05</v>
+        <v>1.887437070232033E-05</v>
       </c>
       <c r="X5">
-        <v>4.58513933114957E-05</v>
+        <v>4.475784554077157E-05</v>
       </c>
       <c r="Y5">
-        <v>8.639589058693852E-05</v>
+        <v>8.531089990152028E-05</v>
       </c>
       <c r="Z5">
-        <v>8.126197055206075E-05</v>
+        <v>8.01758963313999E-05</v>
       </c>
       <c r="AA5">
-        <v>4.407029329939564E-05</v>
+        <v>4.297636962008302E-05</v>
       </c>
       <c r="AB5">
-        <v>6.850302046538165E-05</v>
+        <v>6.741425341507331E-05</v>
       </c>
       <c r="AC5">
-        <v>8.888263060383241E-05</v>
+        <v>8.779816475526968E-05</v>
       </c>
       <c r="AD5">
-        <v>0.00011888701680767</v>
+        <v>0.0001178088835099971</v>
       </c>
       <c r="AE5">
-        <v>2.41266731639068E-05</v>
+        <v>2.302854030035769E-05</v>
       </c>
       <c r="AF5">
-        <v>7.931504053883411E-06</v>
+        <v>6.829953132325687E-06</v>
       </c>
       <c r="AG5">
-        <v>2.41266731639068E-05</v>
+        <v>2.302854030035769E-05</v>
       </c>
       <c r="AH5">
-        <v>2.962809420128121E-05</v>
+        <v>2.853112243559456E-05</v>
       </c>
       <c r="AI5">
-        <v>1.727662911737039E-07</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1.104183407501373E-05</v>
+        <v>9.940939601583587E-06</v>
       </c>
       <c r="AK5">
-        <v>2.548079517310615E-06</v>
+        <v>1.445392401544235E-06</v>
       </c>
       <c r="AL5">
-        <v>3.521881023926226E-06</v>
+        <v>2.419399433030619E-06</v>
       </c>
       <c r="AM5">
-        <v>4.75313433229086E-05</v>
+        <v>4.64381501126433E-05</v>
       </c>
       <c r="AN5">
-        <v>6.760940045931075E-05</v>
+        <v>6.652044480677187E-05</v>
       </c>
       <c r="AO5">
-        <v>8.055310054724498E-05</v>
+        <v>7.946687671661212E-05</v>
       </c>
       <c r="AP5">
-        <v>9.37703506370376E-05</v>
+        <v>9.268691636217996E-05</v>
       </c>
       <c r="AQ5">
-        <v>0.0001332405009051817</v>
+        <v>0.0001321653969702118</v>
       </c>
       <c r="AR5">
-        <v>0.0001683372511436148</v>
+        <v>0.00016726955452421</v>
       </c>
       <c r="AS5">
-        <v>0.0001349494109167914</v>
+        <v>0.0001338746676544092</v>
       </c>
       <c r="AT5">
-        <v>9.434285064092693E-05</v>
+        <v>9.325953719458364E-05</v>
       </c>
       <c r="AU5">
-        <v>6.907339046925649E-05</v>
+        <v>6.798474379791712E-05</v>
       </c>
       <c r="AV5">
-        <v>7.55985245135856E-05</v>
+        <v>7.451125499900984E-05</v>
       </c>
       <c r="AW5">
-        <v>8.648643458755363E-05</v>
+        <v>8.540146301182448E-05</v>
       </c>
       <c r="AX5">
-        <v>1.319751208965853E-05</v>
+        <v>1.209707258106709E-05</v>
       </c>
       <c r="AY5">
-        <v>5.448290337013467E-06</v>
+        <v>4.34621532284057E-06</v>
       </c>
       <c r="AZ5">
-        <v>2.53494441722138E-05</v>
+        <v>2.425156937958753E-05</v>
       </c>
       <c r="BA5">
-        <v>9.078248061673923E-06</v>
+        <v>7.97693916522338E-06</v>
       </c>
       <c r="BB5">
-        <v>1.092786407423946E-06</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>1.379219409369855E-07</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>4.3699114296874E-08</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>1.242325658439855E-05</v>
+        <v>1.132265366595246E-05</v>
       </c>
       <c r="BF5">
-        <v>2.515218117087368E-05</v>
+        <v>2.405426474506798E-05</v>
       </c>
       <c r="BG5">
-        <v>1.221606308299096E-05</v>
+        <v>1.111541643549196E-05</v>
       </c>
       <c r="BH5">
-        <v>3.693907325094903E-05</v>
+        <v>3.584364449789298E-05</v>
       </c>
       <c r="BI5">
-        <v>8.073070054845153E-05</v>
+        <v>7.96445142010399E-05</v>
       </c>
       <c r="BJ5">
-        <v>5.953451540445326E-05</v>
+        <v>5.844385551373427E-05</v>
       </c>
       <c r="BK5">
-        <v>3.275921322255276E-05</v>
+        <v>3.166290229259891E-05</v>
       </c>
       <c r="BL5">
-        <v>3.44703302341774E-05</v>
+        <v>3.33743804426078E-05</v>
       </c>
       <c r="BM5">
-        <v>1.717678611669209E-05</v>
+        <v>1.607718645048602E-05</v>
       </c>
       <c r="BN5">
-        <v>4.505544030608832E-05</v>
+        <v>4.39617245461616E-05</v>
       </c>
       <c r="BO5">
-        <v>2.665422018107793E-05</v>
+        <v>2.555662076687199E-05</v>
       </c>
       <c r="BP5">
-        <v>1.938615013170161E-07</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>2.439484716572866E-06</v>
+        <v>1.336774681420721E-06</v>
       </c>
       <c r="BR5">
-        <v>2.556803317369881E-08</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>4.442664530181655E-07</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>6.389649043408676E-07</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>3.992655527124477E-05</v>
+        <v>3.883175703873319E-05</v>
       </c>
       <c r="BV5">
-        <v>4.492280030518723E-05</v>
+        <v>4.382905655103492E-05</v>
       </c>
       <c r="BW5">
-        <v>2.53494441722138E-05</v>
+        <v>2.425156937958753E-05</v>
       </c>
       <c r="BX5">
-        <v>6.191027042059318E-05</v>
+        <v>6.082011194288225E-05</v>
       </c>
       <c r="BY5">
-        <v>5.535857437608362E-05</v>
+        <v>5.426703313558813E-05</v>
       </c>
       <c r="BZ5">
-        <v>1.287779708748651E-05</v>
+        <v>1.177729010170999E-05</v>
       </c>
       <c r="CA5">
-        <v>2.936040419946263E-05</v>
+        <v>2.826337593668426E-05</v>
       </c>
       <c r="CB5">
-        <v>5.339977036277631E-05</v>
+        <v>5.230781570852147E-05</v>
       </c>
       <c r="CC5">
-        <v>2.640035217935325E-05</v>
+        <v>2.530269918524638E-05</v>
       </c>
       <c r="CD5">
-        <v>2.938935719965933E-06</v>
+        <v>1.836331096031816E-06</v>
       </c>
       <c r="CE5">
-        <v>6.159006741841785E-06</v>
+        <v>5.05708172733131E-06</v>
       </c>
       <c r="CF5">
-        <v>1.554528210560832E-05</v>
+        <v>1.444533810367389E-05</v>
       </c>
       <c r="CG5">
-        <v>4.184865428430273E-07</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>2.456356416687486E-05</v>
+        <v>2.346552351099469E-05</v>
       </c>
       <c r="CI5">
-        <v>5.563950737799217E-06</v>
+        <v>4.461900134236452E-06</v>
       </c>
       <c r="CJ5">
-        <v>4.82447063277549E-06</v>
+        <v>3.722263958851372E-06</v>
       </c>
       <c r="CK5">
-        <v>2.355025015999082E-05</v>
+        <v>2.245199563996184E-05</v>
       </c>
       <c r="CL5">
-        <v>3.729872025339232E-05</v>
+        <v>3.620336740533663E-05</v>
       </c>
       <c r="CM5">
-        <v>0.001855909512608294</v>
+        <v>0.0018551979851554</v>
       </c>
       <c r="CN5">
-        <v>0.1378324609363776</v>
+        <v>0.1378604478274112</v>
       </c>
       <c r="CO5">
-        <v>0.001211121908227869</v>
+        <v>0.001210274295660949</v>
       </c>
       <c r="CP5">
-        <v>0.1081417007346707</v>
+        <v>0.1081634212668907</v>
       </c>
       <c r="CQ5">
-        <v>0.02242481915234509</v>
+        <v>0.02242844877908732</v>
       </c>
       <c r="CR5">
-        <v>0.0003304795022451433</v>
+        <v>0.000329446026424308</v>
       </c>
       <c r="CS5">
-        <v>0.002143003314558693</v>
+        <v>0.002142352379450486</v>
       </c>
       <c r="CT5">
-        <v>0.02059700013992764</v>
+        <v>0.02060024399784144</v>
       </c>
       <c r="CU5">
-        <v>0.0004698784331921628</v>
+        <v>0.0004688743780972909</v>
       </c>
       <c r="CV5">
-        <v>0.05093043734600067</v>
+        <v>0.0509400832023911</v>
       </c>
       <c r="CW5">
-        <v>0.01034248257026262</v>
+        <v>0.01034356216946042</v>
       </c>
       <c r="CX5">
-        <v>0.07224281049078826</v>
+        <v>0.07225695441244837</v>
       </c>
       <c r="CY5">
-        <v>0.06152662641798686</v>
+        <v>0.06153850864428936</v>
       </c>
       <c r="CZ5">
-        <v>0.0001321084008974907</v>
+        <v>0.0001310330580280909</v>
       </c>
       <c r="DA5">
-        <v>0.009662664065644207</v>
+        <v>0.009663600186310333</v>
       </c>
       <c r="DB5">
-        <v>0.003865345826259586</v>
+        <v>0.003865058398724269</v>
       </c>
       <c r="DC5">
-        <v>0.06677592545364847</v>
+        <v>0.06678891556641306</v>
       </c>
       <c r="DD5">
-        <v>0.02574373617489246</v>
+        <v>0.02574806627291917</v>
       </c>
       <c r="DE5">
-        <v>0.02310019515693332</v>
+        <v>0.02310396732459906</v>
       </c>
       <c r="DF5">
-        <v>0.0001410760309584131</v>
+        <v>0.0001400025807447516</v>
       </c>
       <c r="DG5">
-        <v>0.009891260067197196</v>
+        <v>0.009892244434003177</v>
       </c>
       <c r="DH5">
-        <v>0.0001923723913068997</v>
+        <v>0.0001913097674041036</v>
       </c>
       <c r="DI5">
-        <v>1.230469408359309E-06</v>
+        <v>1.275042054822255E-07</v>
       </c>
       <c r="DJ5">
-        <v>0.01152723707831136</v>
+        <v>0.011528566724891</v>
       </c>
       <c r="DK5">
-        <v>0.01070887207275172</v>
+        <v>0.01071002899998263</v>
       </c>
       <c r="DL5">
-        <v>0.00312314562121738</v>
+        <v>0.003122701549232251</v>
       </c>
       <c r="DM5">
-        <v>2.232478015166547E-05</v>
+        <v>2.122626699107845E-05</v>
       </c>
       <c r="DN5">
-        <v>0.01322378408983701</v>
+        <v>0.01322547179974161</v>
       </c>
       <c r="DO5">
-        <v>0.0005637187038296754</v>
+        <v>0.000562734454115433</v>
       </c>
       <c r="DP5">
-        <v>0.04538614330833499</v>
+        <v>0.0453946190183374</v>
       </c>
       <c r="DQ5">
-        <v>0.00578945203933118</v>
+        <v>0.005789570702439704</v>
       </c>
       <c r="DR5">
-        <v>0.004406667029937103</v>
+        <v>0.00440649385050027</v>
       </c>
       <c r="DS5">
-        <v>0.0005164019035082244</v>
+        <v>0.0005154076673858635</v>
       </c>
       <c r="DT5">
-        <v>0.004919771633422926</v>
+        <v>0.004919706746853385</v>
       </c>
       <c r="DU5">
-        <v>0.002089143014192787</v>
+        <v>0.002088480711643478</v>
       </c>
       <c r="DV5">
-        <v>0.005631830538260364</v>
+        <v>0.005631915934693474</v>
       </c>
       <c r="DW5">
-        <v>0.002065829014034402</v>
+        <v>0.00206516179096809</v>
       </c>
       <c r="DX5">
-        <v>0.02215895615053893</v>
+        <v>0.02216252966578542</v>
       </c>
       <c r="DY5">
-        <v>0.004540251030844618</v>
+        <v>0.004540106044868503</v>
       </c>
       <c r="DZ5">
-        <v>0.001176449807992321</v>
+        <v>0.001175594877733991</v>
       </c>
       <c r="EA5">
-        <v>0.001186595208061245</v>
+        <v>0.001185742419031927</v>
       </c>
       <c r="EB5">
-        <v>0.002527793917172803</v>
+        <v>0.002527224193726665</v>
       </c>
       <c r="EC5">
-        <v>0.0002816349219133131</v>
+        <v>0.000280591137240014</v>
       </c>
       <c r="ED5">
-        <v>0.02055182713962075</v>
+        <v>0.02055506146358438</v>
       </c>
       <c r="EE5">
-        <v>0.001609130010931774</v>
+        <v>0.001608366399635462</v>
       </c>
       <c r="EF5">
-        <v>0.004045393327482756</v>
+        <v>0.004045143899723748</v>
       </c>
       <c r="EG5">
-        <v>0.0005837466539657373</v>
+        <v>0.0005827666312339298</v>
       </c>
       <c r="EH5">
-        <v>0.004212913628620821</v>
+        <v>0.00421269955672028</v>
       </c>
       <c r="EI5">
-        <v>0.002528283717176131</v>
+        <v>0.002527714097104327</v>
       </c>
       <c r="EJ5">
-        <v>0.0002073921414089378</v>
+        <v>0.0002063326874870646</v>
       </c>
       <c r="EK5">
-        <v>5.484807037261546E-05</v>
+        <v>5.375642138812016E-05</v>
       </c>
       <c r="EL5">
-        <v>0.01349670809169114</v>
+        <v>0.013498453403345</v>
       </c>
       <c r="EM5">
-        <v>0.01073026307289704</v>
+        <v>0.01073142451478778</v>
       </c>
       <c r="EN5">
-        <v>0.0008153185555389424</v>
+        <v>0.0008143874070231044</v>
       </c>
       <c r="EO5">
-        <v>0.005377106036529871</v>
+        <v>0.005377137672294153</v>
       </c>
       <c r="EP5">
-        <v>0.00122004370828848</v>
+        <v>0.001219197978704686</v>
       </c>
       <c r="EQ5">
-        <v>0.0001503380910213358</v>
+        <v>0.0001492665956040928</v>
       </c>
       <c r="ER5">
-        <v>0.0003052262020735826</v>
+        <v>0.0003041873964383867</v>
       </c>
       <c r="ES5">
-        <v>0.001675717211384141</v>
+        <v>0.001674967653594292</v>
       </c>
       <c r="ET5">
-        <v>0.01136829507723157</v>
+        <v>0.01136959117843877</v>
       </c>
       <c r="EU5">
-        <v>0.001516575110302994</v>
+        <v>0.001515791964908755</v>
       </c>
       <c r="EV5">
-        <v>0.0008223540555867387</v>
+        <v>0.0008214243919425386</v>
       </c>
       <c r="EW5">
-        <v>7.201027548920851E-06</v>
+        <v>6.09932245724913E-06</v>
       </c>
       <c r="EX5">
-        <v>0.003939096026760615</v>
+        <v>0.003938824164512807</v>
       </c>
       <c r="EY5">
-        <v>0.001763838811982803</v>
+        <v>0.001763107852624414</v>
       </c>
       <c r="EZ5">
-        <v>0.001329973509035299</v>
+        <v>0.001329150980594591</v>
       </c>
       <c r="FA5">
-        <v>0.01647005411189085</v>
+        <v>0.01647242696062738</v>
       </c>
       <c r="FB5">
-        <v>0.01114698407572807</v>
+        <v>0.01114823346832507</v>
       </c>
       <c r="FC5">
-        <v>0.002521861617132502</v>
+        <v>0.00252129064164969</v>
       </c>
       <c r="FD5">
-        <v>0.003896604526471945</v>
+        <v>0.003896323696215722</v>
       </c>
       <c r="FE5">
-        <v>0.003289137022345059</v>
+        <v>0.003288727983537671</v>
       </c>
       <c r="FF5">
-        <v>0.01509109710252277</v>
+        <v>0.01509317891662933</v>
       </c>
       <c r="FG5">
-        <v>3.172269221551106E-07</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.001781235812100991</v>
+        <v>0.001780508524452059</v>
       </c>
       <c r="FI5">
-        <v>2.485700116886835E-05</v>
+        <v>2.37590224440917E-05</v>
       </c>
       <c r="FJ5">
-        <v>4.184865428430273E-07</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.005773742739224459</v>
+        <v>0.005773858086819655</v>
       </c>
       <c r="FL5">
-        <v>0.00710792504828835</v>
+        <v>0.007108321980626223</v>
       </c>
       <c r="FM5">
-        <v>0.00201251681367222</v>
+        <v>0.002011838338843598</v>
       </c>
       <c r="FN5">
-        <v>0.000152273181034482</v>
+        <v>0.0001512020940260597</v>
       </c>
       <c r="FO5">
-        <v>0.001073519707293056</v>
+        <v>0.001072643053207538</v>
       </c>
       <c r="FP5">
-        <v>0.002060908614000974</v>
+        <v>0.002060240352463708</v>
       </c>
       <c r="FQ5">
-        <v>0.0005052815034326768</v>
+        <v>0.0005042849203034846</v>
       </c>
       <c r="FR5">
-        <v>2.439484716572866E-06</v>
+        <v>1.336774681420721E-06</v>
       </c>
       <c r="FS5">
-        <v>0.001917018313023442</v>
+        <v>0.001916319682837828</v>
       </c>
       <c r="FT5">
-        <v>0.00593407504031369</v>
+        <v>0.005934224226709955</v>
       </c>
       <c r="FU5">
-        <v>9.037196061395033E-05</v>
+        <v>8.928780909469988E-05</v>
       </c>
       <c r="FV5">
-        <v>0.004019771727308693</v>
+        <v>0.004019516892004073</v>
       </c>
       <c r="FW5">
-        <v>0.001129349807672343</v>
+        <v>0.001128484936762439</v>
       </c>
       <c r="FX5">
-        <v>0.0009469353064330931</v>
+        <v>0.0009460319361816502</v>
       </c>
       <c r="FY5">
-        <v>0.002844824219326578</v>
+        <v>0.002844321406448394</v>
       </c>
       <c r="FZ5">
-        <v>0.0005688672038646523</v>
+        <v>0.0005678840407628224</v>
       </c>
       <c r="GA5">
-        <v>2.968113620164156E-05</v>
+        <v>2.858417563069038E-05</v>
       </c>
       <c r="GB5">
-        <v>2.53255531720515E-06</v>
+        <v>1.429864924991569E-06</v>
       </c>
       <c r="GC5">
-        <v>0.000105551360717073</v>
+        <v>0.0001044704128735444</v>
       </c>
       <c r="GD5">
-        <v>0.001715006911651059</v>
+        <v>0.001714265646116373</v>
       </c>
       <c r="GE5">
-        <v>0.001951195613255629</v>
+        <v>0.00195050419633182</v>
       </c>
       <c r="GF5">
-        <v>0.0001179235108011243</v>
+        <v>0.0001168451741514889</v>
       </c>
       <c r="GG5">
-        <v>0.0001012507106878561</v>
+        <v>0.0001001688551741961</v>
       </c>
       <c r="GH5">
-        <v>0.0003640203524730061</v>
+        <v>0.0003629939555885474</v>
       </c>
       <c r="GI5">
-        <v>0.0004960357033698648</v>
+        <v>0.0004950371688759948</v>
       </c>
       <c r="GJ5">
-        <v>0.001867370812686157</v>
+        <v>0.001866661704188463</v>
       </c>
       <c r="GK5">
-        <v>0.0008356707056772066</v>
+        <v>0.0008347438525675666</v>
       </c>
       <c r="GL5">
-        <v>0.02039839013857836</v>
+        <v>0.02040159207902276</v>
       </c>
       <c r="GM5">
-        <v>0.01202582008169853</v>
+        <v>0.01202725495630118</v>
       </c>
       <c r="GN5">
-        <v>0.001631310711082461</v>
+        <v>0.001630551781115456</v>
       </c>
       <c r="GO5">
-        <v>4.184865428430273E-07</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>1.770579612028597E-06</v>
+        <v>6.677284016633953E-07</v>
       </c>
       <c r="GQ5">
-        <v>0.001325671409006072</v>
+        <v>0.001324847972589204</v>
       </c>
       <c r="GR5">
-        <v>0.001174425907978572</v>
+        <v>0.0011735705505677</v>
       </c>
       <c r="GS5">
-        <v>0.002461457016722137</v>
+        <v>0.002460873292596395</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>4.849142547458292E-05</v>
+        <v>4.788333947977541E-05</v>
       </c>
       <c r="C6">
-        <v>3.961549120467332E-05</v>
+        <v>3.900635343196865E-05</v>
       </c>
       <c r="D6">
-        <v>3.299517400335512E-05</v>
+        <v>3.238525173821362E-05</v>
       </c>
       <c r="E6">
-        <v>2.887481887805863E-05</v>
+        <v>2.82644083602648E-05</v>
       </c>
       <c r="F6">
-        <v>5.017074152564949E-05</v>
+        <v>4.956285452595068E-05</v>
       </c>
       <c r="G6">
-        <v>3.083423093764268E-05</v>
+        <v>3.022405260569352E-05</v>
       </c>
       <c r="H6">
-        <v>7.265999820952862E-06</v>
+        <v>6.653028707555597E-06</v>
       </c>
       <c r="I6">
-        <v>1.422440043255189E-05</v>
+        <v>1.361225387370182E-05</v>
       </c>
       <c r="J6">
-        <v>8.824005268330479E-06</v>
+        <v>8.211218775013012E-06</v>
       </c>
       <c r="K6">
-        <v>2.577996878394688E-07</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.137593886638999E-07</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>4.011465121985235E-06</v>
+        <v>3.398108353674605E-06</v>
       </c>
       <c r="N6">
-        <v>5.588492669941299E-07</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.450168744098396E-05</v>
+        <v>1.388957374000977E-05</v>
       </c>
       <c r="P6">
-        <v>4.458727135586092E-05</v>
+        <v>4.397872272772554E-05</v>
       </c>
       <c r="Q6">
-        <v>2.914010188612566E-05</v>
+        <v>2.852972280376115E-05</v>
       </c>
       <c r="R6">
-        <v>6.273775190780157E-05</v>
+        <v>6.213135407007166E-05</v>
       </c>
       <c r="S6">
-        <v>5.791027576100213E-05</v>
+        <v>5.730330587839719E-05</v>
       </c>
       <c r="T6">
-        <v>5.035043553111383E-05</v>
+        <v>4.974256982474341E-05</v>
       </c>
       <c r="U6">
-        <v>9.599477291911924E-05</v>
+        <v>9.539231596226578E-05</v>
       </c>
       <c r="V6">
-        <v>0.0001138579934623245</v>
+        <v>0.0001132576532562229</v>
       </c>
       <c r="W6">
-        <v>8.419932656042976E-05</v>
+        <v>8.359547187017835E-05</v>
       </c>
       <c r="X6">
-        <v>3.097513494192746E-05</v>
+        <v>3.036497330678033E-05</v>
       </c>
       <c r="Y6">
-        <v>6.273775190780157E-05</v>
+        <v>6.213135407007166E-05</v>
       </c>
       <c r="Z6">
-        <v>4.685051442468421E-05</v>
+        <v>4.624223398567274E-05</v>
       </c>
       <c r="AA6">
-        <v>8.269063251455167E-06</v>
+        <v>7.656210998778763E-06</v>
       </c>
       <c r="AB6">
-        <v>1.070166332542846E-06</v>
+        <v>4.564610270572443E-07</v>
       </c>
       <c r="AC6">
-        <v>3.36618840236292E-07</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>5.517093167770102E-06</v>
+        <v>4.903914812937054E-06</v>
       </c>
       <c r="AE6">
-        <v>3.043720692556952E-05</v>
+        <v>2.982698154718358E-05</v>
       </c>
       <c r="AF6">
-        <v>1.656820750382507E-05</v>
+        <v>1.595633868074881E-05</v>
       </c>
       <c r="AG6">
-        <v>3.368547302434653E-05</v>
+        <v>3.307563255805917E-05</v>
       </c>
       <c r="AH6">
-        <v>0.0001050886131956552</v>
+        <v>0.0001044872338380619</v>
       </c>
       <c r="AI6">
-        <v>9.762746296876794E-05</v>
+        <v>9.702519948194873E-05</v>
       </c>
       <c r="AJ6">
-        <v>2.623969079792664E-05</v>
+        <v>2.562896802348617E-05</v>
       </c>
       <c r="AK6">
-        <v>2.190356566606877E-05</v>
+        <v>2.129232907072401E-05</v>
       </c>
       <c r="AL6">
-        <v>5.170657157235278E-05</v>
+        <v>5.109886656499953E-05</v>
       </c>
       <c r="AM6">
-        <v>8.572885660694147E-05</v>
+        <v>8.512518316250001E-05</v>
       </c>
       <c r="AN6">
-        <v>6.06605918446369E-05</v>
+        <v>6.005394786819337E-05</v>
       </c>
       <c r="AO6">
-        <v>1.21424283692409E-05</v>
+        <v>1.153003510146621E-05</v>
       </c>
       <c r="AP6">
-        <v>1.197636436419103E-05</v>
+        <v>1.136395141821181E-05</v>
       </c>
       <c r="AQ6">
-        <v>9.548566290363764E-06</v>
+        <v>8.935865655869147E-06</v>
       </c>
       <c r="AR6">
-        <v>2.01314456121801E-07</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>9.500636288906253E-07</v>
+        <v>3.363440915095125E-07</v>
       </c>
       <c r="AT6">
-        <v>7.975520242528774E-09</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>2.933015089190489E-09</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>2.539655577228762E-05</v>
+        <v>2.478573308827625E-05</v>
       </c>
       <c r="AW6">
-        <v>3.453169605007945E-05</v>
+        <v>3.392195585928395E-05</v>
       </c>
       <c r="AX6">
-        <v>5.353211862786611E-06</v>
+        <v>4.740014088393989E-06</v>
       </c>
       <c r="AY6">
-        <v>1.847515556181373E-05</v>
+        <v>1.786351270771803E-05</v>
       </c>
       <c r="AZ6">
-        <v>4.007735421871819E-05</v>
+        <v>3.946827117572364E-05</v>
       </c>
       <c r="BA6">
-        <v>4.347666132208822E-05</v>
+        <v>4.286798108920563E-05</v>
       </c>
       <c r="BB6">
-        <v>2.479764275407518E-05</v>
+        <v>2.418674910024185E-05</v>
       </c>
       <c r="BC6">
-        <v>2.069644062936112E-05</v>
+        <v>2.008506099246219E-05</v>
       </c>
       <c r="BD6">
-        <v>3.638244110635903E-05</v>
+        <v>3.5772920224617E-05</v>
       </c>
       <c r="BE6">
-        <v>8.094043246132957E-05</v>
+        <v>8.033619159958584E-05</v>
       </c>
       <c r="BF6">
-        <v>1.96229635967176E-05</v>
+        <v>1.901145675524711E-05</v>
       </c>
       <c r="BG6">
-        <v>4.014855122088323E-11</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>5.464427166168573E-06</v>
+        <v>4.85124257053487E-06</v>
       </c>
       <c r="BI6">
-        <v>1.96229635967176E-05</v>
+        <v>1.901145675524711E-05</v>
       </c>
       <c r="BJ6">
-        <v>5.4006281642285E-07</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>1.351211541089191E-05</v>
+        <v>1.289988444789694E-05</v>
       </c>
       <c r="BL6">
-        <v>1.47161144475045E-06</v>
+        <v>8.579537095918809E-07</v>
       </c>
       <c r="BM6">
-        <v>5.588492669941299E-07</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>6.034130583492768E-06</v>
+        <v>5.421013496410171E-06</v>
       </c>
       <c r="BO6">
-        <v>3.043720692556952E-05</v>
+        <v>2.982698154718358E-05</v>
       </c>
       <c r="BP6">
-        <v>1.930019058690235E-05</v>
+        <v>1.86886454975689E-05</v>
       </c>
       <c r="BQ6">
-        <v>3.410308103704563E-05</v>
+        <v>3.349329005635203E-05</v>
       </c>
       <c r="BR6">
-        <v>5.309119161445789E-05</v>
+        <v>5.248365068141074E-05</v>
       </c>
       <c r="BS6">
-        <v>5.991797482205455E-05</v>
+        <v>5.931124284719344E-05</v>
       </c>
       <c r="BT6">
-        <v>4.128822625553977E-05</v>
+        <v>4.067928669811034E-05</v>
       </c>
       <c r="BU6">
-        <v>2.599529879049488E-05</v>
+        <v>2.538454705616086E-05</v>
       </c>
       <c r="BV6">
-        <v>1.486265745196075E-05</v>
+        <v>1.425058652510673E-05</v>
       </c>
       <c r="BW6">
-        <v>1.532713046608497E-05</v>
+        <v>1.471511457822012E-05</v>
       </c>
       <c r="BX6">
-        <v>3.313266100753599E-05</v>
+        <v>3.252275503428983E-05</v>
       </c>
       <c r="BY6">
-        <v>7.097843215839363E-07</v>
+        <v>9.603631165482083E-08</v>
       </c>
       <c r="BZ6">
-        <v>7.07774621522823E-06</v>
+        <v>6.464752794209532E-06</v>
       </c>
       <c r="CA6">
-        <v>1.907688058011168E-06</v>
+        <v>1.294081996933248E-06</v>
       </c>
       <c r="CB6">
-        <v>8.476621257766829E-06</v>
+        <v>7.863793600239148E-06</v>
       </c>
       <c r="CC6">
-        <v>3.769203114618254E-05</v>
+        <v>3.708266544786305E-05</v>
       </c>
       <c r="CD6">
-        <v>1.459288344375715E-05</v>
+        <v>1.398078054930058E-05</v>
       </c>
       <c r="CE6">
-        <v>1.496052895493694E-05</v>
+        <v>1.434846962563203E-05</v>
       </c>
       <c r="CF6">
-        <v>4.379255133169416E-05</v>
+        <v>4.318390853105475E-05</v>
       </c>
       <c r="CG6">
-        <v>4.950568650542574E-05</v>
+        <v>4.88977206982291E-05</v>
       </c>
       <c r="CH6">
-        <v>2.773759784347671E-05</v>
+        <v>2.712705256759297E-05</v>
       </c>
       <c r="CI6">
-        <v>1.165256035434443E-05</v>
+        <v>1.104010903833111E-05</v>
       </c>
       <c r="CJ6">
-        <v>2.091456663599415E-05</v>
+        <v>2.03032128465278E-05</v>
       </c>
       <c r="CK6">
-        <v>1.189870736182955E-05</v>
+        <v>1.128628521367327E-05</v>
       </c>
       <c r="CL6">
-        <v>2.862957087060085E-06</v>
+        <v>2.249464223175839E-06</v>
       </c>
       <c r="CM6">
-        <v>2.855833186843453E-09</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.01075002582689912</v>
+        <v>0.01075068584823891</v>
       </c>
       <c r="CO6">
-        <v>0.08052221244861185</v>
+        <v>0.08053114031438283</v>
       </c>
       <c r="CP6">
-        <v>0.06370829193731486</v>
+        <v>0.06371522739198628</v>
       </c>
       <c r="CQ6">
-        <v>0.1534068046649702</v>
+        <v>0.1534243691881121</v>
       </c>
       <c r="CR6">
-        <v>0.002506232076212382</v>
+        <v>0.0025059152268598</v>
       </c>
       <c r="CS6">
-        <v>0.009098370276673685</v>
+        <v>0.00909883458061082</v>
       </c>
       <c r="CT6">
-        <v>0.005168645757174112</v>
+        <v>0.005168644397749415</v>
       </c>
       <c r="CU6">
-        <v>0.00273389608313545</v>
+        <v>0.002733606211446647</v>
       </c>
       <c r="CV6">
-        <v>0.00959284729171031</v>
+        <v>0.009593370190042047</v>
       </c>
       <c r="CW6">
-        <v>0.02887880087817972</v>
+        <v>0.02888160911787283</v>
       </c>
       <c r="CX6">
-        <v>0.0003893720118404711</v>
+        <v>0.0003888043194149946</v>
       </c>
       <c r="CY6">
-        <v>0.1224975397250458</v>
+        <v>0.1225114415710326</v>
       </c>
       <c r="CZ6">
-        <v>0.003650123110997133</v>
+        <v>0.003649941810114217</v>
       </c>
       <c r="DA6">
-        <v>0.00014595410443834</v>
+        <v>0.0001453575675479325</v>
       </c>
       <c r="DB6">
-        <v>0.02802404885218744</v>
+        <v>0.02802675580572169</v>
       </c>
       <c r="DC6">
-        <v>0.006461075696475805</v>
+        <v>0.006461227487041007</v>
       </c>
       <c r="DD6">
-        <v>0.07889494239912796</v>
+        <v>0.0789036774371223</v>
       </c>
       <c r="DE6">
-        <v>0.001619879949259169</v>
+        <v>0.001619458069208085</v>
       </c>
       <c r="DF6">
-        <v>0.01506779845819891</v>
+        <v>0.01506897012571368</v>
       </c>
       <c r="DG6">
-        <v>0.001801729254789051</v>
+        <v>0.001801328923464485</v>
       </c>
       <c r="DH6">
-        <v>0.003488626006086144</v>
+        <v>0.003488425568165905</v>
       </c>
       <c r="DI6">
-        <v>0.000919597657964181</v>
+        <v>0.0009190927960642739</v>
       </c>
       <c r="DJ6">
-        <v>0.0007518028228616832</v>
+        <v>0.0007512780776578386</v>
       </c>
       <c r="DK6">
-        <v>0.01767836953758415</v>
+        <v>0.01767985055179716</v>
       </c>
       <c r="DL6">
-        <v>0.0001277654138852373</v>
+        <v>0.0001271667216766268</v>
       </c>
       <c r="DM6">
-        <v>0.01087932533083101</v>
+        <v>0.0108800006738661</v>
       </c>
       <c r="DN6">
-        <v>0.01564538547576284</v>
+        <v>0.0156466255860173</v>
       </c>
       <c r="DO6">
-        <v>0.01205925736671174</v>
+        <v>0.01206007252899264</v>
       </c>
       <c r="DP6">
-        <v>0.01951373259339598</v>
+        <v>0.01951543109393062</v>
       </c>
       <c r="DQ6">
-        <v>0.03011090391564693</v>
+        <v>0.03011385815673013</v>
       </c>
       <c r="DR6">
-        <v>0.00184152875599932</v>
+        <v>0.001841133140824561</v>
       </c>
       <c r="DS6">
-        <v>0.005417281464734912</v>
+        <v>0.005417309568072523</v>
       </c>
       <c r="DT6">
-        <v>0.005279247760537426</v>
+        <v>0.005279259507196998</v>
       </c>
       <c r="DU6">
-        <v>0.000901559927415669</v>
+        <v>0.0009010529280859738</v>
       </c>
       <c r="DV6">
-        <v>0.01060410732246187</v>
+        <v>0.01060475005279284</v>
       </c>
       <c r="DW6">
-        <v>0.0004541112738091368</v>
+        <v>0.0004535512528380387</v>
       </c>
       <c r="DX6">
-        <v>0.01750097653218978</v>
+        <v>0.01750243652573765</v>
       </c>
       <c r="DY6">
-        <v>0.01045948331806397</v>
+        <v>0.01046010891078141</v>
       </c>
       <c r="DZ6">
-        <v>0.0002603052479156608</v>
+        <v>0.0002597222613740467</v>
       </c>
       <c r="EA6">
-        <v>0.0001595262448510571</v>
+        <v>0.0001589313162282269</v>
       </c>
       <c r="EB6">
-        <v>0.0002941285089441973</v>
+        <v>0.0002935495303816058</v>
       </c>
       <c r="EC6">
-        <v>0.0008908229870891678</v>
+        <v>0.0008903147154566168</v>
       </c>
       <c r="ED6">
-        <v>0.01297669739461031</v>
+        <v>0.01297762127143482</v>
       </c>
       <c r="EE6">
-        <v>0.008457646257189814</v>
+        <v>0.008458034636797028</v>
       </c>
       <c r="EF6">
-        <v>0.0021980063668395</v>
+        <v>0.002197652993445776</v>
       </c>
       <c r="EG6">
-        <v>0.001237541137632571</v>
+        <v>0.001237073951307346</v>
       </c>
       <c r="EH6">
-        <v>0.004734558143973878</v>
+        <v>0.004734505346160487</v>
       </c>
       <c r="EI6">
-        <v>0.004597367139802016</v>
+        <v>0.004597298085168612</v>
       </c>
       <c r="EJ6">
-        <v>0.0004768073144993041</v>
+        <v>0.0004762499829570846</v>
       </c>
       <c r="EK6">
-        <v>0.0009008421273938414</v>
+        <v>0.0009003350430064863</v>
       </c>
       <c r="EL6">
-        <v>0.001119332534037948</v>
+        <v>0.001118851340263735</v>
       </c>
       <c r="EM6">
-        <v>0.009306961283016762</v>
+        <v>0.009307450304510759</v>
       </c>
       <c r="EN6">
-        <v>0.0005634358571336043</v>
+        <v>0.0005628887908754253</v>
       </c>
       <c r="EO6">
-        <v>0.006827570707620607</v>
+        <v>0.006827765927005854</v>
       </c>
       <c r="EP6">
-        <v>0.009265623281759708</v>
+        <v>0.009266107404795164</v>
       </c>
       <c r="EQ6">
-        <v>0.0006877095209126603</v>
+        <v>0.0006871771807992214</v>
       </c>
       <c r="ER6">
-        <v>1.145658034838484E-06</v>
+        <v>5.31961674946831E-07</v>
       </c>
       <c r="ES6">
-        <v>9.500636288906253E-07</v>
+        <v>3.363440915095125E-07</v>
       </c>
       <c r="ET6">
-        <v>0.005720697173961526</v>
+        <v>0.00572076123136627</v>
       </c>
       <c r="EU6">
-        <v>0.007617748231649232</v>
+        <v>0.007618037085262643</v>
       </c>
       <c r="EV6">
-        <v>8.824005268330479E-06</v>
+        <v>8.211218775013012E-06</v>
       </c>
       <c r="EW6">
-        <v>0.003175406796561414</v>
+        <v>0.003175169242881693</v>
       </c>
       <c r="EX6">
-        <v>0.00164693765008197</v>
+        <v>0.001646518976306509</v>
       </c>
       <c r="EY6">
-        <v>0.002277176169246987</v>
+        <v>0.002276832177293657</v>
       </c>
       <c r="EZ6">
-        <v>6.635772201788177E-06</v>
+        <v>6.022726407860406E-06</v>
       </c>
       <c r="FA6">
-        <v>0.004341629432025251</v>
+        <v>0.004341530073058767</v>
       </c>
       <c r="FB6">
-        <v>0.02589633178748538</v>
+        <v>0.02589878661141704</v>
       </c>
       <c r="FC6">
-        <v>0.002436105674079897</v>
+        <v>0.002435780514909157</v>
       </c>
       <c r="FD6">
-        <v>0.006717379204269776</v>
+        <v>0.006717561366214065</v>
       </c>
       <c r="FE6">
-        <v>0.001281666938974399</v>
+        <v>0.001281204981455645</v>
       </c>
       <c r="FF6">
-        <v>0.01142453434741035</v>
+        <v>0.01142527429646611</v>
       </c>
       <c r="FG6">
-        <v>0.006207984588779521</v>
+        <v>0.006208106388627695</v>
       </c>
       <c r="FH6">
-        <v>0.0003633985910506414</v>
+        <v>0.0003628278208342452</v>
       </c>
       <c r="FI6">
-        <v>0.001302293439601634</v>
+        <v>0.001301833926275997</v>
       </c>
       <c r="FJ6">
-        <v>0.0005498967567218918</v>
+        <v>0.0005493480861113001</v>
       </c>
       <c r="FK6">
-        <v>0.0003179668396691006</v>
+        <v>0.0003173906858941426</v>
       </c>
       <c r="FL6">
-        <v>0.008654616263179505</v>
+        <v>0.008655027983281634</v>
       </c>
       <c r="FM6">
-        <v>0.005937930180567396</v>
+        <v>0.005938019979586255</v>
       </c>
       <c r="FN6">
-        <v>0.0002046279862225627</v>
+        <v>0.0002040384020528632</v>
       </c>
       <c r="FO6">
-        <v>1.070166332542846E-06</v>
+        <v>4.564610270572443E-07</v>
       </c>
       <c r="FP6">
-        <v>0.0003326022501141509</v>
+        <v>0.0003320278306018355</v>
       </c>
       <c r="FQ6">
-        <v>0.000926091328161648</v>
+        <v>0.0009255872357467976</v>
       </c>
       <c r="FR6">
-        <v>0.0002111574064211168</v>
+        <v>0.0002105685959727674</v>
       </c>
       <c r="FS6">
-        <v>0.0005343424162488975</v>
+        <v>0.0005337919024845582</v>
       </c>
       <c r="FT6">
-        <v>0.003411467103739807</v>
+        <v>0.003411257522666229</v>
       </c>
       <c r="FU6">
-        <v>0.002857788586902916</v>
+        <v>0.002857513396192264</v>
       </c>
       <c r="FV6">
-        <v>0.001389955842267373</v>
+        <v>0.001389506716735824</v>
       </c>
       <c r="FW6">
-        <v>0.0006789216206454278</v>
+        <v>0.0006783882391859195</v>
       </c>
       <c r="FX6">
-        <v>0.000577139617550324</v>
+        <v>0.0005765941751563914</v>
       </c>
       <c r="FY6">
-        <v>0.001546570447029889</v>
+        <v>0.001546139879970571</v>
       </c>
       <c r="FZ6">
-        <v>0.001422232643248883</v>
+        <v>0.001421787342444381</v>
       </c>
       <c r="GA6">
-        <v>0.0001105502833617399</v>
+        <v>0.0001099495511995615</v>
       </c>
       <c r="GB6">
-        <v>0.0004515671937317735</v>
+        <v>0.0004510068712930087</v>
       </c>
       <c r="GC6">
-        <v>1.584800648192437E-08</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>1.500760345636843E-06</v>
+        <v>8.871060645563176E-07</v>
       </c>
       <c r="GE6">
-        <v>0.003046056392627979</v>
+        <v>0.003045803511221429</v>
       </c>
       <c r="GF6">
-        <v>0.0009210048280069718</v>
+        <v>0.0009205001328534943</v>
       </c>
       <c r="GG6">
-        <v>0.000119801713643068</v>
+        <v>0.0001192020777542048</v>
       </c>
       <c r="GH6">
-        <v>0.0001681128851121696</v>
+        <v>0.0001675189739865585</v>
       </c>
       <c r="GI6">
-        <v>9.548566290363764E-06</v>
+        <v>8.935865655869147E-06</v>
       </c>
       <c r="GJ6">
-        <v>0.003330865101288769</v>
+        <v>0.00333064596906237</v>
       </c>
       <c r="GK6">
-        <v>0.001392631342348732</v>
+        <v>0.00139218253385782</v>
       </c>
       <c r="GL6">
-        <v>0.004160888126529061</v>
+        <v>0.004160767350131528</v>
       </c>
       <c r="GM6">
-        <v>0.01426576043380962</v>
+        <v>0.01426683706165407</v>
       </c>
       <c r="GN6">
-        <v>0.004487879736472598</v>
+        <v>0.004487797707832477</v>
       </c>
       <c r="GO6">
-        <v>6.736540204852447E-05</v>
+        <v>6.67595525767452E-05</v>
       </c>
       <c r="GP6">
-        <v>6.835022207847199E-05</v>
+        <v>6.774448930561238E-05</v>
       </c>
       <c r="GQ6">
-        <v>1.77627405401498E-05</v>
+        <v>1.715101326650449E-05</v>
       </c>
       <c r="GR6">
-        <v>0.001369528241646187</v>
+        <v>0.001369076695490716</v>
       </c>
       <c r="GS6">
-        <v>4.606720840086455E-06</v>
+        <v>3.993434608216093E-06</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.651725316471681E-05</v>
+        <v>3.138814334463635E-05</v>
       </c>
       <c r="C2">
-        <v>6.254783728213185E-05</v>
+        <v>5.22798445039985E-05</v>
       </c>
       <c r="D2">
-        <v>6.932420401269772E-05</v>
+        <v>5.389938414933211E-05</v>
       </c>
       <c r="E2">
-        <v>7.150606022253932E-05</v>
+        <v>5.389938414933211E-05</v>
       </c>
       <c r="F2">
-        <v>7.211911757530461E-05</v>
+        <v>5.389938414933211E-05</v>
       </c>
       <c r="G2">
-        <v>7.727745259857209E-05</v>
+        <v>5.389938414933211E-05</v>
       </c>
       <c r="H2">
-        <v>9.089583565999995E-05</v>
+        <v>6.236731659924967E-05</v>
       </c>
       <c r="I2">
-        <v>0.000124756335812733</v>
+        <v>9.109623094895409E-05</v>
       </c>
       <c r="J2">
-        <v>0.0001690045700123217</v>
+        <v>0.0001302225602801943</v>
       </c>
       <c r="K2">
-        <v>0.0002356489003129314</v>
+        <v>0.0001917658579394948</v>
       </c>
       <c r="L2">
-        <v>0.0003069036046343369</v>
+        <v>0.0002579238262958002</v>
       </c>
       <c r="M2">
-        <v>0.0003926286550210132</v>
+        <v>0.0003385656264761019</v>
       </c>
       <c r="N2">
-        <v>0.000476083855397451</v>
+        <v>0.00041693546124067</v>
       </c>
       <c r="O2">
-        <v>0.0005649796857984296</v>
+        <v>0.0005007509964699394</v>
       </c>
       <c r="P2">
-        <v>0.0006439865301548024</v>
+        <v>0.0005746683295322494</v>
       </c>
       <c r="Q2">
-        <v>0.0007088795704475126</v>
+        <v>0.0006344587050544395</v>
       </c>
       <c r="R2">
-        <v>0.0007547847436545751</v>
+        <v>0.0006752435175911691</v>
       </c>
       <c r="S2">
-        <v>0.0007799537337681038</v>
+        <v>0.0006952728217769853</v>
       </c>
       <c r="T2">
-        <v>0.0007910795018182883</v>
+        <v>0.0007012458162024789</v>
       </c>
       <c r="U2">
-        <v>0.000795759026839396</v>
+        <v>0.0007012458162024789</v>
       </c>
       <c r="V2">
-        <v>0.0007960219204005818</v>
+        <v>0.0007012458162024789</v>
       </c>
       <c r="W2">
-        <v>0.000796066970387785</v>
+        <v>0.0007012458162024789</v>
       </c>
       <c r="X2">
-        <v>0.0008032508244201889</v>
+        <v>0.0007032732229108126</v>
       </c>
       <c r="Y2">
-        <v>0.0008354308895653421</v>
+        <v>0.00073032013615763</v>
       </c>
       <c r="Z2">
-        <v>0.0008868252417971645</v>
+        <v>0.0007765992434049222</v>
       </c>
       <c r="AA2">
-        <v>0.0009453043690609438</v>
+        <v>0.0008299697283988732</v>
       </c>
       <c r="AB2">
-        <v>0.001015655719378275</v>
+        <v>0.0008952235008628666</v>
       </c>
       <c r="AC2">
-        <v>0.001102102089768205</v>
+        <v>0.0009765872932865662</v>
       </c>
       <c r="AD2">
-        <v>0.001205671110235369</v>
+        <v>0.001075089693382891</v>
       </c>
       <c r="AE2">
-        <v>0.001306433766689875</v>
+        <v>0.0011707831140524</v>
       </c>
       <c r="AF2">
-        <v>0.001412847697169872</v>
+        <v>0.00127213307549898</v>
       </c>
       <c r="AG2">
-        <v>0.001504239027582107</v>
+        <v>0.001358446436441386</v>
       </c>
       <c r="AH2">
-        <v>0.001567531667867598</v>
+        <v>0.00141663492045033</v>
       </c>
       <c r="AI2">
-        <v>0.001602755594026481</v>
+        <v>0.00144672853146233</v>
       </c>
       <c r="AJ2">
-        <v>0.001620457470106328</v>
+        <v>0.001459283762575767</v>
       </c>
       <c r="AK2">
-        <v>0.001633348113164474</v>
+        <v>0.001467023276799086</v>
       </c>
       <c r="AL2">
-        <v>0.001636703930179611</v>
+        <v>0.001467023276799086</v>
       </c>
       <c r="AM2">
-        <v>0.001637582332383573</v>
+        <v>0.001467023276799086</v>
       </c>
       <c r="AN2">
-        <v>0.001637861281794831</v>
+        <v>0.001467023276799086</v>
       </c>
       <c r="AO2">
-        <v>0.001648080203340925</v>
+        <v>0.001472088579577387</v>
       </c>
       <c r="AP2">
-        <v>0.001675140717462986</v>
+        <v>0.001494011170593183</v>
       </c>
       <c r="AQ2">
-        <v>0.001709361201617343</v>
+        <v>0.00152310040443458</v>
       </c>
       <c r="AR2">
-        <v>0.001724983742687811</v>
+        <v>0.001533574362685174</v>
       </c>
       <c r="AS2">
-        <v>0.001741722988763316</v>
+        <v>0.001545166066663273</v>
       </c>
       <c r="AT2">
-        <v>0.001773116886904923</v>
+        <v>0.001571426080231701</v>
       </c>
       <c r="AU2">
-        <v>0.001811422847077708</v>
+        <v>0.0016046045975847</v>
       </c>
       <c r="AV2">
-        <v>0.00184582404023288</v>
+        <v>0.00163387470884016</v>
       </c>
       <c r="AW2">
-        <v>0.001866144671324539</v>
+        <v>0.001649051135535807</v>
       </c>
       <c r="AX2">
-        <v>0.00188263242939891</v>
+        <v>0.001660391117136448</v>
       </c>
       <c r="AY2">
-        <v>0.001894811010953843</v>
+        <v>0.001667417906244946</v>
       </c>
       <c r="AZ2">
-        <v>0.001898723966971493</v>
+        <v>0.001667417906244946</v>
       </c>
       <c r="BA2">
-        <v>0.001902106965986753</v>
+        <v>0.001667417906244946</v>
       </c>
       <c r="BB2">
-        <v>0.001902214307323237</v>
+        <v>0.001667417906244946</v>
       </c>
       <c r="BC2">
-        <v>0.00190221504434857</v>
+        <v>0.001667417906244946</v>
       </c>
       <c r="BD2">
-        <v>0.001905570861363707</v>
+        <v>0.001667417906244946</v>
       </c>
       <c r="BE2">
-        <v>0.001912187564393553</v>
+        <v>0.001668877633389653</v>
       </c>
       <c r="BF2">
-        <v>0.00192738864846212</v>
+        <v>0.001678929741858006</v>
       </c>
       <c r="BG2">
-        <v>0.001942469690530145</v>
+        <v>0.001688861696451683</v>
       </c>
       <c r="BH2">
-        <v>0.00195536033358829</v>
+        <v>0.001696601210675001</v>
       </c>
       <c r="BI2">
-        <v>0.001970802931657947</v>
+        <v>0.001706895058225416</v>
       </c>
       <c r="BJ2">
-        <v>0.001986245529727603</v>
+        <v>0.00171718890577583</v>
       </c>
       <c r="BK2">
-        <v>0.002006638543819589</v>
+        <v>0.001732437782929739</v>
       </c>
       <c r="BL2">
-        <v>0.002017107496366811</v>
+        <v>0.001737753349727628</v>
       </c>
       <c r="BM2">
-        <v>0.002026602058409638</v>
+        <v>0.001742093617929831</v>
       </c>
       <c r="BN2">
-        <v>0.002032009976734031</v>
+        <v>0.001742343433832179</v>
       </c>
       <c r="BO2">
-        <v>0.002036724267755296</v>
+        <v>0.001742343433832179</v>
       </c>
       <c r="BP2">
-        <v>0.002040080084770433</v>
+        <v>0.001742343433832179</v>
       </c>
       <c r="BQ2">
-        <v>0.002040873886874013</v>
+        <v>0.001742343433832179</v>
       </c>
       <c r="BR2">
-        <v>0.00204107731580493</v>
+        <v>0.001742343433832179</v>
       </c>
       <c r="BS2">
-        <v>0.002041079813551642</v>
+        <v>0.001742343433832179</v>
       </c>
       <c r="BT2">
-        <v>0.002044693590267942</v>
+        <v>0.001742343433832179</v>
       </c>
       <c r="BU2">
-        <v>0.002050208209292817</v>
+        <v>0.001742700049875609</v>
       </c>
       <c r="BV2">
-        <v>0.00205946473333457</v>
+        <v>0.001746802058235254</v>
       </c>
       <c r="BW2">
-        <v>0.002071535891389019</v>
+        <v>0.001753721323729047</v>
       </c>
       <c r="BX2">
-        <v>0.002078676813221229</v>
+        <v>0.001755705758226168</v>
       </c>
       <c r="BY2">
-        <v>0.002087287972260071</v>
+        <v>0.001759161800129648</v>
       </c>
       <c r="BZ2">
-        <v>0.002092101920281785</v>
+        <v>0.001759161800129648</v>
       </c>
       <c r="CA2">
-        <v>0.002094941285894592</v>
+        <v>0.001759161800129648</v>
       </c>
       <c r="CB2">
-        <v>0.002097009819003923</v>
+        <v>0.001759161800129648</v>
       </c>
       <c r="CC2">
-        <v>0.00209886245001228</v>
+        <v>0.001759161800129648</v>
       </c>
       <c r="CD2">
-        <v>0.00209889809683644</v>
+        <v>0.001759161800129648</v>
       </c>
       <c r="CE2">
-        <v>0.002099958547541224</v>
+        <v>0.001759161800129648</v>
       </c>
       <c r="CF2">
-        <v>0.002106575250571069</v>
+        <v>0.001760621527274355</v>
       </c>
       <c r="CG2">
-        <v>0.002115693381612198</v>
+        <v>0.001764585013656873</v>
       </c>
       <c r="CH2">
-        <v>0.002128584024670343</v>
+        <v>0.001772324527880192</v>
       </c>
       <c r="CI2">
-        <v>0.002144515361742204</v>
+        <v>0.001783107569917167</v>
       </c>
       <c r="CJ2">
-        <v>0.002163539012828013</v>
+        <v>0.001796985807875718</v>
       </c>
       <c r="CK2">
-        <v>0.002182832729915041</v>
+        <v>0.001811134363525731</v>
       </c>
       <c r="CL2">
-        <v>0.002206706367022727</v>
+        <v>0.001829867107490754</v>
       </c>
       <c r="CM2">
-        <v>0.002305312947467507</v>
+        <v>0.001923402442777663</v>
       </c>
       <c r="CN2">
-        <v>0.03478295609396302</v>
+        <v>0.03442615025510735</v>
       </c>
       <c r="CO2">
-        <v>0.06841599624567013</v>
+        <v>0.06808537185444596</v>
       </c>
       <c r="CP2">
-        <v>0.1802688267501999</v>
+        <v>0.1800372813873208</v>
       </c>
       <c r="CQ2">
-        <v>0.2508786420686966</v>
+        <v>0.250707738964966</v>
       </c>
       <c r="CR2">
-        <v>0.250948342849011</v>
+        <v>0.250772341561123</v>
       </c>
       <c r="CS2">
-        <v>0.2564240581737101</v>
+        <v>0.256247996881642</v>
       </c>
       <c r="CT2">
-        <v>0.2689624037302663</v>
+        <v>0.2687928645106901</v>
       </c>
       <c r="CU2">
-        <v>0.2697360901337561</v>
+        <v>0.2695621088152479</v>
       </c>
       <c r="CV2">
-        <v>0.2899922132251245</v>
+        <v>0.2898319466257294</v>
       </c>
       <c r="CW2">
-        <v>0.3234530203760548</v>
+        <v>0.3233187747103212</v>
       </c>
       <c r="CX2">
-        <v>0.3429027644637859</v>
+        <v>0.3427814820055818</v>
       </c>
       <c r="CY2">
-        <v>0.465057485014784</v>
+        <v>0.4650448825165789</v>
       </c>
       <c r="CZ2">
-        <v>0.4650578896794458</v>
+        <v>0.4650448825165789</v>
       </c>
       <c r="DA2">
-        <v>0.4674825390903826</v>
+        <v>0.4674666284572165</v>
       </c>
       <c r="DB2">
-        <v>0.4951491822151773</v>
+        <v>0.4951538925965749</v>
       </c>
       <c r="DC2">
-        <v>0.5283171893647869</v>
+        <v>0.5283476478024626</v>
       </c>
       <c r="DD2">
-        <v>0.5904740296451551</v>
+        <v>0.590557252521963</v>
       </c>
       <c r="DE2">
-        <v>0.6080154177242783</v>
+        <v>0.6081098253004461</v>
       </c>
       <c r="DF2">
-        <v>0.6177863382683515</v>
+        <v>0.6178846887923767</v>
       </c>
       <c r="DG2">
-        <v>0.6266682443084147</v>
+        <v>0.6267697092558756</v>
       </c>
       <c r="DH2">
-        <v>0.6269046397494811</v>
+        <v>0.6270011618652526</v>
       </c>
       <c r="DI2">
-        <v>0.6270566288001667</v>
+        <v>0.6271481294210151</v>
       </c>
       <c r="DJ2">
-        <v>0.6322008418233704</v>
+        <v>0.6322919734937265</v>
       </c>
       <c r="DK2">
-        <v>0.6426558038705292</v>
+        <v>0.6427515159868803</v>
       </c>
       <c r="DL2">
-        <v>0.6429242784717403</v>
+        <v>0.6430150776528406</v>
       </c>
       <c r="DM2">
-        <v>0.6459877993855587</v>
+        <v>0.6460762904979422</v>
       </c>
       <c r="DN2">
-        <v>0.67271589450612</v>
+        <v>0.6728241319454902</v>
       </c>
       <c r="DO2">
-        <v>0.675580447219041</v>
+        <v>0.6756861911596335</v>
       </c>
       <c r="DP2">
-        <v>0.7114620333808905</v>
+        <v>0.7115960543201704</v>
       </c>
       <c r="DQ2">
-        <v>0.7241319924380404</v>
+        <v>0.7242726581081029</v>
       </c>
       <c r="DR2">
-        <v>0.7314629847711079</v>
+        <v>0.7316053194777467</v>
       </c>
       <c r="DS2">
-        <v>0.7324793224756923</v>
+        <v>0.7326174412242864</v>
       </c>
       <c r="DT2">
-        <v>0.7400244398097257</v>
+        <v>0.740164427150462</v>
       </c>
       <c r="DU2">
-        <v>0.7402187806706022</v>
+        <v>0.7403537859865355</v>
       </c>
       <c r="DV2">
-        <v>0.7527347507270574</v>
+        <v>0.7528762572624503</v>
       </c>
       <c r="DW2">
-        <v>0.7527451678391044</v>
+        <v>0.7528815209404348</v>
       </c>
       <c r="DX2">
-        <v>0.7737522679338602</v>
+        <v>0.7739030356335346</v>
       </c>
       <c r="DY2">
-        <v>0.7803384564635683</v>
+        <v>0.7804901990737526</v>
       </c>
       <c r="DZ2">
-        <v>0.7803440088175932</v>
+        <v>0.7804905934599636</v>
       </c>
       <c r="EA2">
-        <v>0.7804438445880436</v>
+        <v>0.7805853591308098</v>
       </c>
       <c r="EB2">
-        <v>0.7812504826316821</v>
+        <v>0.7813875857850699</v>
       </c>
       <c r="EC2">
-        <v>0.7814528524825949</v>
+        <v>0.7815849810938632</v>
       </c>
       <c r="ED2">
-        <v>0.7958426695475024</v>
+        <v>0.7959830457254518</v>
       </c>
       <c r="EE2">
-        <v>0.7991703787625125</v>
+        <v>0.7993086930842179</v>
       </c>
       <c r="EF2">
-        <v>0.803959137484113</v>
+        <v>0.804096751586749</v>
       </c>
       <c r="EG2">
-        <v>0.8039601193881174</v>
+        <v>0.804096751586749</v>
       </c>
       <c r="EH2">
-        <v>0.8075991043045316</v>
+        <v>0.8077339647428843</v>
       </c>
       <c r="EI2">
-        <v>0.8109446336196222</v>
+        <v>0.8110774488093205</v>
       </c>
       <c r="EJ2">
-        <v>0.8109613728656977</v>
+        <v>0.8110890405132987</v>
       </c>
       <c r="EK2">
-        <v>0.8123196156718243</v>
+        <v>0.8124433860026685</v>
       </c>
       <c r="EL2">
-        <v>0.8158882256879211</v>
+        <v>0.8160101586720159</v>
       </c>
       <c r="EM2">
-        <v>0.8252265027300428</v>
+        <v>0.8253519754563042</v>
       </c>
       <c r="EN2">
-        <v>0.8252436892201204</v>
+        <v>0.8253640148210971</v>
       </c>
       <c r="EO2">
-        <v>0.8312570486472446</v>
+        <v>0.8313778153059103</v>
       </c>
       <c r="EP2">
-        <v>0.8366508890715744</v>
+        <v>0.8367715194220692</v>
       </c>
       <c r="EQ2">
-        <v>0.8367234517969017</v>
+        <v>0.8368389866304524</v>
       </c>
       <c r="ER2">
-        <v>0.8371595067788685</v>
+        <v>0.8372702848550909</v>
       </c>
       <c r="ES2">
-        <v>0.837221451869148</v>
+        <v>0.8373271245332334</v>
       </c>
       <c r="ET2">
-        <v>0.8480984889182106</v>
+        <v>0.8482091353845809</v>
       </c>
       <c r="EU2">
-        <v>0.8522582479369738</v>
+        <v>0.8523676079827981</v>
       </c>
       <c r="EV2">
-        <v>0.8544524611468711</v>
+        <v>0.8545587029654723</v>
       </c>
       <c r="EW2">
-        <v>0.8563108942552539</v>
+        <v>0.8564137049135886</v>
       </c>
       <c r="EX2">
-        <v>0.858084510063254</v>
+        <v>0.8581838105151375</v>
       </c>
       <c r="EY2">
-        <v>0.8599369366716096</v>
+        <v>0.8600328003654192</v>
       </c>
       <c r="EZ2">
-        <v>0.8606855328749863</v>
+        <v>0.8607769310868443</v>
       </c>
       <c r="FA2">
-        <v>0.8680853634083644</v>
+        <v>0.8681784948111287</v>
       </c>
       <c r="FB2">
-        <v>0.888756317501604</v>
+        <v>0.8888635502286653</v>
       </c>
       <c r="FC2">
-        <v>0.8887563882200183</v>
+        <v>0.8888635502286653</v>
       </c>
       <c r="FD2">
-        <v>0.8963149105541123</v>
+        <v>0.896423953647802</v>
       </c>
       <c r="FE2">
-        <v>0.8963176469035247</v>
+        <v>0.896423953647802</v>
       </c>
       <c r="FF2">
-        <v>0.911049944469977</v>
+        <v>0.911164817958472</v>
       </c>
       <c r="FG2">
-        <v>0.9137646047822219</v>
+        <v>0.9138768450784764</v>
       </c>
       <c r="FH2">
-        <v>0.9157936653913743</v>
+        <v>0.9159026335450732</v>
       </c>
       <c r="FI2">
-        <v>0.9164067745941398</v>
+        <v>0.916511150997656</v>
       </c>
       <c r="FJ2">
-        <v>0.9165913496749724</v>
+        <v>0.9166907349523858</v>
       </c>
       <c r="FK2">
-        <v>0.9196548705887908</v>
+        <v>0.9197519477974875</v>
       </c>
       <c r="FL2">
-        <v>0.9324571286465374</v>
+        <v>0.9325609738831648</v>
       </c>
       <c r="FM2">
-        <v>0.9366587766654896</v>
+        <v>0.9367613745203713</v>
       </c>
       <c r="FN2">
-        <v>0.9366603470202967</v>
+        <v>0.9367613745203713</v>
       </c>
       <c r="FO2">
-        <v>0.9366662687923234</v>
+        <v>0.9367621386688663</v>
       </c>
       <c r="FP2">
-        <v>0.9370144909138941</v>
+        <v>0.9371055221765476</v>
       </c>
       <c r="FQ2">
-        <v>0.9380063895183682</v>
+        <v>0.9380931820467556</v>
       </c>
       <c r="FR2">
-        <v>0.9381235645688968</v>
+        <v>0.9382053031571655</v>
       </c>
       <c r="FS2">
-        <v>0.9396204759756488</v>
+        <v>0.9396984464805105</v>
       </c>
       <c r="FT2">
-        <v>0.9445924174980755</v>
+        <v>0.9446698585025944</v>
       </c>
       <c r="FU2">
-        <v>0.9459325299041204</v>
+        <v>0.9460060566951062</v>
       </c>
       <c r="FV2">
-        <v>0.949900590922019</v>
+        <v>0.949972652637921</v>
       </c>
       <c r="FW2">
-        <v>0.9509788206268824</v>
+        <v>0.9510467240655016</v>
       </c>
       <c r="FX2">
-        <v>0.9522002988323921</v>
+        <v>0.9522641774953536</v>
       </c>
       <c r="FY2">
-        <v>0.955109605945515</v>
+        <v>0.9551710328189323</v>
       </c>
       <c r="FZ2">
-        <v>0.9566747394525748</v>
+        <v>0.9567324618227357</v>
       </c>
       <c r="GA2">
-        <v>0.9571153155945621</v>
+        <v>0.9571682854209271</v>
       </c>
       <c r="GB2">
-        <v>0.9574470428960584</v>
+        <v>0.9574951587360501</v>
       </c>
       <c r="GC2">
-        <v>0.9574618852791253</v>
+        <v>0.9575048518092224</v>
       </c>
       <c r="GD2">
-        <v>0.9578725524309777</v>
+        <v>0.9579107385433481</v>
       </c>
       <c r="GE2">
-        <v>0.9617459609484493</v>
+        <v>0.9617825937735551</v>
       </c>
       <c r="GF2">
-        <v>0.9617984670786862</v>
+        <v>0.9618299856949382</v>
       </c>
       <c r="GG2">
-        <v>0.9620280254297217</v>
+        <v>0.9620545948424016</v>
       </c>
       <c r="GH2">
-        <v>0.9620822169799661</v>
+        <v>0.9621036737545333</v>
       </c>
       <c r="GI2">
-        <v>0.9623277105510735</v>
+        <v>0.9623442329730288</v>
       </c>
       <c r="GJ2">
-        <v>0.9656857424662204</v>
+        <v>0.965700231291423</v>
       </c>
       <c r="GK2">
-        <v>0.9657081325323214</v>
+        <v>0.9657174790817551</v>
       </c>
       <c r="GL2">
-        <v>0.977777683586763</v>
+        <v>0.9777931153117743</v>
       </c>
       <c r="GM2">
-        <v>0.993374093657113</v>
+        <v>0.9933988974431386</v>
       </c>
       <c r="GN2">
-        <v>0.9975577632759841</v>
+        <v>0.9975813029251452</v>
       </c>
       <c r="GO2">
-        <v>0.9977213764867221</v>
+        <v>0.9977399054741922</v>
       </c>
       <c r="GP2">
-        <v>0.9977543453498708</v>
+        <v>0.9977677419205694</v>
       </c>
       <c r="GQ2">
-        <v>0.9979508425207572</v>
+        <v>0.9979592590762434</v>
       </c>
       <c r="GR2">
-        <v>0.9995454048279497</v>
+        <v>0.9995501443065933</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.272936827747085E-05</v>
+        <v>3.263674079045709E-05</v>
       </c>
       <c r="C3">
-        <v>5.877264190682728E-05</v>
+        <v>5.858726430342557E-05</v>
       </c>
       <c r="D3">
-        <v>7.108389075889283E-05</v>
+        <v>7.080551118062769E-05</v>
       </c>
       <c r="E3">
-        <v>8.660505594202222E-05</v>
+        <v>8.623373326183092E-05</v>
       </c>
       <c r="F3">
-        <v>9.38407805612099E-05</v>
+        <v>9.337636281618364E-05</v>
       </c>
       <c r="G3">
-        <v>9.534065488227232E-05</v>
+        <v>9.478303687142763E-05</v>
       </c>
       <c r="H3">
-        <v>9.541316291845626E-05</v>
+        <v>9.478303687142763E-05</v>
       </c>
       <c r="I3">
-        <v>9.550638898354983E-05</v>
+        <v>9.478303687142763E-05</v>
       </c>
       <c r="J3">
-        <v>9.633205584009542E-05</v>
+        <v>9.551549109654469E-05</v>
       </c>
       <c r="K3">
-        <v>9.634291734352378E-05</v>
+        <v>9.551549109654469E-05</v>
       </c>
       <c r="L3">
-        <v>0.0001007262305128324</v>
+        <v>9.980565688506266E-05</v>
       </c>
       <c r="M3">
-        <v>0.0001078457291381369</v>
+        <v>0.0001068320583138363</v>
       </c>
       <c r="N3">
-        <v>0.0001092246445655654</v>
+        <v>0.0001081177712569445</v>
       </c>
       <c r="O3">
-        <v>0.0001233621228215174</v>
+        <v>0.000122162281032828</v>
       </c>
       <c r="P3">
-        <v>0.0001570000710511702</v>
+        <v>0.0001557076184396928</v>
       </c>
       <c r="Q3">
-        <v>0.0001738490051644198</v>
+        <v>0.0001724636338035691</v>
       </c>
       <c r="R3">
-        <v>0.0002219385606334922</v>
+        <v>0.00022046084350616</v>
       </c>
       <c r="S3">
-        <v>0.0002734747259211714</v>
+        <v>0.00027190472624148</v>
       </c>
       <c r="T3">
-        <v>0.0002915235949712691</v>
+        <v>0.0002898606985501594</v>
       </c>
       <c r="U3">
-        <v>0.0003032856633522378</v>
+        <v>0.0003015297548837692</v>
       </c>
       <c r="V3">
-        <v>0.0003302891759310573</v>
+        <v>0.0003284405349579021</v>
       </c>
       <c r="W3">
-        <v>0.0003756299035447991</v>
+        <v>0.0003736888663890289</v>
       </c>
       <c r="X3">
-        <v>0.0003930736456267443</v>
+        <v>0.0003910397006309482</v>
       </c>
       <c r="Y3">
-        <v>0.0003993748660951144</v>
+        <v>0.0003972478088947829</v>
       </c>
       <c r="Z3">
-        <v>0.0004027423305178865</v>
+        <v>0.0004005221073051263</v>
       </c>
       <c r="AA3">
-        <v>0.0004032326457320815</v>
+        <v>0.0004009192037372227</v>
       </c>
       <c r="AB3">
-        <v>0.0004057868418976555</v>
+        <v>0.0004033802189742499</v>
       </c>
       <c r="AC3">
-        <v>0.000420525802121952</v>
+        <v>0.0004180262217502327</v>
       </c>
       <c r="AD3">
-        <v>0.0004580191441486974</v>
+        <v>0.0004554270236658019</v>
       </c>
       <c r="AE3">
-        <v>0.0004958651521568822</v>
+        <v>0.000493180498031042</v>
       </c>
       <c r="AF3">
-        <v>0.0005216160178016279</v>
+        <v>0.0005188386081963575</v>
       </c>
       <c r="AG3">
-        <v>0.0005866193543805371</v>
+        <v>0.0005837499092237166</v>
       </c>
       <c r="AH3">
-        <v>0.0006744103597601434</v>
+        <v>0.0006714492969994257</v>
       </c>
       <c r="AI3">
-        <v>0.0007394136963390526</v>
+        <v>0.0007363605980267847</v>
       </c>
       <c r="AJ3">
-        <v>0.0007744846064932894</v>
+        <v>0.0007713389236401265</v>
       </c>
       <c r="AK3">
-        <v>0.0008473566326580736</v>
+        <v>0.0008441190585726577</v>
       </c>
       <c r="AL3">
-        <v>0.0009185219889126789</v>
+        <v>0.0009151924922930507</v>
       </c>
       <c r="AM3">
-        <v>0.0009422722136627173</v>
+        <v>0.0009388499248699903</v>
       </c>
       <c r="AN3">
-        <v>0.0009741849259831683</v>
+        <v>0.0009706699947251759</v>
       </c>
       <c r="AO3">
-        <v>0.0009902771901362411</v>
+        <v>0.000986669326250824</v>
       </c>
       <c r="AP3">
-        <v>0.0009931380735856744</v>
+        <v>0.0009894370343966486</v>
       </c>
       <c r="AQ3">
-        <v>0.0009955783207572454</v>
+        <v>0.0009917840985497392</v>
       </c>
       <c r="AR3">
-        <v>0.0009994369945541654</v>
+        <v>0.0009955496153434805</v>
       </c>
       <c r="AS3">
-        <v>0.001014340758769788</v>
+        <v>0.001010360425133453</v>
       </c>
       <c r="AT3">
-        <v>0.001052984509735988</v>
+        <v>0.001048911657088077</v>
       </c>
       <c r="AU3">
-        <v>0.00111671779138174</v>
+        <v>0.001112552879888256</v>
       </c>
       <c r="AV3">
-        <v>0.001191190217462296</v>
+        <v>0.001186933444089425</v>
       </c>
       <c r="AW3">
-        <v>0.001268667563384705</v>
+        <v>0.001264318983245552</v>
       </c>
       <c r="AX3">
-        <v>0.001381895247425592</v>
+        <v>0.001377455516215571</v>
       </c>
       <c r="AY3">
-        <v>0.001466879832952899</v>
+        <v>0.001462348432666555</v>
       </c>
       <c r="AZ3">
-        <v>0.001518829323218825</v>
+        <v>0.001514205647960897</v>
       </c>
       <c r="BA3">
-        <v>0.00155501314631449</v>
+        <v>0.001550296906927555</v>
       </c>
       <c r="BB3">
-        <v>0.001577860623112039</v>
+        <v>0.001573051574994745</v>
       </c>
       <c r="BC3">
-        <v>0.001586766492643328</v>
+        <v>0.001581864380093254</v>
       </c>
       <c r="BD3">
-        <v>0.001586766506061478</v>
+        <v>0.001581864380093254</v>
       </c>
       <c r="BE3">
-        <v>0.001586835272857859</v>
+        <v>0.001581864380093254</v>
       </c>
       <c r="BF3">
-        <v>0.001595784924386844</v>
+        <v>0.001590720967992464</v>
       </c>
       <c r="BG3">
-        <v>0.001611080538581844</v>
+        <v>0.001605923634948717</v>
       </c>
       <c r="BH3">
-        <v>0.001650714636495922</v>
+        <v>0.001645465232015131</v>
       </c>
       <c r="BI3">
-        <v>0.001689987812428996</v>
+        <v>0.001684645900480885</v>
       </c>
       <c r="BJ3">
-        <v>0.001714301395149385</v>
+        <v>0.0017088667013607</v>
       </c>
       <c r="BK3">
-        <v>0.001730741269284163</v>
+        <v>0.001725213649243553</v>
       </c>
       <c r="BL3">
-        <v>0.001759336674779203</v>
+        <v>0.001753716351430745</v>
       </c>
       <c r="BM3">
-        <v>0.001812433416984749</v>
+        <v>0.001806720839706407</v>
       </c>
       <c r="BN3">
-        <v>0.001821555791504644</v>
+        <v>0.001815750153764431</v>
       </c>
       <c r="BO3">
-        <v>0.001833666252867277</v>
+        <v>0.001827767609469566</v>
       </c>
       <c r="BP3">
-        <v>0.001846901475170714</v>
+        <v>0.001840909846744697</v>
       </c>
       <c r="BQ3">
-        <v>0.001867150830105001</v>
+        <v>0.001861066345296583</v>
       </c>
       <c r="BR3">
-        <v>0.001880913816380663</v>
+        <v>0.001874736356223634</v>
       </c>
       <c r="BS3">
-        <v>0.001882413690701725</v>
+        <v>0.001876143030278878</v>
       </c>
       <c r="BT3">
-        <v>0.001883521052843445</v>
+        <v>0.001877157184955731</v>
       </c>
       <c r="BU3">
-        <v>0.001885354312446962</v>
+        <v>0.001878897250408034</v>
       </c>
       <c r="BV3">
-        <v>0.001886179979303507</v>
+        <v>0.001879629704633151</v>
       </c>
       <c r="BW3">
-        <v>0.001889653712120686</v>
+        <v>0.001883010273386965</v>
       </c>
       <c r="BX3">
-        <v>0.001909708321065223</v>
+        <v>0.001902972022377273</v>
       </c>
       <c r="BY3">
-        <v>0.001915040320284603</v>
+        <v>0.001908210891615672</v>
       </c>
       <c r="BZ3">
-        <v>0.001919423633453911</v>
+        <v>0.00191250105740419</v>
       </c>
       <c r="CA3">
-        <v>0.001950448331821098</v>
+        <v>0.001943433097019086</v>
       </c>
       <c r="CB3">
-        <v>0.00197989340327142</v>
+        <v>0.001972785480745247</v>
       </c>
       <c r="CC3">
-        <v>0.001992355310615556</v>
+        <v>0.001985154388877741</v>
       </c>
       <c r="CD3">
-        <v>0.002037117528259745</v>
+        <v>0.002029824199728888</v>
       </c>
       <c r="CE3">
-        <v>0.00210131035988131</v>
+        <v>0.002093924980933467</v>
       </c>
       <c r="CF3">
-        <v>0.002128613288444372</v>
+        <v>0.002121135182483417</v>
       </c>
       <c r="CG3">
-        <v>0.002163938166585242</v>
+        <v>0.002156367480741409</v>
       </c>
       <c r="CH3">
-        <v>0.002193383238035564</v>
+        <v>0.00218571986446757</v>
       </c>
       <c r="CI3">
-        <v>0.002235494851819252</v>
+        <v>0.002227739022843606</v>
       </c>
       <c r="CJ3">
-        <v>0.002255807605750203</v>
+        <v>0.002247958921554953</v>
       </c>
       <c r="CK3">
-        <v>0.002270711369965826</v>
+        <v>0.002262769731344926</v>
       </c>
       <c r="CL3">
-        <v>0.002288395926035097</v>
+        <v>0.00228036138399093</v>
       </c>
       <c r="CM3">
-        <v>0.002422699558966769</v>
+        <v>0.002414574252404805</v>
       </c>
       <c r="CN3">
-        <v>0.05815606462574957</v>
+        <v>0.05814886829466283</v>
       </c>
       <c r="CO3">
-        <v>0.07909916852352522</v>
+        <v>0.07909226308123081</v>
       </c>
       <c r="CP3">
-        <v>0.1753560934575747</v>
+        <v>0.1753508602316231</v>
       </c>
       <c r="CQ3">
-        <v>0.2332290864117501</v>
+        <v>0.2332248214040967</v>
       </c>
       <c r="CR3">
-        <v>0.2337453697845784</v>
+        <v>0.2337410210182811</v>
       </c>
       <c r="CS3">
-        <v>0.2345685258912561</v>
+        <v>0.2345640989946547</v>
       </c>
       <c r="CT3">
-        <v>0.2581996616475621</v>
+        <v>0.2581955749408296</v>
       </c>
       <c r="CU3">
-        <v>0.2599933427531616</v>
+        <v>0.2599891957164822</v>
       </c>
       <c r="CV3">
-        <v>0.2827645585547247</v>
+        <v>0.2827607359361594</v>
       </c>
       <c r="CW3">
-        <v>0.3134218059412502</v>
+        <v>0.3134184523781648</v>
       </c>
       <c r="CX3">
-        <v>0.3283318561565422</v>
+        <v>0.3283286828302713</v>
       </c>
       <c r="CY3">
-        <v>0.4745519184610585</v>
+        <v>0.4745513337228827</v>
       </c>
       <c r="CZ3">
-        <v>0.4764806796595488</v>
+        <v>0.4764800370689242</v>
       </c>
       <c r="DA3">
-        <v>0.4768425545405036</v>
+        <v>0.4768418253592356</v>
       </c>
       <c r="DB3">
-        <v>0.4963116035158579</v>
+        <v>0.4963111381878045</v>
       </c>
       <c r="DC3">
-        <v>0.5251163399998801</v>
+        <v>0.5251163097504838</v>
       </c>
       <c r="DD3">
-        <v>0.5850321368465436</v>
+        <v>0.5850331122824239</v>
       </c>
       <c r="DE3">
-        <v>0.5915851695016611</v>
+        <v>0.5915861718986563</v>
       </c>
       <c r="DF3">
-        <v>0.5993349393937948</v>
+        <v>0.5993359907012111</v>
       </c>
       <c r="DG3">
-        <v>0.6039864071489905</v>
+        <v>0.6039874505410019</v>
       </c>
       <c r="DH3">
-        <v>0.6085870682068603</v>
+        <v>0.6085881027516231</v>
       </c>
       <c r="DI3">
-        <v>0.6088958482206094</v>
+        <v>0.6088967952009182</v>
       </c>
       <c r="DJ3">
-        <v>0.6095047293885643</v>
+        <v>0.6095055943085614</v>
       </c>
       <c r="DK3">
-        <v>0.6313491242389054</v>
+        <v>0.6313502965782335</v>
       </c>
       <c r="DL3">
-        <v>0.6325875128737297</v>
+        <v>0.6325886146985155</v>
       </c>
       <c r="DM3">
-        <v>0.6376934006050096</v>
+        <v>0.6376945028488875</v>
       </c>
       <c r="DN3">
-        <v>0.6485721150324686</v>
+        <v>0.6485733235746047</v>
       </c>
       <c r="DO3">
-        <v>0.6523871683316844</v>
+        <v>0.6523883536177739</v>
       </c>
       <c r="DP3">
-        <v>0.6780429209814359</v>
+        <v>0.6780444835908057</v>
       </c>
       <c r="DQ3">
-        <v>0.7024128856988577</v>
+        <v>0.7024148020489267</v>
       </c>
       <c r="DR3">
-        <v>0.7032917610826029</v>
+        <v>0.7032936003243127</v>
       </c>
       <c r="DS3">
-        <v>0.7053807971726581</v>
+        <v>0.7053825815015139</v>
       </c>
       <c r="DT3">
-        <v>0.7096046549503587</v>
+        <v>0.7096064235210333</v>
       </c>
       <c r="DU3">
-        <v>0.7097407994031936</v>
+        <v>0.7097424772431127</v>
       </c>
       <c r="DV3">
-        <v>0.7183250089514112</v>
+        <v>0.7183267510061733</v>
       </c>
       <c r="DW3">
-        <v>0.7186698674332614</v>
+        <v>0.7186715225852832</v>
       </c>
       <c r="DX3">
-        <v>0.7371808824590367</v>
+        <v>0.7371827838930134</v>
       </c>
       <c r="DY3">
-        <v>0.7505440897557383</v>
+        <v>0.7505461430559499</v>
       </c>
       <c r="DZ3">
-        <v>0.7505450935422855</v>
+        <v>0.7505470536331326</v>
       </c>
       <c r="EA3">
-        <v>0.7555315712798498</v>
+        <v>0.7555335295996956</v>
       </c>
       <c r="EB3">
-        <v>0.7560996930999498</v>
+        <v>0.7561015686119185</v>
       </c>
       <c r="EC3">
-        <v>0.7597871934058786</v>
+        <v>0.7597890433223567</v>
       </c>
       <c r="ED3">
-        <v>0.7721135047571515</v>
+        <v>0.7721154875222006</v>
       </c>
       <c r="EE3">
-        <v>0.7835014701578089</v>
+        <v>0.7835035685612665</v>
       </c>
       <c r="EF3">
-        <v>0.786151010818365</v>
+        <v>0.7861530645891588</v>
       </c>
       <c r="EG3">
-        <v>0.7884190418989998</v>
+        <v>0.788421044039879</v>
       </c>
       <c r="EH3">
-        <v>0.7920275717090848</v>
+        <v>0.7920295468060791</v>
       </c>
       <c r="EI3">
-        <v>0.7955673975227856</v>
+        <v>0.7955693443157978</v>
       </c>
       <c r="EJ3">
-        <v>0.795851450907836</v>
+        <v>0.7958533096828843</v>
       </c>
       <c r="EK3">
-        <v>0.798532138266753</v>
+        <v>0.7985339529803976</v>
       </c>
       <c r="EL3">
-        <v>0.8042149155676714</v>
+        <v>0.8042167412811151</v>
       </c>
       <c r="EM3">
-        <v>0.8201288247301309</v>
+        <v>0.8201308490921226</v>
       </c>
       <c r="EN3">
-        <v>0.8208114129542067</v>
+        <v>0.8208133566077447</v>
       </c>
       <c r="EO3">
-        <v>0.8256719176984009</v>
+        <v>0.8256738572704723</v>
       </c>
       <c r="EP3">
-        <v>0.8288919885289303</v>
+        <v>0.8288938939324072</v>
       </c>
       <c r="EQ3">
-        <v>0.828938793746467</v>
+        <v>0.8289406067806214</v>
       </c>
       <c r="ER3">
-        <v>0.8291863338934391</v>
+        <v>0.8291880582399418</v>
       </c>
       <c r="ES3">
-        <v>0.8293994521122228</v>
+        <v>0.8294010871397426</v>
       </c>
       <c r="ET3">
-        <v>0.8381052296540423</v>
+        <v>0.8381069311260785</v>
       </c>
       <c r="EU3">
-        <v>0.8421225494426129</v>
+        <v>0.8421242313683635</v>
       </c>
       <c r="EV3">
-        <v>0.8427528842394387</v>
+        <v>0.8427544844983577</v>
       </c>
       <c r="EW3">
-        <v>0.8436906312900856</v>
+        <v>0.8436921555204079</v>
       </c>
       <c r="EX3">
-        <v>0.8481281180565431</v>
+        <v>0.8481296304468442</v>
       </c>
       <c r="EY3">
-        <v>0.8517738659646693</v>
+        <v>0.851775351993701</v>
       </c>
       <c r="EZ3">
-        <v>0.851983014173662</v>
+        <v>0.851984410810897</v>
       </c>
       <c r="FA3">
-        <v>0.8594037394831131</v>
+        <v>0.8594051789957768</v>
       </c>
       <c r="FB3">
-        <v>0.8798241504083978</v>
+        <v>0.8798258712231646</v>
       </c>
       <c r="FC3">
-        <v>0.8798250562504101</v>
+        <v>0.879826683854016</v>
       </c>
       <c r="FD3">
-        <v>0.886890073078582</v>
+        <v>0.8868917370335826</v>
       </c>
       <c r="FE3">
-        <v>0.8868900824667145</v>
+        <v>0.8868917370335826</v>
       </c>
       <c r="FF3">
-        <v>0.9030513986161531</v>
+        <v>0.9030532563692502</v>
       </c>
       <c r="FG3">
-        <v>0.905609303181532</v>
+        <v>0.9056111146212716</v>
       </c>
       <c r="FH3">
-        <v>0.9076532941739578</v>
+        <v>0.9076550498746734</v>
       </c>
       <c r="FI3">
-        <v>0.909409453581532</v>
+        <v>0.9094111482641168</v>
       </c>
       <c r="FJ3">
-        <v>0.9094546010561559</v>
+        <v>0.9094562033390137</v>
       </c>
       <c r="FK3">
-        <v>0.9119626351241594</v>
+        <v>0.9119641901789871</v>
       </c>
       <c r="FL3">
-        <v>0.9212100356374737</v>
+        <v>0.9212116670707012</v>
       </c>
       <c r="FM3">
-        <v>0.9256839604020135</v>
+        <v>0.9256855806635276</v>
       </c>
       <c r="FN3">
-        <v>0.9256842863739964</v>
+        <v>0.9256858134137141</v>
       </c>
       <c r="FO3">
-        <v>0.9267157638197102</v>
+        <v>0.9267172165499366</v>
       </c>
       <c r="FP3">
-        <v>0.929098065694331</v>
+        <v>0.9290994688904785</v>
       </c>
       <c r="FQ3">
-        <v>0.9302933614314232</v>
+        <v>0.9302946933226635</v>
       </c>
       <c r="FR3">
-        <v>0.9304008550657659</v>
+        <v>0.9304020957007673</v>
       </c>
       <c r="FS3">
-        <v>0.9310387937321914</v>
+        <v>0.9310399528398235</v>
       </c>
       <c r="FT3">
-        <v>0.93644035774791</v>
+        <v>0.9364415226976204</v>
       </c>
       <c r="FU3">
-        <v>0.9378227434751558</v>
+        <v>0.9378238405513684</v>
       </c>
       <c r="FV3">
-        <v>0.9432973804870286</v>
+        <v>0.943298484745548</v>
       </c>
       <c r="FW3">
-        <v>0.9457688453569567</v>
+        <v>0.945769901716732</v>
       </c>
       <c r="FX3">
-        <v>0.9468602217995181</v>
+        <v>0.9468612049484069</v>
       </c>
       <c r="FY3">
-        <v>0.9494839312614337</v>
+        <v>0.9494848693038899</v>
       </c>
       <c r="FZ3">
-        <v>0.9508850631876928</v>
+        <v>0.9508859337004745</v>
       </c>
       <c r="GA3">
-        <v>0.9509141972861596</v>
+        <v>0.9509149751055135</v>
       </c>
       <c r="GB3">
-        <v>0.9509261572455301</v>
+        <v>0.9509268420564662</v>
       </c>
       <c r="GC3">
-        <v>0.9509402947237861</v>
+        <v>0.9509408865662421</v>
       </c>
       <c r="GD3">
-        <v>0.9522071542571119</v>
+        <v>0.9522076761072091</v>
       </c>
       <c r="GE3">
-        <v>0.9562308317453478</v>
+        <v>0.9562313341657659</v>
       </c>
       <c r="GF3">
-        <v>0.9562383799002506</v>
+        <v>0.9562387892313341</v>
       </c>
       <c r="GG3">
-        <v>0.9566899251064861</v>
+        <v>0.9566902494915658</v>
       </c>
       <c r="GH3">
-        <v>0.9569289513339063</v>
+        <v>0.9569291868751808</v>
       </c>
       <c r="GI3">
-        <v>0.9569404196633028</v>
+        <v>0.9569405621871424</v>
       </c>
       <c r="GJ3">
-        <v>0.9591533625468368</v>
+        <v>0.9591534524303916</v>
       </c>
       <c r="GK3">
-        <v>0.9591651246152177</v>
+        <v>0.9591651214867253</v>
       </c>
       <c r="GL3">
-        <v>0.9726715239043832</v>
+        <v>0.9726716752684039</v>
       </c>
       <c r="GM3">
-        <v>0.9921806818776266</v>
+        <v>0.9921810978304992</v>
       </c>
       <c r="GN3">
-        <v>0.9961761793673457</v>
+        <v>0.9961765753736909</v>
       </c>
       <c r="GO3">
-        <v>0.9961765478112263</v>
+        <v>0.9961768505965541</v>
       </c>
       <c r="GP3">
-        <v>0.9962418967377871</v>
+        <v>0.9962421074939017</v>
       </c>
       <c r="GQ3">
-        <v>0.9971508353899501</v>
+        <v>0.9971509695890945</v>
       </c>
       <c r="GR3">
-        <v>0.9996337396592762</v>
+        <v>0.999633826169486</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.510976696483839E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.287330442202845E-05</v>
+        <v>6.574690140552735E-06</v>
       </c>
       <c r="D4">
-        <v>6.454664172164383E-05</v>
+        <v>5.349459881947056E-05</v>
       </c>
       <c r="E4">
-        <v>9.001713534806932E-05</v>
+        <v>7.418942741501932E-05</v>
       </c>
       <c r="F4">
-        <v>9.005387607641541E-05</v>
+        <v>7.418942741501932E-05</v>
       </c>
       <c r="G4">
-        <v>9.245160692952317E-05</v>
+        <v>7.418942741501932E-05</v>
       </c>
       <c r="H4">
-        <v>0.0001364050897361851</v>
+        <v>0.0001133829303329927</v>
       </c>
       <c r="I4">
-        <v>0.0001456361168256349</v>
+        <v>0.0001178245111606616</v>
       </c>
       <c r="J4">
-        <v>0.0001473559467354551</v>
+        <v>0.0001178245111606616</v>
       </c>
       <c r="K4">
-        <v>0.0001482882846949898</v>
+        <v>0.0001178245111606616</v>
       </c>
       <c r="L4">
-        <v>0.0001534264726230902</v>
+        <v>0.0001181697795379165</v>
       </c>
       <c r="M4">
-        <v>0.0001535611588616907</v>
+        <v>0.0001181697795379165</v>
       </c>
       <c r="N4">
-        <v>0.0001625656564366753</v>
+        <v>0.0001223846386123212</v>
       </c>
       <c r="O4">
-        <v>0.0001673588687427472</v>
+        <v>0.0001223846386123212</v>
       </c>
       <c r="P4">
-        <v>0.0001701942964238043</v>
+        <v>0.0001223846386123212</v>
       </c>
       <c r="Q4">
-        <v>0.0001771022551649139</v>
+        <v>0.0001245011796758252</v>
       </c>
       <c r="R4">
-        <v>0.0002198610928952914</v>
+        <v>0.0001624990237108348</v>
       </c>
       <c r="S4">
-        <v>0.0002559445771994124</v>
+        <v>0.0001938158494421902</v>
       </c>
       <c r="T4">
-        <v>0.0002731231392963542</v>
+        <v>0.0002062117097609096</v>
       </c>
       <c r="U4">
-        <v>0.0002802424567509602</v>
+        <v>0.0002085397889023755</v>
       </c>
       <c r="V4">
-        <v>0.0002857600795032896</v>
+        <v>0.0002092648141020552</v>
       </c>
       <c r="W4">
-        <v>0.0003016409545173673</v>
+        <v>0.0002203618860871219</v>
       </c>
       <c r="X4">
-        <v>0.0003110490281181225</v>
+        <v>0.0002249806636723402</v>
       </c>
       <c r="Y4">
-        <v>0.0003138318419958198</v>
+        <v>0.0002249806636723402</v>
       </c>
       <c r="Z4">
-        <v>0.0003159568553315131</v>
+        <v>0.0002249806636723402</v>
       </c>
       <c r="AA4">
-        <v>0.0003256113209480017</v>
+        <v>0.0002298460423679228</v>
       </c>
       <c r="AB4">
-        <v>0.0003261545664326908</v>
+        <v>0.0002298460423679228</v>
       </c>
       <c r="AC4">
-        <v>0.0003283507475729286</v>
+        <v>0.0002298460423679228</v>
       </c>
       <c r="AD4">
-        <v>0.0003286007616288933</v>
+        <v>0.0002298460423679228</v>
       </c>
       <c r="AE4">
-        <v>0.000329507588726799</v>
+        <v>0.0002298460423679228</v>
       </c>
       <c r="AF4">
-        <v>0.0003296606304665715</v>
+        <v>0.0002298460423679228</v>
       </c>
       <c r="AG4">
-        <v>0.0003299940563878625</v>
+        <v>0.0002298460423679228</v>
       </c>
       <c r="AH4">
-        <v>0.0003328294840689196</v>
+        <v>0.0002298460423679228</v>
       </c>
       <c r="AI4">
-        <v>0.0003332441419953977</v>
+        <v>0.0002298460423679228</v>
       </c>
       <c r="AJ4">
-        <v>0.0003376282827753482</v>
+        <v>0.0002298460423679228</v>
       </c>
       <c r="AK4">
-        <v>0.000338772319548401</v>
+        <v>0.0002298460423679228</v>
       </c>
       <c r="AL4">
-        <v>0.000339379708387186</v>
+        <v>0.0002298460423679228</v>
       </c>
       <c r="AM4">
-        <v>0.0003451501252556576</v>
+        <v>0.0002308240762113635</v>
       </c>
       <c r="AN4">
-        <v>0.0003493785887256673</v>
+        <v>0.0002308240762113635</v>
       </c>
       <c r="AO4">
-        <v>0.0003495316304654398</v>
+        <v>0.0002308240762113635</v>
       </c>
       <c r="AP4">
-        <v>0.0003561627312888706</v>
+        <v>0.0002326635244084062</v>
       </c>
       <c r="AQ4">
-        <v>0.0003667478849647886</v>
+        <v>0.0002384603809693528</v>
       </c>
       <c r="AR4">
-        <v>0.0003700489764755807</v>
+        <v>0.0002384603809693528</v>
       </c>
       <c r="AS4">
-        <v>0.000383293008321282</v>
+        <v>0.0002469183720927988</v>
       </c>
       <c r="AT4">
-        <v>0.0003993866253489444</v>
+        <v>0.0002582283666298198</v>
       </c>
       <c r="AU4">
-        <v>0.0004299463873003466</v>
+        <v>0.0002840167824349441</v>
       </c>
       <c r="AV4">
-        <v>0.0004902072761483225</v>
+        <v>0.0003395315302803545</v>
       </c>
       <c r="AW4">
-        <v>0.0005149023477252332</v>
+        <v>0.0003594502787832016</v>
       </c>
       <c r="AX4">
-        <v>0.0005307832227393109</v>
+        <v>0.0003705473507682683</v>
       </c>
       <c r="AY4">
-        <v>0.0005645094198929066</v>
+        <v>0.0003995048888943141</v>
       </c>
       <c r="AZ4">
-        <v>0.000583266356090636</v>
+        <v>0.0004134804627628656</v>
       </c>
       <c r="BA4">
-        <v>0.0005840045157977714</v>
+        <v>0.0004134804627628656</v>
       </c>
       <c r="BB4">
-        <v>0.0005982344087064252</v>
+        <v>0.000422925151576435</v>
       </c>
       <c r="BC4">
-        <v>0.0006083066073495882</v>
+        <v>0.0004282086177977321</v>
       </c>
       <c r="BD4">
-        <v>0.0006163650178641602</v>
+        <v>0.0004314765869377993</v>
       </c>
       <c r="BE4">
-        <v>0.0006283637426303422</v>
+        <v>0.0004386882141819615</v>
       </c>
       <c r="BF4">
-        <v>0.0006286137566863069</v>
+        <v>0.0004386882141819615</v>
       </c>
       <c r="BG4">
-        <v>0.0006291375708697552</v>
+        <v>0.0004386882141819615</v>
       </c>
       <c r="BH4">
-        <v>0.0006664815602543661</v>
+        <v>0.0004712666146909875</v>
       </c>
       <c r="BI4">
-        <v>0.0007285776842195315</v>
+        <v>0.0005286181550815272</v>
       </c>
       <c r="BJ4">
-        <v>0.000766084426614535</v>
+        <v>0.0005613594467173557</v>
       </c>
       <c r="BK4">
-        <v>0.0008298689906875162</v>
+        <v>0.0006204008600696132</v>
       </c>
       <c r="BL4">
-        <v>0.0008930177447198975</v>
+        <v>0.0006788059238164422</v>
       </c>
       <c r="BM4">
-        <v>0.0009343654173601647</v>
+        <v>0.0007153914052101838</v>
       </c>
       <c r="BN4">
-        <v>0.0009721987197760208</v>
+        <v>0.0007484595339941364</v>
       </c>
       <c r="BO4">
-        <v>0.001018656122742571</v>
+        <v>0.0007901590819633431</v>
       </c>
       <c r="BP4">
-        <v>0.001036820977902493</v>
+        <v>0.00080354207233882</v>
       </c>
       <c r="BQ4">
-        <v>0.001041205118682444</v>
+        <v>0.00080354207233882</v>
       </c>
       <c r="BR4">
-        <v>0.001046104921995322</v>
+        <v>0.000803648753801509</v>
       </c>
       <c r="BS4">
-        <v>0.001049846099834216</v>
+        <v>0.000803648753801509</v>
       </c>
       <c r="BT4">
-        <v>0.001049847286748592</v>
+        <v>0.000803648753801509</v>
       </c>
       <c r="BU4">
-        <v>0.001062898393581974</v>
+        <v>0.0008119136561914853</v>
       </c>
       <c r="BV4">
-        <v>0.001088125111192833</v>
+        <v>0.0008323645018968421</v>
       </c>
       <c r="BW4">
-        <v>0.001125661183589709</v>
+        <v>0.0008651351484247409</v>
       </c>
       <c r="BX4">
-        <v>0.001172697011593195</v>
+        <v>0.000907413612297315</v>
       </c>
       <c r="BY4">
-        <v>0.001221389261702452</v>
+        <v>0.0009513499039582586</v>
       </c>
       <c r="BZ4">
-        <v>0.001274638775102715</v>
+        <v>0.0009998473263215883</v>
       </c>
       <c r="CA4">
-        <v>0.00138245046198706</v>
+        <v>0.001102953225039216</v>
       </c>
       <c r="CB4">
-        <v>0.001482666388386376</v>
+        <v>0.001198456917313204</v>
       </c>
       <c r="CC4">
-        <v>0.001527538241251681</v>
+        <v>0.001238569569642382</v>
       </c>
       <c r="CD4">
-        <v>0.001566223920721966</v>
+        <v>0.001272490798829955</v>
       </c>
       <c r="CE4">
-        <v>0.001609331385474605</v>
+        <v>0.001310837565741126</v>
       </c>
       <c r="CF4">
-        <v>0.001647194147892343</v>
+        <v>0.001343935179527478</v>
       </c>
       <c r="CG4">
-        <v>0.0016728233195289</v>
+        <v>0.001364788820791419</v>
       </c>
       <c r="CH4">
-        <v>0.001673141560669222</v>
+        <v>0.001364788820791419</v>
       </c>
       <c r="CI4">
-        <v>0.001673284371868341</v>
+        <v>0.001364788820791419</v>
       </c>
       <c r="CJ4">
-        <v>0.001677512835338351</v>
+        <v>0.001364788820791419</v>
       </c>
       <c r="CK4">
-        <v>0.001692538328297808</v>
+        <v>0.001375029784822552</v>
       </c>
       <c r="CL4">
-        <v>0.00173152574578736</v>
+        <v>0.001409253008092072</v>
       </c>
       <c r="CM4">
-        <v>0.001791131689593514</v>
+        <v>0.001464112255092376</v>
       </c>
       <c r="CN4">
-        <v>0.1706060824693194</v>
+        <v>0.1704175264839989</v>
       </c>
       <c r="CO4">
-        <v>0.1824905652282063</v>
+        <v>0.1823072974420805</v>
       </c>
       <c r="CP4">
-        <v>0.367162997020516</v>
+        <v>0.3671316497516893</v>
       </c>
       <c r="CQ4">
-        <v>0.3830328860338922</v>
+        <v>0.3830102090829841</v>
       </c>
       <c r="CR4">
-        <v>0.3935682712066322</v>
+        <v>0.3935497375758487</v>
       </c>
       <c r="CS4">
-        <v>0.4056531839783177</v>
+        <v>0.4056401086368164</v>
       </c>
       <c r="CT4">
-        <v>0.4084186191549053</v>
+        <v>0.4084030933531993</v>
       </c>
       <c r="CU4">
-        <v>0.4088747496640316</v>
+        <v>0.4088548136665114</v>
       </c>
       <c r="CV4">
-        <v>0.4483815221867476</v>
+        <v>0.44839031537723</v>
       </c>
       <c r="CW4">
-        <v>0.4484762233577948</v>
+        <v>0.4484802996341879</v>
       </c>
       <c r="CX4">
-        <v>0.534999158882741</v>
+        <v>0.5350718634778802</v>
       </c>
       <c r="CY4">
-        <v>0.54790473170683</v>
+        <v>0.5479835910245764</v>
       </c>
       <c r="CZ4">
-        <v>0.5500615892445567</v>
+        <v>0.5501374816473894</v>
       </c>
       <c r="DA4">
-        <v>0.5716012736199793</v>
+        <v>0.5716906478755729</v>
       </c>
       <c r="DB4">
-        <v>0.5726812672889425</v>
+        <v>0.572766760775119</v>
       </c>
       <c r="DC4">
-        <v>0.6435737178157998</v>
+        <v>0.643714575187287</v>
       </c>
       <c r="DD4">
-        <v>0.6467510137186868</v>
+        <v>0.6468897701456235</v>
       </c>
       <c r="DE4">
-        <v>0.6679794740742361</v>
+        <v>0.668131448241189</v>
       </c>
       <c r="DF4">
-        <v>0.6699540152003209</v>
+        <v>0.6701028677339425</v>
       </c>
       <c r="DG4">
-        <v>0.6767107851317764</v>
+        <v>0.6768605743549956</v>
       </c>
       <c r="DH4">
-        <v>0.67785358260475</v>
+        <v>0.6779995443554829</v>
       </c>
       <c r="DI4">
-        <v>0.6807709967910424</v>
+        <v>0.680914637054885</v>
       </c>
       <c r="DJ4">
-        <v>0.6992575819715084</v>
+        <v>0.699412113149248</v>
       </c>
       <c r="DK4">
-        <v>0.7007472583666321</v>
+        <v>0.7008982564423015</v>
       </c>
       <c r="DL4">
-        <v>0.7059900417014114</v>
+        <v>0.7061406916585338</v>
       </c>
       <c r="DM4">
-        <v>0.7164877223717437</v>
+        <v>0.7166424836519758</v>
       </c>
       <c r="DN4">
-        <v>0.7357564836021558</v>
+        <v>0.7359227995710911</v>
       </c>
       <c r="DO4">
-        <v>0.7400978698793763</v>
+        <v>0.7402630727809307</v>
       </c>
       <c r="DP4">
-        <v>0.7758228421606044</v>
+        <v>0.776013564916761</v>
       </c>
       <c r="DQ4">
-        <v>0.7758544400626221</v>
+        <v>0.7760403923536249</v>
       </c>
       <c r="DR4">
-        <v>0.7805228568607251</v>
+        <v>0.7807079736108971</v>
       </c>
       <c r="DS4">
-        <v>0.7838731270746575</v>
+        <v>0.7840562896707486</v>
       </c>
       <c r="DT4">
-        <v>0.78540397097241</v>
+        <v>0.7855836354022373</v>
       </c>
       <c r="DU4">
-        <v>0.7898585852568606</v>
+        <v>0.7900372327075197</v>
       </c>
       <c r="DV4">
-        <v>0.7905491643709577</v>
+        <v>0.7907236005849466</v>
       </c>
       <c r="DW4">
-        <v>0.8018545140928639</v>
+        <v>0.8020337470387885</v>
       </c>
       <c r="DX4">
-        <v>0.8159941279957529</v>
+        <v>0.8161805629034298</v>
       </c>
       <c r="DY4">
-        <v>0.8201826299632109</v>
+        <v>0.8203678220619314</v>
       </c>
       <c r="DZ4">
-        <v>0.8218626665704901</v>
+        <v>0.8220444871117349</v>
       </c>
       <c r="EA4">
-        <v>0.8223226802998644</v>
+        <v>0.8225000939406961</v>
       </c>
       <c r="EB4">
-        <v>0.8227918687998246</v>
+        <v>0.8229648833261906</v>
       </c>
       <c r="EC4">
-        <v>0.8287186006782777</v>
+        <v>0.8288918475025028</v>
       </c>
       <c r="ED4">
-        <v>0.8381646302814566</v>
+        <v>0.8383410959705228</v>
       </c>
       <c r="EE4">
-        <v>0.8387073748161137</v>
+        <v>0.8388795038122657</v>
       </c>
       <c r="EF4">
-        <v>0.839535502768994</v>
+        <v>0.8397035372559745</v>
       </c>
       <c r="EG4">
-        <v>0.8429790816888847</v>
+        <v>0.8431452412059631</v>
       </c>
       <c r="EH4">
-        <v>0.8475660593817874</v>
+        <v>0.8477313142467061</v>
       </c>
       <c r="EI4">
-        <v>0.8520455666678276</v>
+        <v>0.8522098256784224</v>
       </c>
       <c r="EJ4">
-        <v>0.8520541623913764</v>
+        <v>0.8522136314165745</v>
       </c>
       <c r="EK4">
-        <v>0.8522468614536813</v>
+        <v>0.8524016967283328</v>
       </c>
       <c r="EL4">
-        <v>0.862126979084579</v>
+        <v>0.862285401602388</v>
       </c>
       <c r="EM4">
-        <v>0.8654529328969587</v>
+        <v>0.8656093806251601</v>
       </c>
       <c r="EN4">
-        <v>0.8676946243401025</v>
+        <v>0.8678481771456343</v>
       </c>
       <c r="EO4">
-        <v>0.8751344158151725</v>
+        <v>0.875289484940032</v>
       </c>
       <c r="EP4">
-        <v>0.8764787505010153</v>
+        <v>0.8766301631830747</v>
       </c>
       <c r="EQ4">
-        <v>0.8767295601670309</v>
+        <v>0.8768763884127034</v>
       </c>
       <c r="ER4">
-        <v>0.8770494493274574</v>
+        <v>0.8771917517593871</v>
       </c>
       <c r="ES4">
-        <v>0.8804135925422757</v>
+        <v>0.8805539525931115</v>
       </c>
       <c r="ET4">
-        <v>0.8908074622059792</v>
+        <v>0.8909518454832221</v>
       </c>
       <c r="EU4">
-        <v>0.8910143812991921</v>
+        <v>0.8911541428933741</v>
       </c>
       <c r="EV4">
-        <v>0.8934087034520822</v>
+        <v>0.8935456996499587</v>
       </c>
       <c r="EW4">
-        <v>0.8934607599754063</v>
+        <v>0.8935930030698436</v>
       </c>
       <c r="EX4">
-        <v>0.894225092324213</v>
+        <v>0.8943531867708806</v>
       </c>
       <c r="EY4">
-        <v>0.8944456221182949</v>
+        <v>0.8945691064322941</v>
       </c>
       <c r="EZ4">
-        <v>0.8954943709852631</v>
+        <v>0.8956139480146988</v>
       </c>
       <c r="FA4">
-        <v>0.911451515004211</v>
+        <v>0.9115798363984176</v>
       </c>
       <c r="FB4">
-        <v>0.9177737704079203</v>
+        <v>0.9179026597514692</v>
       </c>
       <c r="FC4">
-        <v>0.9222868506961043</v>
+        <v>0.9224147726762464</v>
       </c>
       <c r="FD4">
-        <v>0.9257802852191785</v>
+        <v>0.9259063745381716</v>
       </c>
       <c r="FE4">
-        <v>0.9292160629385711</v>
+        <v>0.9293402706673617</v>
       </c>
       <c r="FF4">
-        <v>0.9372839634537491</v>
+        <v>0.9374102205314282</v>
       </c>
       <c r="FG4">
-        <v>0.9372865793199161</v>
+        <v>0.9374102205314282</v>
       </c>
       <c r="FH4">
-        <v>0.9378163865537471</v>
+        <v>0.9379356800934173</v>
       </c>
       <c r="FI4">
-        <v>0.9379928254250136</v>
+        <v>0.938107471415319</v>
       </c>
       <c r="FJ4">
-        <v>0.9381401244444194</v>
+        <v>0.9382500981565288</v>
       </c>
       <c r="FK4">
-        <v>0.9456350899230125</v>
+        <v>0.9457466267765346</v>
       </c>
       <c r="FL4">
-        <v>0.9525034503615936</v>
+        <v>0.9526160186033011</v>
       </c>
       <c r="FM4">
-        <v>0.9536525518349698</v>
+        <v>0.9537612979539286</v>
       </c>
       <c r="FN4">
-        <v>0.9536686262489962</v>
+        <v>0.9537725887291683</v>
       </c>
       <c r="FO4">
-        <v>0.9537638459150765</v>
+        <v>0.9538630919211676</v>
       </c>
       <c r="FP4">
-        <v>0.9555201658272268</v>
+        <v>0.9556161050118258</v>
       </c>
       <c r="FQ4">
-        <v>0.9560995680642247</v>
+        <v>0.9561912016645829</v>
       </c>
       <c r="FR4">
-        <v>0.9561033092420635</v>
+        <v>0.9561912016645829</v>
       </c>
       <c r="FS4">
-        <v>0.9574750945296593</v>
+        <v>0.9575593538046685</v>
       </c>
       <c r="FT4">
-        <v>0.9602042752039319</v>
+        <v>0.9602860532522289</v>
       </c>
       <c r="FU4">
-        <v>0.9603542272235072</v>
+        <v>0.9604313352450126</v>
       </c>
       <c r="FV4">
-        <v>0.9613611854878068</v>
+        <v>0.9614343507601635</v>
       </c>
       <c r="FW4">
-        <v>0.962214133072272</v>
+        <v>0.9622832248980377</v>
       </c>
       <c r="FX4">
-        <v>0.9637306258691081</v>
+        <v>0.963796207349895</v>
       </c>
       <c r="FY4">
-        <v>0.9660117633147708</v>
+        <v>0.966074483347785</v>
       </c>
       <c r="FZ4">
-        <v>0.9666482168554117</v>
+        <v>0.9667066797193955</v>
       </c>
       <c r="GA4">
-        <v>0.9671635382883177</v>
+        <v>0.9672176411874346</v>
       </c>
       <c r="GB4">
-        <v>0.9671639529462441</v>
+        <v>0.9672176411874346</v>
       </c>
       <c r="GC4">
-        <v>0.9672801591536645</v>
+        <v>0.9673291487304952</v>
       </c>
       <c r="GD4">
-        <v>0.9679940016592471</v>
+        <v>0.9680387997413227</v>
       </c>
       <c r="GE4">
-        <v>0.9694744512537816</v>
+        <v>0.9695157084036856</v>
       </c>
       <c r="GF4">
-        <v>0.9695274719271673</v>
+        <v>0.9695639767918348</v>
       </c>
       <c r="GG4">
-        <v>0.9697370784805518</v>
+        <v>0.9697689639428065</v>
       </c>
       <c r="GH4">
-        <v>0.9700280654991329</v>
+        <v>0.9700554006205403</v>
       </c>
       <c r="GI4">
-        <v>0.971295669280076</v>
+        <v>0.9713192828428548</v>
       </c>
       <c r="GJ4">
-        <v>0.9725966410631499</v>
+        <v>0.9726165613842489</v>
       </c>
       <c r="GK4">
-        <v>0.9745286434865185</v>
+        <v>0.9745454060748437</v>
       </c>
       <c r="GL4">
-        <v>0.9878331643360824</v>
+        <v>0.9878564202046175</v>
       </c>
       <c r="GM4">
-        <v>0.9946223817696097</v>
+        <v>0.9946466018635313</v>
       </c>
       <c r="GN4">
-        <v>0.996106743864394</v>
+        <v>0.9961274263463928</v>
       </c>
       <c r="GO4">
-        <v>0.9964647326472534</v>
+        <v>0.9964809216478334</v>
       </c>
       <c r="GP4">
-        <v>0.996502076636638</v>
+        <v>0.9965135000483425</v>
       </c>
       <c r="GQ4">
-        <v>0.9972761336260657</v>
+        <v>0.9972834166425818</v>
       </c>
       <c r="GR4">
-        <v>0.9975653896445362</v>
+        <v>0.9975681208512336</v>
       </c>
       <c r="GS4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>4.377980429742217E-07</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.530584450398168E-06</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.633576557891447E-06</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>5.937379280336139E-06</v>
+        <v>2.201275105213711E-06</v>
       </c>
       <c r="F5">
-        <v>2.716043442451694E-05</v>
+        <v>2.232558456514814E-05</v>
       </c>
       <c r="G5">
-        <v>7.90610807771088E-05</v>
+        <v>7.313395986710832E-05</v>
       </c>
       <c r="H5">
-        <v>0.0001333270711457699</v>
+        <v>0.0001263081784008607</v>
       </c>
       <c r="I5">
-        <v>0.0001415377932015502</v>
+        <v>0.0001334174084652076</v>
       </c>
       <c r="J5">
-        <v>0.0001574341533095436</v>
+        <v>0.0001482138986677437</v>
       </c>
       <c r="K5">
-        <v>0.0002520639139524196</v>
+        <v>0.0002417604064178294</v>
       </c>
       <c r="L5">
-        <v>0.0004017982449696537</v>
+        <v>0.0003904231145917527</v>
       </c>
       <c r="M5">
-        <v>0.0005004903756401279</v>
+        <v>0.0004880328497495795</v>
       </c>
       <c r="N5">
-        <v>0.0005350179158746939</v>
+        <v>0.0005214644522669853</v>
       </c>
       <c r="O5">
-        <v>0.0005669929590919194</v>
+        <v>0.0005523430190519056</v>
       </c>
       <c r="P5">
-        <v>0.0005949316322817233</v>
+        <v>0.0005791843639166701</v>
       </c>
       <c r="Q5">
-        <v>0.0005973863536983997</v>
+        <v>0.0005805363785139634</v>
       </c>
       <c r="R5">
-        <v>0.0006022322411313206</v>
+        <v>0.0005842800637930653</v>
       </c>
       <c r="S5">
-        <v>0.0006116696956954349</v>
+        <v>0.00059261628527276</v>
       </c>
       <c r="T5">
-        <v>0.0006130693122049433</v>
+        <v>0.0005929129722785927</v>
       </c>
       <c r="U5">
-        <v>0.0006441609674161673</v>
+        <v>0.0006229079646147874</v>
       </c>
       <c r="V5">
-        <v>0.0006998868827947465</v>
+        <v>0.0006775424162817223</v>
       </c>
       <c r="W5">
-        <v>0.0007198602629304375</v>
+        <v>0.0006964167869840425</v>
       </c>
       <c r="X5">
-        <v>0.0007657116562419333</v>
+        <v>0.0007411746325248141</v>
       </c>
       <c r="Y5">
-        <v>0.0008521075468288718</v>
+        <v>0.0008264855324263344</v>
       </c>
       <c r="Z5">
-        <v>0.0009333695173809326</v>
+        <v>0.0009066614287577343</v>
       </c>
       <c r="AA5">
-        <v>0.0009774398106803283</v>
+        <v>0.0009496377983778173</v>
       </c>
       <c r="AB5">
-        <v>0.00104594283114571</v>
+        <v>0.001017052051792891</v>
       </c>
       <c r="AC5">
-        <v>0.001134825461749542</v>
+        <v>0.00110485021654816</v>
       </c>
       <c r="AD5">
-        <v>0.001253712478557212</v>
+        <v>0.001222659100058157</v>
       </c>
       <c r="AE5">
-        <v>0.001277839151721119</v>
+        <v>0.001245687640358515</v>
       </c>
       <c r="AF5">
-        <v>0.001285770655775003</v>
+        <v>0.001252517593490841</v>
       </c>
       <c r="AG5">
-        <v>0.001309897328938909</v>
+        <v>0.001275546133791198</v>
       </c>
       <c r="AH5">
-        <v>0.00133952542314019</v>
+        <v>0.001304077256226793</v>
       </c>
       <c r="AI5">
-        <v>0.001339698189431364</v>
+        <v>0.001304077256226793</v>
       </c>
       <c r="AJ5">
-        <v>0.001350740023506378</v>
+        <v>0.001314018195828376</v>
       </c>
       <c r="AK5">
-        <v>0.001353288103023689</v>
+        <v>0.001315463588229921</v>
       </c>
       <c r="AL5">
-        <v>0.001356809984047615</v>
+        <v>0.001317882987662951</v>
       </c>
       <c r="AM5">
-        <v>0.001404341327370523</v>
+        <v>0.001364321137775594</v>
       </c>
       <c r="AN5">
-        <v>0.001471950727829834</v>
+        <v>0.001430841582582366</v>
       </c>
       <c r="AO5">
-        <v>0.001552503828377079</v>
+        <v>0.001510308459298978</v>
       </c>
       <c r="AP5">
-        <v>0.001646274179014117</v>
+        <v>0.001602995375661158</v>
       </c>
       <c r="AQ5">
-        <v>0.001779514679919298</v>
+        <v>0.00173516077263137</v>
       </c>
       <c r="AR5">
-        <v>0.001947851931062913</v>
+        <v>0.00190243032715558</v>
       </c>
       <c r="AS5">
-        <v>0.002082801341979705</v>
+        <v>0.002036304994809989</v>
       </c>
       <c r="AT5">
-        <v>0.002177144192620631</v>
+        <v>0.002129564532004573</v>
       </c>
       <c r="AU5">
-        <v>0.002246217583089888</v>
+        <v>0.00219754927580249</v>
       </c>
       <c r="AV5">
-        <v>0.002321816107603473</v>
+        <v>0.0022720605308015</v>
       </c>
       <c r="AW5">
-        <v>0.002408302542191027</v>
+        <v>0.002357461993813324</v>
       </c>
       <c r="AX5">
-        <v>0.002421500054280685</v>
+        <v>0.002369559066394391</v>
       </c>
       <c r="AY5">
-        <v>0.002426948344617699</v>
+        <v>0.002373905281717232</v>
       </c>
       <c r="AZ5">
-        <v>0.002452297788789913</v>
+        <v>0.002398156851096819</v>
       </c>
       <c r="BA5">
-        <v>0.002461376036851587</v>
+        <v>0.002406133790262042</v>
       </c>
       <c r="BB5">
-        <v>0.002462468823259011</v>
+        <v>0.002406133790262042</v>
       </c>
       <c r="BC5">
-        <v>0.002462606745199948</v>
+        <v>0.002406133790262042</v>
       </c>
       <c r="BD5">
-        <v>0.002462650444314245</v>
+        <v>0.002406133790262042</v>
       </c>
       <c r="BE5">
-        <v>0.002475073700898643</v>
+        <v>0.002417456443927995</v>
       </c>
       <c r="BF5">
-        <v>0.002500225882069516</v>
+        <v>0.002441510708673063</v>
       </c>
       <c r="BG5">
-        <v>0.002512441945152507</v>
+        <v>0.002452626125108554</v>
       </c>
       <c r="BH5">
-        <v>0.002549381018403456</v>
+        <v>0.002488469769606447</v>
       </c>
       <c r="BI5">
-        <v>0.002630111718951908</v>
+        <v>0.002568114283807487</v>
       </c>
       <c r="BJ5">
-        <v>0.002689646234356361</v>
+        <v>0.002626558139321221</v>
       </c>
       <c r="BK5">
-        <v>0.002722405447578914</v>
+        <v>0.00265822104161382</v>
       </c>
       <c r="BL5">
-        <v>0.002756875777813091</v>
+        <v>0.002691595422056428</v>
       </c>
       <c r="BM5">
-        <v>0.002774052563929783</v>
+        <v>0.002707672608506914</v>
       </c>
       <c r="BN5">
-        <v>0.002819108004235871</v>
+        <v>0.002751634333053075</v>
       </c>
       <c r="BO5">
-        <v>0.002845762224416949</v>
+        <v>0.002777190953819947</v>
       </c>
       <c r="BP5">
-        <v>0.002845956085918267</v>
+        <v>0.002777190953819947</v>
       </c>
       <c r="BQ5">
-        <v>0.002848395570634839</v>
+        <v>0.002778527728501368</v>
       </c>
       <c r="BR5">
-        <v>0.002848421138668013</v>
+        <v>0.002778527728501368</v>
       </c>
       <c r="BS5">
-        <v>0.002848865405121031</v>
+        <v>0.002778527728501368</v>
       </c>
       <c r="BT5">
-        <v>0.002849504370025372</v>
+        <v>0.002778527728501368</v>
       </c>
       <c r="BU5">
-        <v>0.002889430925296617</v>
+        <v>0.002817359485540101</v>
       </c>
       <c r="BV5">
-        <v>0.002934353725601804</v>
+        <v>0.002861188542091136</v>
       </c>
       <c r="BW5">
-        <v>0.002959703169774018</v>
+        <v>0.002885440111470724</v>
       </c>
       <c r="BX5">
-        <v>0.003021613440194611</v>
+        <v>0.002946260223413606</v>
       </c>
       <c r="BY5">
-        <v>0.003076972014570695</v>
+        <v>0.003000527256549194</v>
       </c>
       <c r="BZ5">
-        <v>0.003089849811658181</v>
+        <v>0.003012304546650905</v>
       </c>
       <c r="CA5">
-        <v>0.003119210215857644</v>
+        <v>0.003040567922587589</v>
       </c>
       <c r="CB5">
-        <v>0.00317260998622042</v>
+        <v>0.00309287573829611</v>
       </c>
       <c r="CC5">
-        <v>0.003199010338399773</v>
+        <v>0.003118178437481356</v>
       </c>
       <c r="CD5">
-        <v>0.003201949274119739</v>
+        <v>0.003120014768577388</v>
       </c>
       <c r="CE5">
-        <v>0.003208108280861581</v>
+        <v>0.00312507185030472</v>
       </c>
       <c r="CF5">
-        <v>0.003223653562967189</v>
+        <v>0.003139517188408394</v>
       </c>
       <c r="CG5">
-        <v>0.003224072049510032</v>
+        <v>0.003139517188408394</v>
       </c>
       <c r="CH5">
-        <v>0.003248635613676907</v>
+        <v>0.003162982711919388</v>
       </c>
       <c r="CI5">
-        <v>0.003254199564414707</v>
+        <v>0.003167444612053625</v>
       </c>
       <c r="CJ5">
-        <v>0.003259024035047482</v>
+        <v>0.003171166876012477</v>
       </c>
       <c r="CK5">
-        <v>0.003282574285207473</v>
+        <v>0.003193618871652438</v>
       </c>
       <c r="CL5">
-        <v>0.003319873005460865</v>
+        <v>0.003229822239057775</v>
       </c>
       <c r="CM5">
-        <v>0.005175782518069159</v>
+        <v>0.005085020224213175</v>
       </c>
       <c r="CN5">
-        <v>0.1430082434544468</v>
+        <v>0.1429454680516244</v>
       </c>
       <c r="CO5">
-        <v>0.1442193653626747</v>
+        <v>0.1441557423472853</v>
       </c>
       <c r="CP5">
-        <v>0.2523610660973453</v>
+        <v>0.2523191636141761</v>
       </c>
       <c r="CQ5">
-        <v>0.2747858852496904</v>
+        <v>0.2747476123932634</v>
       </c>
       <c r="CR5">
-        <v>0.2751163647519355</v>
+        <v>0.2750770584196877</v>
       </c>
       <c r="CS5">
-        <v>0.2772593680664942</v>
+        <v>0.2772194107991382</v>
       </c>
       <c r="CT5">
-        <v>0.2978563682064219</v>
+        <v>0.2978196547969796</v>
       </c>
       <c r="CU5">
-        <v>0.298326246639614</v>
+        <v>0.2982885291750769</v>
       </c>
       <c r="CV5">
-        <v>0.3492566839856147</v>
+        <v>0.3492286123774681</v>
       </c>
       <c r="CW5">
-        <v>0.3595991665558773</v>
+        <v>0.3595721745469285</v>
       </c>
       <c r="CX5">
-        <v>0.4318419770466656</v>
+        <v>0.4318291289593769</v>
       </c>
       <c r="CY5">
-        <v>0.4933686034646524</v>
+        <v>0.4933676376036662</v>
       </c>
       <c r="CZ5">
-        <v>0.4935007118655499</v>
+        <v>0.4934986706616943</v>
       </c>
       <c r="DA5">
-        <v>0.5031633759311942</v>
+        <v>0.5031622708480046</v>
       </c>
       <c r="DB5">
-        <v>0.5070287217574538</v>
+        <v>0.5070273292467289</v>
       </c>
       <c r="DC5">
-        <v>0.5738046472111022</v>
+        <v>0.573816244813142</v>
       </c>
       <c r="DD5">
-        <v>0.5995483833859947</v>
+        <v>0.5995643110860611</v>
       </c>
       <c r="DE5">
-        <v>0.622648578542928</v>
+        <v>0.6226682784106602</v>
       </c>
       <c r="DF5">
-        <v>0.6227896545738864</v>
+        <v>0.622808280991405</v>
       </c>
       <c r="DG5">
-        <v>0.6326809146410836</v>
+        <v>0.6327005254254081</v>
       </c>
       <c r="DH5">
-        <v>0.6328732870323904</v>
+        <v>0.6328918351928122</v>
       </c>
       <c r="DI5">
-        <v>0.6328745175017988</v>
+        <v>0.6328919626970178</v>
       </c>
       <c r="DJ5">
-        <v>0.6444017545801102</v>
+        <v>0.6444205294219087</v>
       </c>
       <c r="DK5">
-        <v>0.6551106266528619</v>
+        <v>0.6551305584218914</v>
       </c>
       <c r="DL5">
-        <v>0.6582337722740793</v>
+        <v>0.6582532599711236</v>
       </c>
       <c r="DM5">
-        <v>0.6582560970542309</v>
+        <v>0.6582744862381147</v>
       </c>
       <c r="DN5">
-        <v>0.671479881144068</v>
+        <v>0.6714999580378563</v>
       </c>
       <c r="DO5">
-        <v>0.6720435998478976</v>
+        <v>0.6720626924919718</v>
       </c>
       <c r="DP5">
-        <v>0.7174297431562326</v>
+        <v>0.7174573115103092</v>
       </c>
       <c r="DQ5">
-        <v>0.7232191951955639</v>
+        <v>0.7232468822127489</v>
       </c>
       <c r="DR5">
-        <v>0.727625862225501</v>
+        <v>0.7276533760632492</v>
       </c>
       <c r="DS5">
-        <v>0.7281422641290092</v>
+        <v>0.7281687837306351</v>
       </c>
       <c r="DT5">
-        <v>0.7330620357624321</v>
+        <v>0.7330884904774885</v>
       </c>
       <c r="DU5">
-        <v>0.7351511787766249</v>
+        <v>0.7351769711891319</v>
       </c>
       <c r="DV5">
-        <v>0.7407830093148853</v>
+        <v>0.7408088871238254</v>
       </c>
       <c r="DW5">
-        <v>0.7428488383289197</v>
+        <v>0.7428740489147935</v>
       </c>
       <c r="DX5">
-        <v>0.7650077944794587</v>
+        <v>0.7650365785805789</v>
       </c>
       <c r="DY5">
-        <v>0.7695480455103033</v>
+        <v>0.7695766846254475</v>
       </c>
       <c r="DZ5">
-        <v>0.7707244953182957</v>
+        <v>0.7707522795031815</v>
       </c>
       <c r="EA5">
-        <v>0.7719110905263569</v>
+        <v>0.7719380219222134</v>
       </c>
       <c r="EB5">
-        <v>0.7744388844435297</v>
+        <v>0.77446524611594</v>
       </c>
       <c r="EC5">
-        <v>0.7747205193654431</v>
+        <v>0.77474583725318</v>
       </c>
       <c r="ED5">
-        <v>0.7952723465050638</v>
+        <v>0.7953008987167643</v>
       </c>
       <c r="EE5">
-        <v>0.7968814765159956</v>
+        <v>0.7969092651163998</v>
       </c>
       <c r="EF5">
-        <v>0.8009268698434784</v>
+        <v>0.8009544090161236</v>
       </c>
       <c r="EG5">
-        <v>0.8015106164974442</v>
+        <v>0.8015371756473575</v>
       </c>
       <c r="EH5">
-        <v>0.805723530126065</v>
+        <v>0.8057498752040778</v>
       </c>
       <c r="EI5">
-        <v>0.8082518138432412</v>
+        <v>0.8082775893011821</v>
       </c>
       <c r="EJ5">
-        <v>0.8084592059846502</v>
+        <v>0.8084839219886691</v>
       </c>
       <c r="EK5">
-        <v>0.8085140540550227</v>
+        <v>0.8085376784100573</v>
       </c>
       <c r="EL5">
-        <v>0.8220107621467139</v>
+        <v>0.8220361318134023</v>
       </c>
       <c r="EM5">
-        <v>0.8327410252196109</v>
+        <v>0.8327675563281901</v>
       </c>
       <c r="EN5">
-        <v>0.8335563437751499</v>
+        <v>0.8335819437352132</v>
       </c>
       <c r="EO5">
-        <v>0.8389334498116797</v>
+        <v>0.8389590814075074</v>
       </c>
       <c r="EP5">
-        <v>0.8401534935199682</v>
+        <v>0.8401782793862121</v>
       </c>
       <c r="EQ5">
-        <v>0.8403038316109895</v>
+        <v>0.8403275459818162</v>
       </c>
       <c r="ER5">
-        <v>0.8406090578130632</v>
+        <v>0.8406317333782546</v>
       </c>
       <c r="ES5">
-        <v>0.8422847750244473</v>
+        <v>0.8423067010318489</v>
       </c>
       <c r="ET5">
-        <v>0.8536530701016789</v>
+        <v>0.8536762922102876</v>
       </c>
       <c r="EU5">
-        <v>0.8551696452119819</v>
+        <v>0.8551920841751964</v>
       </c>
       <c r="EV5">
-        <v>0.8559919992675686</v>
+        <v>0.856013508567139</v>
       </c>
       <c r="EW5">
-        <v>0.8559992002951176</v>
+        <v>0.8560196078895962</v>
       </c>
       <c r="EX5">
-        <v>0.8599382963218781</v>
+        <v>0.859958432054109</v>
       </c>
       <c r="EY5">
-        <v>0.861702135133861</v>
+        <v>0.8617215399067335</v>
       </c>
       <c r="EZ5">
-        <v>0.8630321086428963</v>
+        <v>0.8630506908873281</v>
       </c>
       <c r="FA5">
-        <v>0.8795021627547871</v>
+        <v>0.8795231178479554</v>
       </c>
       <c r="FB5">
-        <v>0.8906491468305152</v>
+        <v>0.8906713513162805</v>
       </c>
       <c r="FC5">
-        <v>0.8931710084476477</v>
+        <v>0.8931926419579302</v>
       </c>
       <c r="FD5">
-        <v>0.8970676129741196</v>
+        <v>0.897088965654146</v>
       </c>
       <c r="FE5">
-        <v>0.9003567499964646</v>
+        <v>0.9003776936376836</v>
       </c>
       <c r="FF5">
-        <v>0.9154478470989874</v>
+        <v>0.9154708725543129</v>
       </c>
       <c r="FG5">
-        <v>0.9154481643259096</v>
+        <v>0.9154708725543129</v>
       </c>
       <c r="FH5">
-        <v>0.9172294001380106</v>
+        <v>0.917251381078765</v>
       </c>
       <c r="FI5">
-        <v>0.9172542571391794</v>
+        <v>0.9172751401012091</v>
       </c>
       <c r="FJ5">
-        <v>0.9172546756257223</v>
+        <v>0.9172751401012091</v>
       </c>
       <c r="FK5">
-        <v>0.9230284183649468</v>
+        <v>0.9230489981880288</v>
       </c>
       <c r="FL5">
-        <v>0.9301363434132351</v>
+        <v>0.930157320168655</v>
       </c>
       <c r="FM5">
-        <v>0.9321488602269073</v>
+        <v>0.9321691585074986</v>
       </c>
       <c r="FN5">
-        <v>0.9323011334079419</v>
+        <v>0.9323203606015247</v>
       </c>
       <c r="FO5">
-        <v>0.9333746531152349</v>
+        <v>0.9333930036547322</v>
       </c>
       <c r="FP5">
-        <v>0.9354355617292359</v>
+        <v>0.9354532440071959</v>
       </c>
       <c r="FQ5">
-        <v>0.9359408432326686</v>
+        <v>0.9359575289274994</v>
       </c>
       <c r="FR5">
-        <v>0.9359432827173851</v>
+        <v>0.9359588657021808</v>
       </c>
       <c r="FS5">
-        <v>0.9378603010304086</v>
+        <v>0.9378751853850186</v>
       </c>
       <c r="FT5">
-        <v>0.9437943760707224</v>
+        <v>0.9438094096117285</v>
       </c>
       <c r="FU5">
-        <v>0.9438847480313363</v>
+        <v>0.9438986974208232</v>
       </c>
       <c r="FV5">
-        <v>0.947904519758645</v>
+        <v>0.9479182143128273</v>
       </c>
       <c r="FW5">
-        <v>0.9490338695663173</v>
+        <v>0.9490466992495897</v>
       </c>
       <c r="FX5">
-        <v>0.9499808048727504</v>
+        <v>0.9499927311857714</v>
       </c>
       <c r="FY5">
-        <v>0.9528256290920769</v>
+        <v>0.9528370525922198</v>
       </c>
       <c r="FZ5">
-        <v>0.9533944962959415</v>
+        <v>0.9534049366329826</v>
       </c>
       <c r="GA5">
-        <v>0.9534241774321431</v>
+        <v>0.9534335208086133</v>
       </c>
       <c r="GB5">
-        <v>0.9534267099874604</v>
+        <v>0.9534349506735383</v>
       </c>
       <c r="GC5">
-        <v>0.9535322613481775</v>
+        <v>0.9535394210864119</v>
       </c>
       <c r="GD5">
-        <v>0.9552472682598285</v>
+        <v>0.9552536867325282</v>
       </c>
       <c r="GE5">
-        <v>0.9571984638730842</v>
+        <v>0.95720419092886</v>
       </c>
       <c r="GF5">
-        <v>0.9573163873838852</v>
+        <v>0.9573210361030114</v>
       </c>
       <c r="GG5">
-        <v>0.9574176380945731</v>
+        <v>0.9574212049581856</v>
       </c>
       <c r="GH5">
-        <v>0.9577816584470461</v>
+        <v>0.9577841989137742</v>
       </c>
       <c r="GI5">
-        <v>0.958277694150416</v>
+        <v>0.9582792360826502</v>
       </c>
       <c r="GJ5">
-        <v>0.9601450649631021</v>
+        <v>0.9601458977868387</v>
       </c>
       <c r="GK5">
-        <v>0.9609807356687794</v>
+        <v>0.9609806416394062</v>
       </c>
       <c r="GL5">
-        <v>0.9813791258073578</v>
+        <v>0.981382233718429</v>
       </c>
       <c r="GM5">
-        <v>0.9934049458890563</v>
+        <v>0.9934094886747302</v>
       </c>
       <c r="GN5">
-        <v>0.9950362566001387</v>
+        <v>0.9950400404558457</v>
       </c>
       <c r="GO5">
-        <v>0.9950366750866816</v>
+        <v>0.9950400404558457</v>
       </c>
       <c r="GP5">
-        <v>0.9950384456662936</v>
+        <v>0.9950407081842474</v>
       </c>
       <c r="GQ5">
-        <v>0.9963641170752997</v>
+        <v>0.9963655561568366</v>
       </c>
       <c r="GR5">
-        <v>0.9975385429832783</v>
+        <v>0.9975391267074043</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>4.849142547458292E-05</v>
+        <v>4.788333947977541E-05</v>
       </c>
       <c r="C6">
-        <v>8.810691667925625E-05</v>
+        <v>8.688969291174406E-05</v>
       </c>
       <c r="D6">
-        <v>0.0001211020906826114</v>
+        <v>0.0001192749446499577</v>
       </c>
       <c r="E6">
-        <v>0.00014997690956067</v>
+        <v>0.0001475393530102225</v>
       </c>
       <c r="F6">
-        <v>0.0002001476510863195</v>
+        <v>0.0001971022075361731</v>
       </c>
       <c r="G6">
-        <v>0.0002309818820239622</v>
+        <v>0.0002273262601418667</v>
       </c>
       <c r="H6">
-        <v>0.0002382478818449151</v>
+        <v>0.0002339792888494223</v>
       </c>
       <c r="I6">
-        <v>0.000252472282277467</v>
+        <v>0.0002475915427231241</v>
       </c>
       <c r="J6">
-        <v>0.0002612962875457974</v>
+        <v>0.0002558027614981371</v>
       </c>
       <c r="K6">
-        <v>0.0002615540872336369</v>
+        <v>0.0002558027614981371</v>
       </c>
       <c r="L6">
-        <v>0.0002621678466223008</v>
+        <v>0.0002558027614981371</v>
       </c>
       <c r="M6">
-        <v>0.0002661793117442861</v>
+        <v>0.0002592008698518117</v>
       </c>
       <c r="N6">
-        <v>0.0002667381610112802</v>
+        <v>0.0002592008698518117</v>
       </c>
       <c r="O6">
-        <v>0.0002812398484522641</v>
+        <v>0.0002730904435918215</v>
       </c>
       <c r="P6">
-        <v>0.0003258271198081251</v>
+        <v>0.000317069166319547</v>
       </c>
       <c r="Q6">
-        <v>0.0003549672216942507</v>
+        <v>0.0003455988891233081</v>
       </c>
       <c r="R6">
-        <v>0.0004177049736020523</v>
+        <v>0.0004077302431933798</v>
       </c>
       <c r="S6">
-        <v>0.0004756152493630544</v>
+        <v>0.000465033549071777</v>
       </c>
       <c r="T6">
-        <v>0.0005259656848941683</v>
+        <v>0.0005147761188965204</v>
       </c>
       <c r="U6">
-        <v>0.0006219604578132875</v>
+        <v>0.0006101684348587863</v>
       </c>
       <c r="V6">
-        <v>0.000735818451275612</v>
+        <v>0.0007234260881150092</v>
       </c>
       <c r="W6">
-        <v>0.0008200177778360418</v>
+        <v>0.0008070215599851876</v>
       </c>
       <c r="X6">
-        <v>0.0008509929127779693</v>
+        <v>0.0008373865332919678</v>
       </c>
       <c r="Y6">
-        <v>0.0009137306646857708</v>
+        <v>0.0008995178873620395</v>
       </c>
       <c r="Z6">
-        <v>0.000960581179110455</v>
+        <v>0.0009457601213477123</v>
       </c>
       <c r="AA6">
-        <v>0.0009688502423619102</v>
+        <v>0.000953416332346491</v>
       </c>
       <c r="AB6">
-        <v>0.000969920408694453</v>
+        <v>0.0009538727933735483</v>
       </c>
       <c r="AC6">
-        <v>0.0009702570275346893</v>
+        <v>0.0009538727933735483</v>
       </c>
       <c r="AD6">
-        <v>0.0009757741207024594</v>
+        <v>0.0009587767081864854</v>
       </c>
       <c r="AE6">
-        <v>0.001006211327628029</v>
+        <v>0.0009886036897336691</v>
       </c>
       <c r="AF6">
-        <v>0.001022779535131854</v>
+        <v>0.001004560028414418</v>
       </c>
       <c r="AG6">
-        <v>0.001056465008156201</v>
+        <v>0.001037635660972477</v>
       </c>
       <c r="AH6">
-        <v>0.001161553621351856</v>
+        <v>0.001142122894810539</v>
       </c>
       <c r="AI6">
-        <v>0.001259181084320624</v>
+        <v>0.001239148094292487</v>
       </c>
       <c r="AJ6">
-        <v>0.001285420775118551</v>
+        <v>0.001264777062315974</v>
       </c>
       <c r="AK6">
-        <v>0.001307324340784619</v>
+        <v>0.001286069391386698</v>
       </c>
       <c r="AL6">
-        <v>0.001359030912356972</v>
+        <v>0.001337168257951697</v>
       </c>
       <c r="AM6">
-        <v>0.001444759768963913</v>
+        <v>0.001422293441114197</v>
       </c>
       <c r="AN6">
-        <v>0.00150542036080855</v>
+        <v>0.001482347388982391</v>
       </c>
       <c r="AO6">
-        <v>0.001517562789177791</v>
+        <v>0.001493877424083857</v>
       </c>
       <c r="AP6">
-        <v>0.001529539153541982</v>
+        <v>0.001505241375502069</v>
       </c>
       <c r="AQ6">
-        <v>0.001539087719832346</v>
+        <v>0.001514177241157938</v>
       </c>
       <c r="AR6">
-        <v>0.001539289034288468</v>
+        <v>0.001514177241157938</v>
       </c>
       <c r="AS6">
-        <v>0.001540239097917358</v>
+        <v>0.001514513585249447</v>
       </c>
       <c r="AT6">
-        <v>0.001540247073437601</v>
+        <v>0.001514513585249447</v>
       </c>
       <c r="AU6">
-        <v>0.00154025000645269</v>
+        <v>0.001514513585249447</v>
       </c>
       <c r="AV6">
-        <v>0.001565646562224977</v>
+        <v>0.001539299318337724</v>
       </c>
       <c r="AW6">
-        <v>0.001600178258275057</v>
+        <v>0.001573221274197008</v>
       </c>
       <c r="AX6">
-        <v>0.001605531470137844</v>
+        <v>0.001577961288285402</v>
       </c>
       <c r="AY6">
-        <v>0.001624006625699657</v>
+        <v>0.00159582480099312</v>
       </c>
       <c r="AZ6">
-        <v>0.001664083979918376</v>
+        <v>0.001635293072168843</v>
       </c>
       <c r="BA6">
-        <v>0.001707560641240464</v>
+        <v>0.001678161053258049</v>
       </c>
       <c r="BB6">
-        <v>0.001732358283994539</v>
+        <v>0.001702347802358291</v>
       </c>
       <c r="BC6">
-        <v>0.0017530547246239</v>
+        <v>0.001722432863350753</v>
       </c>
       <c r="BD6">
-        <v>0.001789437165730259</v>
+        <v>0.00175820578357537</v>
       </c>
       <c r="BE6">
-        <v>0.001870377598191589</v>
+        <v>0.001838541975174956</v>
       </c>
       <c r="BF6">
-        <v>0.001890000561788306</v>
+        <v>0.001857553431930203</v>
       </c>
       <c r="BG6">
-        <v>0.001890000601936858</v>
+        <v>0.001857553431930203</v>
       </c>
       <c r="BH6">
-        <v>0.001895465029103026</v>
+        <v>0.001862404674500738</v>
       </c>
       <c r="BI6">
-        <v>0.001915087992699744</v>
+        <v>0.001881416131255985</v>
       </c>
       <c r="BJ6">
-        <v>0.001915628055516166</v>
+        <v>0.001881416131255985</v>
       </c>
       <c r="BK6">
-        <v>0.001929140170927058</v>
+        <v>0.001894316015703882</v>
       </c>
       <c r="BL6">
-        <v>0.001930611782371809</v>
+        <v>0.001895173969413474</v>
       </c>
       <c r="BM6">
-        <v>0.001931170631638803</v>
+        <v>0.001895173969413474</v>
       </c>
       <c r="BN6">
-        <v>0.001937204762222296</v>
+        <v>0.001900594982909884</v>
       </c>
       <c r="BO6">
-        <v>0.001967641969147865</v>
+        <v>0.001930421964457067</v>
       </c>
       <c r="BP6">
-        <v>0.001986942159734768</v>
+        <v>0.001949110609954636</v>
       </c>
       <c r="BQ6">
-        <v>0.002021045240771813</v>
+        <v>0.001982603900010988</v>
       </c>
       <c r="BR6">
-        <v>0.002074136432386271</v>
+        <v>0.002035087550692398</v>
       </c>
       <c r="BS6">
-        <v>0.002134054407208326</v>
+        <v>0.002094398793539592</v>
       </c>
       <c r="BT6">
-        <v>0.002175342633463866</v>
+        <v>0.002135078080237702</v>
       </c>
       <c r="BU6">
-        <v>0.002201337932254361</v>
+        <v>0.002160462627293863</v>
       </c>
       <c r="BV6">
-        <v>0.002216200589706322</v>
+        <v>0.00217471321381897</v>
       </c>
       <c r="BW6">
-        <v>0.002231527720172407</v>
+        <v>0.00218942832839719</v>
       </c>
       <c r="BX6">
-        <v>0.002264660381179943</v>
+        <v>0.00222195108343148</v>
       </c>
       <c r="BY6">
-        <v>0.002265370165501527</v>
+        <v>0.002222047119743135</v>
       </c>
       <c r="BZ6">
-        <v>0.002272447911716755</v>
+        <v>0.002228511872537344</v>
       </c>
       <c r="CA6">
-        <v>0.002274355599774766</v>
+        <v>0.002229805954534278</v>
       </c>
       <c r="CB6">
-        <v>0.002282832221032533</v>
+        <v>0.002237669748134517</v>
       </c>
       <c r="CC6">
-        <v>0.002320524252178715</v>
+        <v>0.00227475241358238</v>
       </c>
       <c r="CD6">
-        <v>0.002335117135622473</v>
+        <v>0.002288733194131681</v>
       </c>
       <c r="CE6">
-        <v>0.002350077664577409</v>
+        <v>0.002303081663757313</v>
       </c>
       <c r="CF6">
-        <v>0.002393870215909104</v>
+        <v>0.002346265572288367</v>
       </c>
       <c r="CG6">
-        <v>0.00244337590241453</v>
+        <v>0.002395163292986596</v>
       </c>
       <c r="CH6">
-        <v>0.002471113500258007</v>
+        <v>0.00242229034555419</v>
       </c>
       <c r="CI6">
-        <v>0.002482766060612351</v>
+        <v>0.002433330454592521</v>
       </c>
       <c r="CJ6">
-        <v>0.002503680627248345</v>
+        <v>0.002453633667439049</v>
       </c>
       <c r="CK6">
-        <v>0.002515579334610175</v>
+        <v>0.002464919952652722</v>
       </c>
       <c r="CL6">
-        <v>0.002518442291697235</v>
+        <v>0.002467169416875897</v>
       </c>
       <c r="CM6">
-        <v>0.002518445147530421</v>
+        <v>0.002467169416875897</v>
       </c>
       <c r="CN6">
-        <v>0.01326847097442954</v>
+        <v>0.01321785526511481</v>
       </c>
       <c r="CO6">
-        <v>0.09379068342304139</v>
+        <v>0.09374899557949765</v>
       </c>
       <c r="CP6">
-        <v>0.1574989753603563</v>
+        <v>0.1574642229714839</v>
       </c>
       <c r="CQ6">
-        <v>0.3109057800253264</v>
+        <v>0.3108885921595961</v>
       </c>
       <c r="CR6">
-        <v>0.3134120121015388</v>
+        <v>0.3133945073864559</v>
       </c>
       <c r="CS6">
-        <v>0.3225103823782125</v>
+        <v>0.3224933419670667</v>
       </c>
       <c r="CT6">
-        <v>0.3276790281353866</v>
+        <v>0.3276619863648161</v>
       </c>
       <c r="CU6">
-        <v>0.3304129242185221</v>
+        <v>0.3303955925762627</v>
       </c>
       <c r="CV6">
-        <v>0.3400057715102324</v>
+        <v>0.3399889627663047</v>
       </c>
       <c r="CW6">
-        <v>0.3688845723884121</v>
+        <v>0.3688705718841776</v>
       </c>
       <c r="CX6">
-        <v>0.3692739444002526</v>
+        <v>0.3692593762035926</v>
       </c>
       <c r="CY6">
-        <v>0.4917714841252984</v>
+        <v>0.4917708177746252</v>
       </c>
       <c r="CZ6">
-        <v>0.4954216072362955</v>
+        <v>0.4954207595847394</v>
       </c>
       <c r="DA6">
-        <v>0.4955675613407338</v>
+        <v>0.4955661171522873</v>
       </c>
       <c r="DB6">
-        <v>0.5235916101929212</v>
+        <v>0.523592872958009</v>
       </c>
       <c r="DC6">
-        <v>0.530052685889397</v>
+        <v>0.5300541004450501</v>
       </c>
       <c r="DD6">
-        <v>0.608947628288525</v>
+        <v>0.6089577778821724</v>
       </c>
       <c r="DE6">
-        <v>0.6105675082377842</v>
+        <v>0.6105772359513805</v>
       </c>
       <c r="DF6">
-        <v>0.6256353066959831</v>
+        <v>0.6256462060770942</v>
       </c>
       <c r="DG6">
-        <v>0.6274370359507722</v>
+        <v>0.6274475350005587</v>
       </c>
       <c r="DH6">
-        <v>0.6309256619568583</v>
+        <v>0.6309359605687246</v>
       </c>
       <c r="DI6">
-        <v>0.6318452596148225</v>
+        <v>0.6318550533647889</v>
       </c>
       <c r="DJ6">
-        <v>0.6325970624376842</v>
+        <v>0.6326063314424467</v>
       </c>
       <c r="DK6">
-        <v>0.6502754319752684</v>
+        <v>0.6502861819942439</v>
       </c>
       <c r="DL6">
-        <v>0.6504031973891536</v>
+        <v>0.6504133487159206</v>
       </c>
       <c r="DM6">
-        <v>0.6612825227199847</v>
+        <v>0.6612933493897867</v>
       </c>
       <c r="DN6">
-        <v>0.6769279081957476</v>
+        <v>0.6769399749758039</v>
       </c>
       <c r="DO6">
-        <v>0.6889871655624593</v>
+        <v>0.6890000475047966</v>
       </c>
       <c r="DP6">
-        <v>0.7085008981558553</v>
+        <v>0.7085154785987272</v>
       </c>
       <c r="DQ6">
-        <v>0.7386118020715022</v>
+        <v>0.7386293367554574</v>
       </c>
       <c r="DR6">
-        <v>0.7404533308275015</v>
+        <v>0.740470469896282</v>
       </c>
       <c r="DS6">
-        <v>0.7458706122922364</v>
+        <v>0.7458877794643545</v>
       </c>
       <c r="DT6">
-        <v>0.7511498600527738</v>
+        <v>0.7511670389715515</v>
       </c>
       <c r="DU6">
-        <v>0.7520514199801895</v>
+        <v>0.7520680918996374</v>
       </c>
       <c r="DV6">
-        <v>0.7626555273026514</v>
+        <v>0.7626728419524302</v>
       </c>
       <c r="DW6">
-        <v>0.7631096385764605</v>
+        <v>0.7631263932052683</v>
       </c>
       <c r="DX6">
-        <v>0.7806106151086503</v>
+        <v>0.780628829731006</v>
       </c>
       <c r="DY6">
-        <v>0.7910700984267143</v>
+        <v>0.7910889386417874</v>
       </c>
       <c r="DZ6">
-        <v>0.7913304036746299</v>
+        <v>0.7913486609031615</v>
       </c>
       <c r="EA6">
-        <v>0.791489929919481</v>
+        <v>0.7915075922193897</v>
       </c>
       <c r="EB6">
-        <v>0.7917840584284251</v>
+        <v>0.7918011417497713</v>
       </c>
       <c r="EC6">
-        <v>0.7926748814155143</v>
+        <v>0.792691456465228</v>
       </c>
       <c r="ED6">
-        <v>0.8056515788101246</v>
+        <v>0.8056690777366629</v>
       </c>
       <c r="EE6">
-        <v>0.8141092250673144</v>
+        <v>0.8141271123734599</v>
       </c>
       <c r="EF6">
-        <v>0.816307231434154</v>
+        <v>0.8163247653669057</v>
       </c>
       <c r="EG6">
-        <v>0.8175447725717865</v>
+        <v>0.817561839318213</v>
       </c>
       <c r="EH6">
-        <v>0.8222793307157603</v>
+        <v>0.8222963446643735</v>
       </c>
       <c r="EI6">
-        <v>0.8268766978555623</v>
+        <v>0.8268936427495421</v>
       </c>
       <c r="EJ6">
-        <v>0.8273535051700616</v>
+        <v>0.8273698927324992</v>
       </c>
       <c r="EK6">
-        <v>0.8282543472974554</v>
+        <v>0.8282702277755056</v>
       </c>
       <c r="EL6">
-        <v>0.8293736798314933</v>
+        <v>0.8293890791157693</v>
       </c>
       <c r="EM6">
-        <v>0.8386806411145101</v>
+        <v>0.8386965294202801</v>
       </c>
       <c r="EN6">
-        <v>0.8392440769716437</v>
+        <v>0.8392594182111555</v>
       </c>
       <c r="EO6">
-        <v>0.8460716476792643</v>
+        <v>0.8460871841381613</v>
       </c>
       <c r="EP6">
-        <v>0.8553372709610241</v>
+        <v>0.8553532915429565</v>
       </c>
       <c r="EQ6">
-        <v>0.8560249804819368</v>
+        <v>0.8560404687237557</v>
       </c>
       <c r="ER6">
-        <v>0.8560261261399716</v>
+        <v>0.8560410006854307</v>
       </c>
       <c r="ES6">
-        <v>0.8560270762036005</v>
+        <v>0.8560413370295221</v>
       </c>
       <c r="ET6">
-        <v>0.861747773377562</v>
+        <v>0.8617620982608883</v>
       </c>
       <c r="EU6">
-        <v>0.8693655216092112</v>
+        <v>0.869380135346151</v>
       </c>
       <c r="EV6">
-        <v>0.8693743456144796</v>
+        <v>0.869388346564926</v>
       </c>
       <c r="EW6">
-        <v>0.8725497524110409</v>
+        <v>0.8725635158078078</v>
       </c>
       <c r="EX6">
-        <v>0.8741966900611229</v>
+        <v>0.8742100347841143</v>
       </c>
       <c r="EY6">
-        <v>0.8764738662303698</v>
+        <v>0.876486866961408</v>
       </c>
       <c r="EZ6">
-        <v>0.8764805020025717</v>
+        <v>0.8764928896878158</v>
       </c>
       <c r="FA6">
-        <v>0.8808221314345969</v>
+        <v>0.8808344197608746</v>
       </c>
       <c r="FB6">
-        <v>0.9067184632220823</v>
+        <v>0.9067332063722917</v>
       </c>
       <c r="FC6">
-        <v>0.9091545688961622</v>
+        <v>0.9091689868872008</v>
       </c>
       <c r="FD6">
-        <v>0.9158719481004319</v>
+        <v>0.9158865482534149</v>
       </c>
       <c r="FE6">
-        <v>0.9171536150394063</v>
+        <v>0.9171677532348705</v>
       </c>
       <c r="FF6">
-        <v>0.9285781493868166</v>
+        <v>0.9285930275313367</v>
       </c>
       <c r="FG6">
-        <v>0.9347861339755961</v>
+        <v>0.9348011339199643</v>
       </c>
       <c r="FH6">
-        <v>0.9351495325666467</v>
+        <v>0.9351639617407986</v>
       </c>
       <c r="FI6">
-        <v>0.9364518260062483</v>
+        <v>0.9364657956670747</v>
       </c>
       <c r="FJ6">
-        <v>0.9370017227629702</v>
+        <v>0.937015143753186</v>
       </c>
       <c r="FK6">
-        <v>0.9373196896026393</v>
+        <v>0.93733253443908</v>
       </c>
       <c r="FL6">
-        <v>0.9459743058658189</v>
+        <v>0.9459875624223617</v>
       </c>
       <c r="FM6">
-        <v>0.9519122360463863</v>
+        <v>0.9519255824019479</v>
       </c>
       <c r="FN6">
-        <v>0.9521168640326089</v>
+        <v>0.9521296208040008</v>
       </c>
       <c r="FO6">
-        <v>0.9521179341989414</v>
+        <v>0.9521300772650279</v>
       </c>
       <c r="FP6">
-        <v>0.9524505364490555</v>
+        <v>0.9524621050956297</v>
       </c>
       <c r="FQ6">
-        <v>0.9533766277772172</v>
+        <v>0.9533876923313764</v>
       </c>
       <c r="FR6">
-        <v>0.9535877851836383</v>
+        <v>0.9535982609273492</v>
       </c>
       <c r="FS6">
-        <v>0.9541221275998872</v>
+        <v>0.9541320528298338</v>
       </c>
       <c r="FT6">
-        <v>0.9575335947036271</v>
+        <v>0.9575433103525001</v>
       </c>
       <c r="FU6">
-        <v>0.96039138329053</v>
+        <v>0.9604008237486923</v>
       </c>
       <c r="FV6">
-        <v>0.9617813391327974</v>
+        <v>0.9617903304654282</v>
       </c>
       <c r="FW6">
-        <v>0.9624602607534428</v>
+        <v>0.962468718704614</v>
       </c>
       <c r="FX6">
-        <v>0.9630374003709932</v>
+        <v>0.9630453128797705</v>
       </c>
       <c r="FY6">
-        <v>0.9645839708180231</v>
+        <v>0.964591452759741</v>
       </c>
       <c r="FZ6">
-        <v>0.966006203461272</v>
+        <v>0.9660132401021854</v>
       </c>
       <c r="GA6">
-        <v>0.9661167537446337</v>
+        <v>0.966123189653385</v>
       </c>
       <c r="GB6">
-        <v>0.9665683209383654</v>
+        <v>0.9665741965246779</v>
       </c>
       <c r="GC6">
-        <v>0.9665683367863719</v>
+        <v>0.9665741965246779</v>
       </c>
       <c r="GD6">
-        <v>0.9665698375467175</v>
+        <v>0.9665750836307425</v>
       </c>
       <c r="GE6">
-        <v>0.9696158939393456</v>
+        <v>0.9696208871419639</v>
       </c>
       <c r="GF6">
-        <v>0.9705368987673525</v>
+        <v>0.9705413872748174</v>
       </c>
       <c r="GG6">
-        <v>0.9706567004809956</v>
+        <v>0.9706605893525716</v>
       </c>
       <c r="GH6">
-        <v>0.9708248133661078</v>
+        <v>0.9708281083265582</v>
       </c>
       <c r="GI6">
-        <v>0.9708343619323981</v>
+        <v>0.9708370441922141</v>
       </c>
       <c r="GJ6">
-        <v>0.9741652270336869</v>
+        <v>0.9741676901612765</v>
       </c>
       <c r="GK6">
-        <v>0.9755578583760356</v>
+        <v>0.9755598726951343</v>
       </c>
       <c r="GL6">
-        <v>0.9797187465025646</v>
+        <v>0.9797206400452658</v>
       </c>
       <c r="GM6">
-        <v>0.9939845069363743</v>
+        <v>0.9939874771069199</v>
       </c>
       <c r="GN6">
-        <v>0.9984723866728469</v>
+        <v>0.9984752748147524</v>
       </c>
       <c r="GO6">
-        <v>0.9985397520748954</v>
+        <v>0.9985420343673291</v>
       </c>
       <c r="GP6">
-        <v>0.9986081022969739</v>
+        <v>0.9986097788566347</v>
       </c>
       <c r="GQ6">
-        <v>0.998625865037514</v>
+        <v>0.9986269298699012</v>
       </c>
       <c r="GR6">
-        <v>0.9999953932791602</v>
+        <v>0.9999960065653919</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>106</v>
       </c>
       <c r="E2">
-        <v>0.002206706367022727</v>
+        <v>0.03442615025510735</v>
       </c>
       <c r="F2">
-        <v>0.5283171893647869</v>
+        <v>0.5283476478024626</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>106</v>
       </c>
       <c r="E3">
-        <v>0.002288395926035097</v>
+        <v>0.05814886829466283</v>
       </c>
       <c r="F3">
-        <v>0.5251163399998801</v>
+        <v>0.5251163097504838</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>101</v>
       </c>
       <c r="E4">
-        <v>0.001677512835338351</v>
+        <v>0.001409253008092072</v>
       </c>
       <c r="F4">
-        <v>0.534999158882741</v>
+        <v>0.5350718634778802</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>104</v>
       </c>
       <c r="E5">
-        <v>0.003259024035047482</v>
+        <v>0.003229822239057775</v>
       </c>
       <c r="F5">
-        <v>0.5031633759311942</v>
+        <v>0.5031622708480046</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>105</v>
       </c>
       <c r="E6">
-        <v>0.002515579334610175</v>
+        <v>0.002467169416875897</v>
       </c>
       <c r="F6">
-        <v>0.5235916101929212</v>
+        <v>0.523592872958009</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>56</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>119</v>
       </c>
       <c r="E2">
-        <v>0.002206706367022727</v>
+        <v>0.03442615025510735</v>
       </c>
       <c r="F2">
-        <v>0.7114620333808905</v>
+        <v>0.7115960543201704</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>120</v>
       </c>
       <c r="E3">
-        <v>0.002288395926035097</v>
+        <v>0.05814886829466283</v>
       </c>
       <c r="F3">
-        <v>0.7024128856988577</v>
+        <v>0.7024148020489267</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>114</v>
       </c>
       <c r="E4">
-        <v>0.001677512835338351</v>
+        <v>0.001409253008092072</v>
       </c>
       <c r="F4">
-        <v>0.7007472583666321</v>
+        <v>0.7008982564423015</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>119</v>
       </c>
       <c r="E5">
-        <v>0.003259024035047482</v>
+        <v>0.003229822239057775</v>
       </c>
       <c r="F5">
-        <v>0.7174297431562326</v>
+        <v>0.7174573115103092</v>
       </c>
       <c r="G5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>119</v>
       </c>
       <c r="E6">
-        <v>0.002515579334610175</v>
+        <v>0.002467169416875897</v>
       </c>
       <c r="F6">
-        <v>0.7085008981558553</v>
+        <v>0.7085154785987272</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>56</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>0.002206706367022727</v>
+        <v>0.03442615025510735</v>
       </c>
       <c r="F2">
-        <v>0.803959137484113</v>
+        <v>0.804096751586749</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>141</v>
       </c>
       <c r="E3">
-        <v>0.002288395926035097</v>
+        <v>0.05814886829466283</v>
       </c>
       <c r="F3">
-        <v>0.8042149155676714</v>
+        <v>0.8042167412811151</v>
       </c>
       <c r="G3">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>126</v>
       </c>
       <c r="E4">
-        <v>0.001677512835338351</v>
+        <v>0.001409253008092072</v>
       </c>
       <c r="F4">
-        <v>0.8018545140928639</v>
+        <v>0.8020337470387885</v>
       </c>
       <c r="G4">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>135</v>
       </c>
       <c r="E5">
-        <v>0.003259024035047482</v>
+        <v>0.003229822239057775</v>
       </c>
       <c r="F5">
-        <v>0.8009268698434784</v>
+        <v>0.8009544090161236</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>133</v>
       </c>
       <c r="E6">
-        <v>0.002515579334610175</v>
+        <v>0.002467169416875897</v>
       </c>
       <c r="F6">
-        <v>0.8056515788101246</v>
+        <v>0.8056690777366629</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>56</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>161</v>
       </c>
       <c r="E2">
-        <v>0.002206706367022727</v>
+        <v>0.03442615025510735</v>
       </c>
       <c r="F2">
-        <v>0.911049944469977</v>
+        <v>0.911164817958472</v>
       </c>
       <c r="G2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>161</v>
       </c>
       <c r="E3">
-        <v>0.002288395926035097</v>
+        <v>0.05814886829466283</v>
       </c>
       <c r="F3">
-        <v>0.9030513986161531</v>
+        <v>0.9030532563692502</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>156</v>
       </c>
       <c r="E4">
-        <v>0.001677512835338351</v>
+        <v>0.001409253008092072</v>
       </c>
       <c r="F4">
-        <v>0.911451515004211</v>
+        <v>0.9115798363984176</v>
       </c>
       <c r="G4">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5">
-        <v>0.003259024035047482</v>
+        <v>0.003229822239057775</v>
       </c>
       <c r="F5">
-        <v>0.9003567499964646</v>
+        <v>0.9003776936376836</v>
       </c>
       <c r="G5">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>157</v>
       </c>
       <c r="E6">
-        <v>0.002515579334610175</v>
+        <v>0.002467169416875897</v>
       </c>
       <c r="F6">
-        <v>0.9067184632220823</v>
+        <v>0.9067332063722917</v>
       </c>
       <c r="G6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6">
         <v>56</v>

--- a/on_trucks/Processed_Stand_Alone/56_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/56_11R22.xlsx
@@ -1994,13 +1994,13 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.138814334463635E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.089170115936215E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.619539645333606E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2012,43 +2012,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8.467932449917567E-06</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.872891434970442E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.912632933124023E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6.154329765930044E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.615796835630548E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>8.064180018030162E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>7.836983476456811E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8.381553522926939E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>7.391733306230998E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>5.979037552219008E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>4.07848125367296E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>2.002930418581611E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>5.972994425493677E-06</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -2060,46 +2060,46 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>2.027406708333638E-06</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>2.704691324681739E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>4.627910724729224E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>5.337048499395097E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>6.525377246399343E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>8.136379242369959E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>9.850240009632521E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>9.569342066950867E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0001013499614465794</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>8.631336094240591E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>5.818848400894473E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>3.009361101200011E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.255523111343711E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>7.739514223318496E-06</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -2111,37 +2111,37 @@
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>5.065302778301585E-06</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.192259101579602E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2.908923384139657E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.04739582505941E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.159170397809886E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>2.626001356842853E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>3.317851735299832E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>2.927011125545996E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>1.517642669564704E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>1.133998160064132E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>7.026789108497992E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -2159,34 +2159,34 @@
         <v>0</v>
       </c>
       <c r="BE2">
-        <v>1.459727144706672E-06</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>1.005210846835351E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>9.93195459367656E-06</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>7.739514223318496E-06</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>1.02938475504142E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1.02938475504142E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>1.524887715390949E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>5.315566797889338E-06</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>4.340268202202717E-06</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>2.498159023480141E-07</v>
+        <v>0</v>
       </c>
       <c r="BO2">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="BU2">
-        <v>3.566160434298277E-07</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>4.102008359644675E-06</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>6.919265493793474E-06</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>1.984434497120847E-06</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>3.456041903480236E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
         <v>0</v>
@@ -2240,358 +2240,358 @@
         <v>0</v>
       </c>
       <c r="CF2">
-        <v>1.459727144706672E-06</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>3.963486382518607E-06</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>7.739514223318496E-06</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>1.078304203697507E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>1.387823795855074E-05</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>1.414855565001294E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>1.873274396502326E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>9.353533528690937E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.03250274781232968</v>
+        <v>0.009335671113912229</v>
       </c>
       <c r="CO2">
-        <v>0.03365922159933862</v>
+        <v>0.01368916587037518</v>
       </c>
       <c r="CP2">
-        <v>0.1119519095328749</v>
+        <v>0.3084185494646149</v>
       </c>
       <c r="CQ2">
-        <v>0.0706704575776452</v>
+        <v>0.1530163374602362</v>
       </c>
       <c r="CR2">
-        <v>6.460259615696268E-05</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.005475655320518991</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.01254486762904819</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.0007692443045578296</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.0202698378104814</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.03348682808459182</v>
+        <v>0.01304019805897365</v>
       </c>
       <c r="CX2">
-        <v>0.01946270729526067</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.1222634005109971</v>
+        <v>0.3472357041713159</v>
       </c>
       <c r="CZ2">
         <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.002421745940637585</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.02768726413935839</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.0331937552058876</v>
+        <v>0.01193693808452994</v>
       </c>
       <c r="DD2">
-        <v>0.06220960471950043</v>
+        <v>0.1211658286403133</v>
       </c>
       <c r="DE2">
-        <v>0.01755257277848312</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.009774863491930628</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.008885020463498965</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0002314526093769793</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0001469675557624611</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.005143844072711378</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.01045954249315382</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.0002635616659603578</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.003061212845101662</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.02674784144754798</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.00286205921414334</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.03590986316053689</v>
+        <v>0.02216160713572878</v>
       </c>
       <c r="DQ2">
-        <v>0.01267660378793254</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.007332661369643737</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0010121217465398</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.007546985926175639</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.0001893588360733699</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.01252247127591483</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>5.263677984472446E-06</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.02102151469309976</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.006587163440218053</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>3.943862110456193E-07</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>9.476567084624828E-05</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.0008022266542601008</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.0001973953087932722</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.01439806463158854</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.003325647358766189</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.004788058502531074</v>
+        <v>0</v>
       </c>
       <c r="EG2">
         <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.003637213156135282</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.003343484066436261</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>1.159170397809886E-05</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.001354345489369901</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.003566772669347299</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.009341816784288318</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>1.203936479286385E-05</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.006013800484813181</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.00539370411615895</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>6.746720838320293E-05</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0004312982246384547</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>5.683967814249026E-05</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.01088201085134741</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.004158472598217244</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.002191094982674261</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.001855001948116234</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.001770105601548887</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.00184898985028175</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.0007441307214250953</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.007401563724284506</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.02068505541753655</v>
+        <v>0</v>
       </c>
       <c r="FC2">
         <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.007560403419136808</v>
+        <v>0</v>
       </c>
       <c r="FE2">
         <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.01474086431067003</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.002712027120004392</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.00202578846659678</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.0006085174525828877</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.0001795839547298178</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.003061212845101662</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.01280902608567738</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.004200400637206455</v>
+        <v>0</v>
       </c>
       <c r="FN2">
         <v>0</v>
       </c>
       <c r="FO2">
-        <v>7.641484948746995E-07</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.0003433835076814036</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.0009876598702080364</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0001121211104099726</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.001493143323344914</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.004971412022084009</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.001336198192511776</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.003966595942814781</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.001074071427580652</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.001217453429852036</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.002906855323578722</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.001561429003803407</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.0004358235981913317</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.000326873315122975</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>9.693073172369624E-06</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.000405886734125636</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.003871855230207024</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>4.739192138301635E-05</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0002246091474635237</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>4.907891213173788E-05</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.0002405592184955764</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.003355998318394209</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>1.724779033205846E-05</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.01207563623001914</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.01560578213136436</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.004182405482006673</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0001586025490470186</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>2.783644637720035E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0001915171556740485</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.001590885230349892</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0004498556934056103</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,22 +2767,22 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.263674079045709E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.595052351296847E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.221824687720212E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.542822208120323E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7.14262955435272E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.406674055243981E-06</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2791,142 +2791,142 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.324542251170677E-07</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.290165788517962E-06</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7.02640142877368E-06</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.285712943108121E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.404450977588355E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.354533740686482E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.675601536387627E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>4.79972097025909E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>5.144388273532003E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1.795597230867937E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1.166905633360981E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>2.691078007413286E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>4.524833143112685E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1.73508342419192E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>6.208108263834761E-06</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>3.274298410343396E-06</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>3.970964320964052E-07</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.461015237027163E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.464600277598277E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>3.740080191556922E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>3.775347436524019E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.565811016531549E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>6.491130102735908E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>8.769938777570906E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>6.491130102735908E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.497832561334179E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>7.278013493253122E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>7.107343372039296E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.36574325769396E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>3.18200698551855E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.599933152564822E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.76770814582465E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>2.347064153090643E-06</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>3.7655167937413E-06</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.481080978997214E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>3.855123195462467E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>6.364122280017852E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>7.438056420116902E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>7.738553915612719E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0001131365329700189</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>8.489291645098369E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>5.18572152943426E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>3.609125896665814E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>2.275466806718939E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>8.812805098509842E-06</v>
+        <v>0</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -2935,436 +2935,436 @@
         <v>0</v>
       </c>
       <c r="BF3">
-        <v>8.856587899209356E-06</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>1.520266695625289E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>3.954159706641398E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>3.918066846575459E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>2.422080087981466E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>1.634694788285341E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>2.850270218719185E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>5.300448827566179E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>9.02931405802398E-06</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>1.201745570513476E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>1.31422372751312E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>2.015649855188588E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>1.367001092705157E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>1.406674055243981E-06</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>1.014154676852698E-06</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>1.74006545230321E-06</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>7.324542251170677E-07</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>3.380568753814596E-06</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>1.996174899030744E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>5.238869238399141E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>4.290165788517962E-06</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>3.09320396148955E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>2.935238372616111E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>1.236890813249396E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>4.466981085114706E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>6.410078120457898E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>2.721020154995044E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>3.52322982579915E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>2.935238372616111E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>4.201915837603559E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>2.021989871134749E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>1.481080978997214E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>1.759165264600426E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0001342128684138746</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.05573429404225803</v>
+        <v>0.09650383820068192</v>
       </c>
       <c r="CO3">
-        <v>0.02094339478656798</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.09625859715039232</v>
+        <v>0.2484730445053151</v>
       </c>
       <c r="CQ3">
-        <v>0.05787396117247356</v>
+        <v>0.1045277520152467</v>
       </c>
       <c r="CR3">
-        <v>0.000516199614184456</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.000823077976373513</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.02363147594617494</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.001793620775652539</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.02277154021967719</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.03065771644200548</v>
+        <v>0.002464772690336858</v>
       </c>
       <c r="CX3">
-        <v>0.01491023045210642</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.1462226508926114</v>
+        <v>0.4358420307333092</v>
       </c>
       <c r="CZ3">
-        <v>0.001928703346041517</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.0003617882903113879</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.01946931282856881</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.0288051715626794</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.05991680253194015</v>
+        <v>0.1121885618551104</v>
       </c>
       <c r="DE3">
-        <v>0.006553059616232361</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.007749818802554882</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.00465145983979071</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.004600652210621191</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.0003086924492950679</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.0006087991076432589</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.02184470226967209</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.001238318120281976</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.005105888150372055</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.01087882072571727</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.003815030043169214</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.02565612997303175</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.02437031845812095</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.0008787982753859001</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.002088981177201224</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0042238420195194</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.0001360537220793918</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.008584273763060592</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.0003447715791099081</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.01851126130773019</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.01336335916293653</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>9.105771826283042E-07</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.004986475966562984</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.0005680390122229566</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.003687474710438299</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.0123264441998439</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.01138808103906585</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.002649496027892374</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.002267979450720232</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.003608502766200009</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.003539797509718822</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0002839653670863842</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.002680643297513394</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.005682788300717436</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.01591410781100761</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.0006825075156220402</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.004860500662727625</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.003220036661934971</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>4.671284821419818E-05</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.0002474514593203282</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.0002130288998008323</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.008705843986335872</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.004017300242285014</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.0006302531299942497</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0009376710220502249</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.004437474926436311</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.003645721546856774</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.0002090588171959931</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.007420768184879793</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.02042069222738772</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>8.12630851386574E-07</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.007065053179566592</v>
+        <v>0</v>
       </c>
       <c r="FE3">
         <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.01616151933566761</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.002557858252021455</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.002043935253401726</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.001756098389443438</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>4.505507489685287E-05</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.002507986839973466</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.009247476891714157</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.004473913592826353</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>2.327501865335679E-07</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.001031403136222386</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.002382252340541937</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.00119522443218495</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.0001074023781038401</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0006378571390563073</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.005401569857796779</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.001382317853747961</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.005474644194179664</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.002471416971183996</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.001091303231674858</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.002623664355482954</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.001401064396584588</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>2.904140503898535E-05</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>1.186695095270503E-05</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>1.404450977588355E-05</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.001266789540967092</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.004023658058556707</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>7.455065568180066E-06</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0004514602602316635</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0002389373836149792</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>1.137531196161506E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.002212890243249243</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>1.166905633360981E-05</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.01350655378167859</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0195094225620953</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.003995477543191665</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>2.752228632735437E-07</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>6.525689734762185E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0009088620951927986</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.002482856580391478</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.0003661738305141123</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3543,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.574690140552735E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>4.691990867891783E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2.069482859554875E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3558,10 +3558,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.919350291797338E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4.441580827668865E-06</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3570,13 +3570,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.452683772549678E-07</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.214859074404638E-06</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -3585,28 +3585,28 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.116541063504045E-06</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>3.799784403500959E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>3.131682573135543E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1.239586031871944E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>2.328079141465847E-06</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>7.250251996796931E-07</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1.109707198506667E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>4.618777585218302E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>4.865378695582647E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>9.780338434406717E-07</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -3660,52 +3660,52 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.839448197042713E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>5.796856560946664E-06</v>
+        <v>0</v>
       </c>
       <c r="AR4">
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>8.457991123445961E-06</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>1.1309994537021E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>2.578841580512425E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>5.551474784541039E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>1.991874850284712E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>1.109707198506667E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>2.895753812604588E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1.397557386855146E-05</v>
+        <v>0</v>
       </c>
       <c r="BA4">
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>9.444688813569435E-06</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>5.283466221297071E-06</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>3.267969140067194E-06</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>7.211627244162175E-06</v>
+        <v>0</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -3714,37 +3714,37 @@
         <v>0</v>
       </c>
       <c r="BH4">
-        <v>3.257840050902601E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>5.735154039053973E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>3.274129163582854E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>5.904141335225753E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>5.840506374682896E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>3.658548139374162E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>3.306812878395259E-05</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>4.169954796920673E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>1.338299037547689E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>1.066814626889099E-07</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>0</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="BU4">
-        <v>8.264902389976363E-06</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>2.045084570535679E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>3.277064652789884E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>4.227846387257413E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>4.393629166094358E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>4.849742236332978E-05</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0001031058987176275</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>9.550369227398858E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>4.011265232917708E-05</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>3.392122918757376E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>3.834676691117031E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>3.309761378635256E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>2.085364126394056E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
         <v>0</v>
@@ -3801,343 +3801,343 @@
         <v>0</v>
       </c>
       <c r="CK4">
-        <v>1.02409640311328E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>3.422322326952089E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>5.485924700030351E-05</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1689534142289065</v>
+        <v>0.3417955041745283</v>
       </c>
       <c r="CO4">
-        <v>0.01188977095808164</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.1848243523096088</v>
+        <v>0.380840403064668</v>
       </c>
       <c r="CQ4">
-        <v>0.01587855933129473</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.01053952849286458</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.01209037106096779</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.002762984716382872</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.0004517203133121595</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.0395355017107185</v>
+        <v>0.02340794049360309</v>
       </c>
       <c r="CW4">
-        <v>8.998425695795835E-05</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.08659156384369222</v>
+        <v>0.139172943091912</v>
       </c>
       <c r="CY4">
-        <v>0.01291172754669624</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.002153890622813001</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.02155316622818345</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.001076112899546145</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.07094781441216801</v>
+        <v>0.1006869625083674</v>
       </c>
       <c r="DD4">
-        <v>0.003175194958336491</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.02124167809556538</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.001971419492753462</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.006757706621053133</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.001138970000487329</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.002915092699402056</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.01849747609436308</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.001486143293053493</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.005242435216232248</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.01050179199344199</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.01928031591911527</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.004340273209839635</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.0357504921358302</v>
+        <v>0.01409624666692129</v>
       </c>
       <c r="DQ4">
-        <v>2.682743686389904E-05</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.004667581257272208</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.003348316059851537</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.001527345731488686</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.004453597305282401</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.0006863678774268828</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.01131014645384191</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.01414681586464132</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.004187259158501623</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.001676665049803626</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.0004556068289611621</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.0004647893854943997</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.005926964176312234</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.009449248468020003</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.0005384078417429507</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.000824033443708728</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.003441703949988609</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.004586073040742968</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.004478511431716293</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>3.805738152101664E-06</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0001880653117582657</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.009883704874055255</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.003323979022772153</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.002238796520474198</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.007441307794397722</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.001340678243042773</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.0002462252296287251</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.0003153633466836726</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.003362200833724408</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.01039789289011057</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.0002022974101519403</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.00239155675658449</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>4.730341988494753E-05</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.0007601837010370522</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.0002159196614134909</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.001044841582404712</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.01596588838371867</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.006322823353051704</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.004512112924777196</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.0034916018619252</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.003433896129190148</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.008069949864066533</v>
+        <v>0</v>
       </c>
       <c r="FG4">
         <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.0005254595619890764</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.0001717913219017151</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.0001426267412097672</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.007496528620005868</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.006869391826766436</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.001145279350627499</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>1.129077523963177E-05</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>9.050319199934914E-05</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.001753013090658265</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0005750966527571193</v>
+        <v>0</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.001368152140085564</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.00272669944756041</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.0001452819927836681</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.001003015515150937</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0008488741378742537</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.001512982451857246</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.00227827599788999</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.0006321963716105289</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.0005109614680391274</v>
+        <v>0</v>
       </c>
       <c r="GB4">
         <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.0001115075430606893</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.0007096510108274753</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.001476908662362928</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>4.826838814916789E-05</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.00020498715097169</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0002864366777337646</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.001263882222314602</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.001297278541394107</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.001928844690594886</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.01331101412977375</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.006790181658913725</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.001480824482861566</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0003534953014405623</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>3.257840050902601E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0007699165942393214</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0002847042086518112</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.002431879148766788</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4322,151 +4322,151 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.201275105213711E-06</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.012430945993443E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>5.080837530196018E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>5.317421853375241E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>7.109230064346808E-06</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.479649020253612E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>9.354650775008573E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0001486627081739233</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.760973515782678E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>3.343160251740573E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>3.087856678492031E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.68413448647644E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.352014597293359E-06</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>3.743685279101892E-06</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>8.336221479694671E-06</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2.966870058327389E-07</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>2.999499233619468E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>5.463445166693486E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1.887437070232033E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>4.475784554077157E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>8.531089990152028E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>8.01758963313999E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>4.297636962008302E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>6.741425341507331E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>8.779816475526968E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0001178088835099971</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>2.302854030035769E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>6.829953132325687E-06</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>2.302854030035769E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>2.853112243559456E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>9.940939601583587E-06</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1.445392401544235E-06</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>2.419399433030619E-06</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>4.64381501126433E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>6.652044480677187E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>7.946687671661212E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>9.268691636217996E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0001321653969702118</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.00016726955452421</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0001338746676544092</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>9.325953719458364E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>6.798474379791712E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>7.451125499900984E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>8.540146301182448E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>1.209707258106709E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>4.34621532284057E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>2.425156937958753E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>7.97693916522338E-06</v>
+        <v>0</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -4478,43 +4478,43 @@
         <v>0</v>
       </c>
       <c r="BE5">
-        <v>1.132265366595246E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>2.405426474506798E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>1.111541643549196E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>3.584364449789298E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>7.96445142010399E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>5.844385551373427E-05</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>3.166290229259891E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>3.33743804426078E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>1.607718645048602E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>4.39617245461616E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>2.555662076687199E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
         <v>0</v>
       </c>
       <c r="BQ5">
-        <v>1.336774681420721E-06</v>
+        <v>0</v>
       </c>
       <c r="BR5">
         <v>0</v>
@@ -4526,391 +4526,391 @@
         <v>0</v>
       </c>
       <c r="BU5">
-        <v>3.883175703873319E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>4.382905655103492E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>2.425156937958753E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>6.082011194288225E-05</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>5.426703313558813E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1.177729010170999E-05</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>2.826337593668426E-05</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>5.230781570852147E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>2.530269918524638E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1.836331096031816E-06</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>5.05708172733131E-06</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>1.444533810367389E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
         <v>0</v>
       </c>
       <c r="CH5">
-        <v>2.346552351099469E-05</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>4.461900134236452E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>3.722263958851372E-06</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>2.245199563996184E-05</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>3.620336740533663E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0018551979851554</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1378604478274112</v>
+        <v>0.3239806602036818</v>
       </c>
       <c r="CO5">
-        <v>0.001210274295660949</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.1081634212668907</v>
+        <v>0.2347753132370233</v>
       </c>
       <c r="CQ5">
-        <v>0.02242844877908732</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.000329446026424308</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.002142352379450486</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.02060024399784144</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.0004688743780972909</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.0509400832023911</v>
+        <v>0.06288511688247561</v>
       </c>
       <c r="CW5">
-        <v>0.01034356216946042</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.07225695441244837</v>
+        <v>0.1269177528994669</v>
       </c>
       <c r="CY5">
-        <v>0.06153850864428936</v>
+        <v>0.09472117349636121</v>
       </c>
       <c r="CZ5">
-        <v>0.0001310330580280909</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.009663600186310333</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.003865058398724269</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.06678891556641306</v>
+        <v>0.1104925966134095</v>
       </c>
       <c r="DD5">
-        <v>0.02574806627291917</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.02310396732459906</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.0001400025807447516</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.009892244434003177</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0001913097674041036</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>1.275042054822255E-07</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.011528566724891</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.01071002899998263</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.003122701549232251</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>2.122626699107845E-05</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.01322547179974161</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.000562734454115433</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0453946190183374</v>
+        <v>0.04622738666758171</v>
       </c>
       <c r="DQ5">
-        <v>0.005789570702439704</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.00440649385050027</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.0005154076673858635</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.004919706746853385</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.002088480711643478</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.005631915934693474</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.00206516179096809</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.02216252966578542</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.004540106044868503</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.001175594877733991</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.001185742419031927</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.002527224193726665</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.000280591137240014</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.02055506146358438</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.001608366399635462</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.004045143899723748</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.0005827666312339298</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.00421269955672028</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.002527714097104327</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.0002063326874870646</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>5.375642138812016E-05</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.013498453403345</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.01073142451478778</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0008143874070231044</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.005377137672294153</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.001219197978704686</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0001492665956040928</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.0003041873964383867</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.001674967653594292</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.01136959117843877</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.001515791964908755</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.0008214243919425386</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>6.09932245724913E-06</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.003938824164512807</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.001763107852624414</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.001329150980594591</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.01647242696062738</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.01114823346832507</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.00252129064164969</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.003896323696215722</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.003288727983537671</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.01509317891662933</v>
+        <v>0</v>
       </c>
       <c r="FG5">
         <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.001780508524452059</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>2.37590224440917E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
         <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.005773858086819655</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.007108321980626223</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.002011838338843598</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0001512020940260597</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.001072643053207538</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.002060240352463708</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.0005042849203034846</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>1.336774681420721E-06</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.001916319682837828</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.005934224226709955</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>8.928780909469988E-05</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.004019516892004073</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.001128484936762439</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0009460319361816502</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.002844321406448394</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0005678840407628224</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>2.858417563069038E-05</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>1.429864924991569E-06</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.0001044704128735444</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.001714265646116373</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.00195050419633182</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0001168451741514889</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.0001001688551741961</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0003629939555885474</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0004950371688759948</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.001866661704188463</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0008347438525675666</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.02040159207902276</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.01202725495630118</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.001630551781115456</v>
+        <v>0</v>
       </c>
       <c r="GO5">
         <v>0</v>
       </c>
       <c r="GP5">
-        <v>6.677284016633953E-07</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.001324847972589204</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.0011735705505677</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.002460873292596395</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,31 +5086,31 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>4.788333947977541E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3.900635343196865E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3.238525173821362E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2.82644083602648E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>4.956285452595068E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3.022405260569352E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.653028707555597E-06</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.361225387370182E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>8.211218775013012E-06</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -5119,103 +5119,103 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.398108353674605E-06</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.388957374000977E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>4.397872272772554E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.852972280376115E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>6.213135407007166E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>5.730330587839719E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>4.974256982474341E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>9.539231596226578E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0001132576532562229</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>8.359547187017835E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>3.036497330678033E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>6.213135407007166E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>4.624223398567274E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>7.656210998778763E-06</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>4.564610270572443E-07</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>4.903914812937054E-06</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>2.982698154718358E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.595633868074881E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>3.307563255805917E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0001044872338380619</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>9.702519948194873E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>2.562896802348617E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>2.129232907072401E-05</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>5.109886656499953E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>8.512518316250001E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>6.005394786819337E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.153003510146621E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.136395141821181E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>8.935865655869147E-06</v>
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>3.363440915095125E-07</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -5224,466 +5224,466 @@
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>2.478573308827625E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>3.392195585928395E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>4.740014088393989E-06</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>1.786351270771803E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>3.946827117572364E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>4.286798108920563E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>2.418674910024185E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>2.008506099246219E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>3.5772920224617E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>8.033619159958584E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>1.901145675524711E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
         <v>0</v>
       </c>
       <c r="BH6">
-        <v>4.85124257053487E-06</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>1.901145675524711E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
         <v>0</v>
       </c>
       <c r="BK6">
-        <v>1.289988444789694E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>8.579537095918809E-07</v>
+        <v>0</v>
       </c>
       <c r="BM6">
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>5.421013496410171E-06</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>2.982698154718358E-05</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>1.86886454975689E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>3.349329005635203E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>5.248365068141074E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>5.931124284719344E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>4.067928669811034E-05</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>2.538454705616086E-05</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>1.425058652510673E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>1.471511457822012E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>3.252275503428983E-05</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>9.603631165482083E-08</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>6.464752794209532E-06</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>1.294081996933248E-06</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>7.863793600239148E-06</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>3.708266544786305E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>1.398078054930058E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>1.434846962563203E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>4.318390853105475E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>4.88977206982291E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>2.712705256759297E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>1.104010903833111E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>2.03032128465278E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>1.128628521367327E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>2.249464223175839E-06</v>
+        <v>0</v>
       </c>
       <c r="CM6">
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.01075068584823891</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.08053114031438283</v>
+        <v>0.144704450552476</v>
       </c>
       <c r="CP6">
-        <v>0.06371522739198628</v>
+        <v>0.09654644219733939</v>
       </c>
       <c r="CQ6">
-        <v>0.1534243691881121</v>
+        <v>0.3534586669505979</v>
       </c>
       <c r="CR6">
-        <v>0.0025059152268598</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.00909883458061082</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.005168644397749415</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.002733606211446647</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.009593370190042047</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.02888160911787283</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.0003888043194149946</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.1225114415710326</v>
+        <v>0.2649291274997664</v>
       </c>
       <c r="CZ6">
-        <v>0.003649941810114217</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.0001453575675479325</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.02802675580572169</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.006461227487041007</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.0789036774371223</v>
+        <v>0.1400436645932195</v>
       </c>
       <c r="DE6">
-        <v>0.001619458069208085</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.01506897012571368</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.001801328923464485</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.003488425568165905</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.0009190927960642739</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.0007512780776578386</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.01767985055179716</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0001271667216766268</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0108800006738661</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.0156466255860173</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.01206007252899264</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.01951543109393062</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.03011385815673013</v>
+        <v>0.0003176482066008161</v>
       </c>
       <c r="DR6">
-        <v>0.001841133140824561</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.005417309568072523</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.005279259507196998</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.0009010529280859738</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.01060475005279284</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.0004535512528380387</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.01750243652573765</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.01046010891078141</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.0002597222613740467</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.0001589313162282269</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.0002935495303816058</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.0008903147154566168</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.01297762127143482</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.008458034636797028</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.002197652993445776</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.001237073951307346</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.004734505346160487</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.004597298085168612</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0004762499829570846</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0009003350430064863</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.001118851340263735</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.009307450304510759</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.0005628887908754253</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.006827765927005854</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.009266107404795164</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0006871771807992214</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>5.31961674946831E-07</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>3.363440915095125E-07</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.00572076123136627</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.007618037085262643</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>8.211218775013012E-06</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.003175169242881693</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.001646518976306509</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.002276832177293657</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>6.022726407860406E-06</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.004341530073058767</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.02589878661141704</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.002435780514909157</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.006717561366214065</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.001281204981455645</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.01142527429646611</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.006208106388627695</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.0003628278208342452</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.001301833926275997</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.0005493480861113001</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0003173906858941426</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.008655027983281634</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.005938019979586255</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.0002040384020528632</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>4.564610270572443E-07</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0003320278306018355</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0009255872357467976</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0002105685959727674</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.0005337919024845582</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.003411257522666229</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.002857513396192264</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.001389506716735824</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0006783882391859195</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.0005765941751563914</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.001546139879970571</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.001421787342444381</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0001099495511995615</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0004510068712930087</v>
+        <v>0</v>
       </c>
       <c r="GC6">
         <v>0</v>
       </c>
       <c r="GD6">
-        <v>8.871060645563176E-07</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.003045803511221429</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0009205001328534943</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0001192020777542048</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0001675189739865585</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>8.935865655869147E-06</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.00333064596906237</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.00139218253385782</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.004160767350131528</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.01426683706165407</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.004487797707832477</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>6.67595525767452E-05</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>6.774448930561238E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>1.715101326650449E-05</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.001369076695490716</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>3.993434608216093E-06</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.138814334463635E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5.22798445039985E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.389938414933211E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5.389938414933211E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.389938414933211E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5.389938414933211E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.236731659924967E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>9.109623094895409E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001302225602801943</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0001917658579394948</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0002579238262958002</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0003385656264761019</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.00041693546124067</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0005007509964699394</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0005746683295322494</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0006344587050544395</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0006752435175911691</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0006952728217769853</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0007012458162024789</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0007012458162024789</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0007012458162024789</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0007012458162024789</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0007032732229108126</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.00073032013615763</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0007765992434049222</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0008299697283988732</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0008952235008628666</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0009765872932865662</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.001075089693382891</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0011707831140524</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.00127213307549898</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.001358446436441386</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.00141663492045033</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.00144672853146233</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.001459283762575767</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.001467023276799086</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.001467023276799086</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.001467023276799086</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.001467023276799086</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.001472088579577387</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.001494011170593183</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.00152310040443458</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.001533574362685174</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.001545166066663273</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.001571426080231701</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0016046045975847</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.00163387470884016</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.001649051135535807</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.001660391117136448</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.001667417906244946</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.001667417906244946</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.001667417906244946</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.001667417906244946</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.001667417906244946</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.001667417906244946</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.001668877633389653</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.001678929741858006</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.001688861696451683</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.001696601210675001</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.001706895058225416</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.00171718890577583</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.001732437782929739</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.001737753349727628</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.001742093617929831</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.001742343433832179</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.001742343433832179</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.001742343433832179</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.001742343433832179</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.001742343433832179</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.001742343433832179</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.001742343433832179</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.001742700049875609</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.001746802058235254</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.001753721323729047</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.001755705758226168</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.001759161800129648</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.001759161800129648</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.001759161800129648</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.001759161800129648</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.001759161800129648</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.001759161800129648</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.001759161800129648</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.001760621527274355</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.001764585013656873</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.001772324527880192</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.001783107569917167</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.001796985807875718</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.001811134363525731</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.001829867107490754</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.001923402442777663</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.03442615025510735</v>
+        <v>0.009335671113912229</v>
       </c>
       <c r="CO2">
-        <v>0.06808537185444596</v>
+        <v>0.02302483698428741</v>
       </c>
       <c r="CP2">
-        <v>0.1800372813873208</v>
+        <v>0.3314433864489024</v>
       </c>
       <c r="CQ2">
-        <v>0.250707738964966</v>
+        <v>0.4844597239091386</v>
       </c>
       <c r="CR2">
-        <v>0.250772341561123</v>
+        <v>0.4844597239091386</v>
       </c>
       <c r="CS2">
-        <v>0.256247996881642</v>
+        <v>0.4844597239091386</v>
       </c>
       <c r="CT2">
-        <v>0.2687928645106901</v>
+        <v>0.4844597239091386</v>
       </c>
       <c r="CU2">
-        <v>0.2695621088152479</v>
+        <v>0.4844597239091386</v>
       </c>
       <c r="CV2">
-        <v>0.2898319466257294</v>
+        <v>0.4844597239091386</v>
       </c>
       <c r="CW2">
-        <v>0.3233187747103212</v>
+        <v>0.4974999219681123</v>
       </c>
       <c r="CX2">
-        <v>0.3427814820055818</v>
+        <v>0.4974999219681123</v>
       </c>
       <c r="CY2">
-        <v>0.4650448825165789</v>
+        <v>0.8447356261394281</v>
       </c>
       <c r="CZ2">
-        <v>0.4650448825165789</v>
+        <v>0.8447356261394281</v>
       </c>
       <c r="DA2">
-        <v>0.4674666284572165</v>
+        <v>0.8447356261394281</v>
       </c>
       <c r="DB2">
-        <v>0.4951538925965749</v>
+        <v>0.8447356261394281</v>
       </c>
       <c r="DC2">
-        <v>0.5283476478024626</v>
+        <v>0.856672564223958</v>
       </c>
       <c r="DD2">
-        <v>0.590557252521963</v>
+        <v>0.9778383928642712</v>
       </c>
       <c r="DE2">
-        <v>0.6081098253004461</v>
+        <v>0.9778383928642712</v>
       </c>
       <c r="DF2">
-        <v>0.6178846887923767</v>
+        <v>0.9778383928642712</v>
       </c>
       <c r="DG2">
-        <v>0.6267697092558756</v>
+        <v>0.9778383928642712</v>
       </c>
       <c r="DH2">
-        <v>0.6270011618652526</v>
+        <v>0.9778383928642712</v>
       </c>
       <c r="DI2">
-        <v>0.6271481294210151</v>
+        <v>0.9778383928642712</v>
       </c>
       <c r="DJ2">
-        <v>0.6322919734937265</v>
+        <v>0.9778383928642712</v>
       </c>
       <c r="DK2">
-        <v>0.6427515159868803</v>
+        <v>0.9778383928642712</v>
       </c>
       <c r="DL2">
-        <v>0.6430150776528406</v>
+        <v>0.9778383928642712</v>
       </c>
       <c r="DM2">
-        <v>0.6460762904979422</v>
+        <v>0.9778383928642712</v>
       </c>
       <c r="DN2">
-        <v>0.6728241319454902</v>
+        <v>0.9778383928642712</v>
       </c>
       <c r="DO2">
-        <v>0.6756861911596335</v>
+        <v>0.9778383928642712</v>
       </c>
       <c r="DP2">
-        <v>0.7115960543201704</v>
+        <v>1</v>
       </c>
       <c r="DQ2">
-        <v>0.7242726581081029</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0.7316053194777467</v>
+        <v>1</v>
       </c>
       <c r="DS2">
-        <v>0.7326174412242864</v>
+        <v>1</v>
       </c>
       <c r="DT2">
-        <v>0.740164427150462</v>
+        <v>1</v>
       </c>
       <c r="DU2">
-        <v>0.7403537859865355</v>
+        <v>1</v>
       </c>
       <c r="DV2">
-        <v>0.7528762572624503</v>
+        <v>1</v>
       </c>
       <c r="DW2">
-        <v>0.7528815209404348</v>
+        <v>1</v>
       </c>
       <c r="DX2">
-        <v>0.7739030356335346</v>
+        <v>1</v>
       </c>
       <c r="DY2">
-        <v>0.7804901990737526</v>
+        <v>1</v>
       </c>
       <c r="DZ2">
-        <v>0.7804905934599636</v>
+        <v>1</v>
       </c>
       <c r="EA2">
-        <v>0.7805853591308098</v>
+        <v>1</v>
       </c>
       <c r="EB2">
-        <v>0.7813875857850699</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>0.7815849810938632</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.7959830457254518</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.7993086930842179</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.804096751586749</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.804096751586749</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.8077339647428843</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.8110774488093205</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.8110890405132987</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.8124433860026685</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.8160101586720159</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.8253519754563042</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.8253640148210971</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.8313778153059103</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.8367715194220692</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.8368389866304524</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.8372702848550909</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.8373271245332334</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.8482091353845809</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.8523676079827981</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.8545587029654723</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.8564137049135886</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.8581838105151375</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.8600328003654192</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.8607769310868443</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8681784948111287</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8888635502286653</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8888635502286653</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.896423953647802</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.896423953647802</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.911164817958472</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.9138768450784764</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.9159026335450732</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.916511150997656</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.9166907349523858</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.9197519477974875</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9325609738831648</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9367613745203713</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9367613745203713</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9367621386688663</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9371055221765476</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9380931820467556</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9382053031571655</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9396984464805105</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9446698585025944</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9460060566951062</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.949972652637921</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9510467240655016</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9522641774953536</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9551710328189323</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9567324618227357</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9571682854209271</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9574951587360501</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9575048518092224</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9579107385433481</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9617825937735551</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9618299856949382</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9620545948424016</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9621036737545333</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9623442329730288</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.965700231291423</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9657174790817551</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9777931153117743</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9933988974431386</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9975813029251452</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9977399054741922</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9977677419205694</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9979592590762434</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9995501443065933</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.263674079045709E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.858726430342557E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>7.080551118062769E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8.623373326183092E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>9.337636281618364E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>9.478303687142763E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>9.478303687142763E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>9.478303687142763E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>9.551549109654469E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9.551549109654469E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>9.980565688506266E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0001068320583138363</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0001081177712569445</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.000122162281032828</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0001557076184396928</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0001724636338035691</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.00022046084350616</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.00027190472624148</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0002898606985501594</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0003015297548837692</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0003284405349579021</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0003736888663890289</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0003910397006309482</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0003972478088947829</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0004005221073051263</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0004009192037372227</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0004033802189742499</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0004180262217502327</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0004554270236658019</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.000493180498031042</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0005188386081963575</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0005837499092237166</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0006714492969994257</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0007363605980267847</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0007713389236401265</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0008441190585726577</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0009151924922930507</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0009388499248699903</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0009706699947251759</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.000986669326250824</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0009894370343966486</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0009917840985497392</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0009955496153434805</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.001010360425133453</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.001048911657088077</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.001112552879888256</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.001186933444089425</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.001264318983245552</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.001377455516215571</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.001462348432666555</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.001514205647960897</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.001550296906927555</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.001573051574994745</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.001581864380093254</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.001581864380093254</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.001581864380093254</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.001590720967992464</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.001605923634948717</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.001645465232015131</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.001684645900480885</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0017088667013607</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.001725213649243553</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.001753716351430745</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.001806720839706407</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.001815750153764431</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.001827767609469566</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.001840909846744697</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.001861066345296583</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.001874736356223634</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.001876143030278878</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.001877157184955731</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.001878897250408034</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.001879629704633151</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.001883010273386965</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.001902972022377273</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.001908210891615672</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.00191250105740419</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.001943433097019086</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.001972785480745247</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.001985154388877741</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.002029824199728888</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.002093924980933467</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.002121135182483417</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.002156367480741409</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.00218571986446757</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.002227739022843606</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.002247958921554953</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.002262769731344926</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.00228036138399093</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.002414574252404805</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.05814886829466283</v>
+        <v>0.09650383820068192</v>
       </c>
       <c r="CO3">
-        <v>0.07909226308123081</v>
+        <v>0.09650383820068192</v>
       </c>
       <c r="CP3">
-        <v>0.1753508602316231</v>
+        <v>0.344976882705997</v>
       </c>
       <c r="CQ3">
-        <v>0.2332248214040967</v>
+        <v>0.4495046347212437</v>
       </c>
       <c r="CR3">
-        <v>0.2337410210182811</v>
+        <v>0.4495046347212437</v>
       </c>
       <c r="CS3">
-        <v>0.2345640989946547</v>
+        <v>0.4495046347212437</v>
       </c>
       <c r="CT3">
-        <v>0.2581955749408296</v>
+        <v>0.4495046347212437</v>
       </c>
       <c r="CU3">
-        <v>0.2599891957164822</v>
+        <v>0.4495046347212437</v>
       </c>
       <c r="CV3">
-        <v>0.2827607359361594</v>
+        <v>0.4495046347212437</v>
       </c>
       <c r="CW3">
-        <v>0.3134184523781648</v>
+        <v>0.4519694074115805</v>
       </c>
       <c r="CX3">
-        <v>0.3283286828302713</v>
+        <v>0.4519694074115805</v>
       </c>
       <c r="CY3">
-        <v>0.4745513337228827</v>
+        <v>0.8878114381448897</v>
       </c>
       <c r="CZ3">
-        <v>0.4764800370689242</v>
+        <v>0.8878114381448897</v>
       </c>
       <c r="DA3">
-        <v>0.4768418253592356</v>
+        <v>0.8878114381448897</v>
       </c>
       <c r="DB3">
-        <v>0.4963111381878045</v>
+        <v>0.8878114381448897</v>
       </c>
       <c r="DC3">
-        <v>0.5251163097504838</v>
+        <v>0.8878114381448897</v>
       </c>
       <c r="DD3">
-        <v>0.5850331122824239</v>
+        <v>1</v>
       </c>
       <c r="DE3">
-        <v>0.5915861718986563</v>
+        <v>1</v>
       </c>
       <c r="DF3">
-        <v>0.5993359907012111</v>
+        <v>1</v>
       </c>
       <c r="DG3">
-        <v>0.6039874505410019</v>
+        <v>1</v>
       </c>
       <c r="DH3">
-        <v>0.6085881027516231</v>
+        <v>1</v>
       </c>
       <c r="DI3">
-        <v>0.6088967952009182</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>0.6095055943085614</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.6313502965782335</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.6325886146985155</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.6376945028488875</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.6485733235746047</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.6523883536177739</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.6780444835908057</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.7024148020489267</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.7032936003243127</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.7053825815015139</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.7096064235210333</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.7097424772431127</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.7183267510061733</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.7186715225852832</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.7371827838930134</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.7505461430559499</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.7505470536331326</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.7555335295996956</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.7561015686119185</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.7597890433223567</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.7721154875222006</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.7835035685612665</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.7861530645891588</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.788421044039879</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.7920295468060791</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.7955693443157978</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.7958533096828843</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.7985339529803976</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.8042167412811151</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.8201308490921226</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.8208133566077447</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.8256738572704723</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.8288938939324072</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.8289406067806214</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.8291880582399418</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.8294010871397426</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.8381069311260785</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.8421242313683635</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.8427544844983577</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8436921555204079</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.8481296304468442</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.851775351993701</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.851984410810897</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8594051789957768</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8798258712231646</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.879826683854016</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8868917370335826</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8868917370335826</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.9030532563692502</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.9056111146212716</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.9076550498746734</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.9094111482641168</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.9094562033390137</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9119641901789871</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9212116670707012</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9256855806635276</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9256858134137141</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9267172165499366</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9290994688904785</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9302946933226635</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9304020957007673</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9310399528398235</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9364415226976204</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9378238405513684</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.943298484745548</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.945769901716732</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9468612049484069</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9494848693038899</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9508859337004745</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9509149751055135</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9509268420564662</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9509408865662421</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9522076761072091</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9562313341657659</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9562387892313341</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9566902494915658</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9569291868751808</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9569405621871424</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9591534524303916</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9591651214867253</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9726716752684039</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9921810978304992</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9961765753736909</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9961768505965541</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9962421074939017</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9971509695890945</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.999633826169486</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8194,598 +8194,598 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.574690140552735E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>5.349459881947056E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>7.418942741501932E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>7.418942741501932E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7.418942741501932E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001133829303329927</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001178245111606616</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001178245111606616</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0001178245111606616</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0001181697795379165</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0001181697795379165</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0001223846386123212</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0001223846386123212</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0001223846386123212</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0001245011796758252</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0001624990237108348</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001938158494421902</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0002062117097609096</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0002085397889023755</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0002092648141020552</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0002203618860871219</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0002249806636723402</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0002249806636723402</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0002249806636723402</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0002298460423679228</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0002298460423679228</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0002298460423679228</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0002298460423679228</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0002298460423679228</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0002298460423679228</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0002298460423679228</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0002298460423679228</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0002298460423679228</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0002298460423679228</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0002298460423679228</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0002298460423679228</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0002308240762113635</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0002308240762113635</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0002308240762113635</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0002326635244084062</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0002384603809693528</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0002384603809693528</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0002469183720927988</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0002582283666298198</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0002840167824349441</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0003395315302803545</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0003594502787832016</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0003705473507682683</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0003995048888943141</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0004134804627628656</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0004134804627628656</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.000422925151576435</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0004282086177977321</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0004314765869377993</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0004386882141819615</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0004386882141819615</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0004386882141819615</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0004712666146909875</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0005286181550815272</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0005613594467173557</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0006204008600696132</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0006788059238164422</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0007153914052101838</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0007484595339941364</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0007901590819633431</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.00080354207233882</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.00080354207233882</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.000803648753801509</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.000803648753801509</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.000803648753801509</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0008119136561914853</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0008323645018968421</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0008651351484247409</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.000907413612297315</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0009513499039582586</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0009998473263215883</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.001102953225039216</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.001198456917313204</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.001238569569642382</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.001272490798829955</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.001310837565741126</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.001343935179527478</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.001364788820791419</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.001364788820791419</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.001364788820791419</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.001364788820791419</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.001375029784822552</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.001409253008092072</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.001464112255092376</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1704175264839989</v>
+        <v>0.3417955041745283</v>
       </c>
       <c r="CO4">
-        <v>0.1823072974420805</v>
+        <v>0.3417955041745283</v>
       </c>
       <c r="CP4">
-        <v>0.3671316497516893</v>
+        <v>0.7226359072391964</v>
       </c>
       <c r="CQ4">
-        <v>0.3830102090829841</v>
+        <v>0.7226359072391964</v>
       </c>
       <c r="CR4">
-        <v>0.3935497375758487</v>
+        <v>0.7226359072391964</v>
       </c>
       <c r="CS4">
-        <v>0.4056401086368164</v>
+        <v>0.7226359072391964</v>
       </c>
       <c r="CT4">
-        <v>0.4084030933531993</v>
+        <v>0.7226359072391964</v>
       </c>
       <c r="CU4">
-        <v>0.4088548136665114</v>
+        <v>0.7226359072391964</v>
       </c>
       <c r="CV4">
-        <v>0.44839031537723</v>
+        <v>0.7460438477327994</v>
       </c>
       <c r="CW4">
-        <v>0.4484802996341879</v>
+        <v>0.7460438477327994</v>
       </c>
       <c r="CX4">
-        <v>0.5350718634778802</v>
+        <v>0.8852167908247114</v>
       </c>
       <c r="CY4">
-        <v>0.5479835910245764</v>
+        <v>0.8852167908247114</v>
       </c>
       <c r="CZ4">
-        <v>0.5501374816473894</v>
+        <v>0.8852167908247114</v>
       </c>
       <c r="DA4">
-        <v>0.5716906478755729</v>
+        <v>0.8852167908247114</v>
       </c>
       <c r="DB4">
-        <v>0.572766760775119</v>
+        <v>0.8852167908247114</v>
       </c>
       <c r="DC4">
-        <v>0.643714575187287</v>
+        <v>0.9859037533330788</v>
       </c>
       <c r="DD4">
-        <v>0.6468897701456235</v>
+        <v>0.9859037533330788</v>
       </c>
       <c r="DE4">
-        <v>0.668131448241189</v>
+        <v>0.9859037533330788</v>
       </c>
       <c r="DF4">
-        <v>0.6701028677339425</v>
+        <v>0.9859037533330788</v>
       </c>
       <c r="DG4">
-        <v>0.6768605743549956</v>
+        <v>0.9859037533330788</v>
       </c>
       <c r="DH4">
-        <v>0.6779995443554829</v>
+        <v>0.9859037533330788</v>
       </c>
       <c r="DI4">
-        <v>0.680914637054885</v>
+        <v>0.9859037533330788</v>
       </c>
       <c r="DJ4">
-        <v>0.699412113149248</v>
+        <v>0.9859037533330788</v>
       </c>
       <c r="DK4">
-        <v>0.7008982564423015</v>
+        <v>0.9859037533330788</v>
       </c>
       <c r="DL4">
-        <v>0.7061406916585338</v>
+        <v>0.9859037533330788</v>
       </c>
       <c r="DM4">
-        <v>0.7166424836519758</v>
+        <v>0.9859037533330788</v>
       </c>
       <c r="DN4">
-        <v>0.7359227995710911</v>
+        <v>0.9859037533330788</v>
       </c>
       <c r="DO4">
-        <v>0.7402630727809307</v>
+        <v>0.9859037533330788</v>
       </c>
       <c r="DP4">
-        <v>0.776013564916761</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.7760403923536249</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.7807079736108971</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.7840562896707486</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.7855836354022373</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.7900372327075197</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.7907236005849466</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.8020337470387885</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.8161805629034298</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.8203678220619314</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.8220444871117349</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.8225000939406961</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.8229648833261906</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.8288918475025028</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.8383410959705228</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.8388795038122657</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.8397035372559745</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.8431452412059631</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.8477313142467061</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.8522098256784224</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.8522136314165745</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.8524016967283328</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.862285401602388</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.8656093806251601</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.8678481771456343</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.875289484940032</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.8766301631830747</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.8768763884127034</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.8771917517593871</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.8805539525931115</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.8909518454832221</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.8911541428933741</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.8935456996499587</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8935930030698436</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8943531867708806</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8945691064322941</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8956139480146988</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.9115798363984176</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.9179026597514692</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.9224147726762464</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.9259063745381716</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.9293402706673617</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.9374102205314282</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.9374102205314282</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.9379356800934173</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.938107471415319</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9382500981565288</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9457466267765346</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9526160186033011</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9537612979539286</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9537725887291683</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9538630919211676</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9556161050118258</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9561912016645829</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9561912016645829</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9575593538046685</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9602860532522289</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9604313352450126</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9614343507601635</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9622832248980377</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.963796207349895</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.966074483347785</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9667066797193955</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9672176411874346</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9672176411874346</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9673291487304952</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9680387997413227</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9695157084036856</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9695639767918348</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9697689639428065</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9700554006205403</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9713192828428548</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9726165613842489</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9745454060748437</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9878564202046175</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9946466018635313</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9961274263463928</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9964809216478334</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9965135000483425</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9972834166425818</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9975681208512336</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8973,763 +8973,763 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.201275105213711E-06</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.232558456514814E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>7.313395986710832E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001263081784008607</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0001334174084652076</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0001482138986677437</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0002417604064178294</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0003904231145917527</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0004880328497495795</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0005214644522669853</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0005523430190519056</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0005791843639166701</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0005805363785139634</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0005842800637930653</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.00059261628527276</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0005929129722785927</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0006229079646147874</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0006775424162817223</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0006964167869840425</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0007411746325248141</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0008264855324263344</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0009066614287577343</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0009496377983778173</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.001017052051792891</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.00110485021654816</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.001222659100058157</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.001245687640358515</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.001252517593490841</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.001275546133791198</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.001304077256226793</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.001304077256226793</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.001314018195828376</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.001315463588229921</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.001317882987662951</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.001364321137775594</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.001430841582582366</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.001510308459298978</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.001602995375661158</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.00173516077263137</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.00190243032715558</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.002036304994809989</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.002129564532004573</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.00219754927580249</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0022720605308015</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.002357461993813324</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.002369559066394391</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.002373905281717232</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.002398156851096819</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.002406133790262042</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.002406133790262042</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.002406133790262042</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.002406133790262042</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.002417456443927995</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.002441510708673063</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.002452626125108554</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.002488469769606447</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.002568114283807487</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.002626558139321221</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.00265822104161382</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.002691595422056428</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.002707672608506914</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.002751634333053075</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.002777190953819947</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.002777190953819947</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.002778527728501368</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.002778527728501368</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.002778527728501368</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.002778527728501368</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.002817359485540101</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.002861188542091136</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.002885440111470724</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.002946260223413606</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.003000527256549194</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.003012304546650905</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.003040567922587589</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.00309287573829611</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.003118178437481356</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.003120014768577388</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.00312507185030472</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.003139517188408394</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.003139517188408394</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.003162982711919388</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.003167444612053625</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.003171166876012477</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.003193618871652438</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.003229822239057775</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.005085020224213175</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1429454680516244</v>
+        <v>0.3239806602036818</v>
       </c>
       <c r="CO5">
-        <v>0.1441557423472853</v>
+        <v>0.3239806602036818</v>
       </c>
       <c r="CP5">
-        <v>0.2523191636141761</v>
+        <v>0.558755973440705</v>
       </c>
       <c r="CQ5">
-        <v>0.2747476123932634</v>
+        <v>0.558755973440705</v>
       </c>
       <c r="CR5">
-        <v>0.2750770584196877</v>
+        <v>0.558755973440705</v>
       </c>
       <c r="CS5">
-        <v>0.2772194107991382</v>
+        <v>0.558755973440705</v>
       </c>
       <c r="CT5">
-        <v>0.2978196547969796</v>
+        <v>0.558755973440705</v>
       </c>
       <c r="CU5">
-        <v>0.2982885291750769</v>
+        <v>0.558755973440705</v>
       </c>
       <c r="CV5">
-        <v>0.3492286123774681</v>
+        <v>0.6216410903231806</v>
       </c>
       <c r="CW5">
-        <v>0.3595721745469285</v>
+        <v>0.6216410903231806</v>
       </c>
       <c r="CX5">
-        <v>0.4318291289593769</v>
+        <v>0.7485588432226475</v>
       </c>
       <c r="CY5">
-        <v>0.4933676376036662</v>
+        <v>0.8432800167190088</v>
       </c>
       <c r="CZ5">
-        <v>0.4934986706616943</v>
+        <v>0.8432800167190088</v>
       </c>
       <c r="DA5">
-        <v>0.5031622708480046</v>
+        <v>0.8432800167190088</v>
       </c>
       <c r="DB5">
-        <v>0.5070273292467289</v>
+        <v>0.8432800167190088</v>
       </c>
       <c r="DC5">
-        <v>0.573816244813142</v>
+        <v>0.9537726133324183</v>
       </c>
       <c r="DD5">
-        <v>0.5995643110860611</v>
+        <v>0.9537726133324183</v>
       </c>
       <c r="DE5">
-        <v>0.6226682784106602</v>
+        <v>0.9537726133324183</v>
       </c>
       <c r="DF5">
-        <v>0.622808280991405</v>
+        <v>0.9537726133324183</v>
       </c>
       <c r="DG5">
-        <v>0.6327005254254081</v>
+        <v>0.9537726133324183</v>
       </c>
       <c r="DH5">
-        <v>0.6328918351928122</v>
+        <v>0.9537726133324183</v>
       </c>
       <c r="DI5">
-        <v>0.6328919626970178</v>
+        <v>0.9537726133324183</v>
       </c>
       <c r="DJ5">
-        <v>0.6444205294219087</v>
+        <v>0.9537726133324183</v>
       </c>
       <c r="DK5">
-        <v>0.6551305584218914</v>
+        <v>0.9537726133324183</v>
       </c>
       <c r="DL5">
-        <v>0.6582532599711236</v>
+        <v>0.9537726133324183</v>
       </c>
       <c r="DM5">
-        <v>0.6582744862381147</v>
+        <v>0.9537726133324183</v>
       </c>
       <c r="DN5">
-        <v>0.6714999580378563</v>
+        <v>0.9537726133324183</v>
       </c>
       <c r="DO5">
-        <v>0.6720626924919718</v>
+        <v>0.9537726133324183</v>
       </c>
       <c r="DP5">
-        <v>0.7174573115103092</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.7232468822127489</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.7276533760632492</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.7281687837306351</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.7330884904774885</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.7351769711891319</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.7408088871238254</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.7428740489147935</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.7650365785805789</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.7695766846254475</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.7707522795031815</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.7719380219222134</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.77446524611594</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.77474583725318</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.7953008987167643</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.7969092651163998</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.8009544090161236</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.8015371756473575</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.8057498752040778</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.8082775893011821</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.8084839219886691</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.8085376784100573</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.8220361318134023</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.8327675563281901</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.8335819437352132</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.8389590814075074</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.8401782793862121</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.8403275459818162</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.8406317333782546</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.8423067010318489</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.8536762922102876</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.8551920841751964</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.856013508567139</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.8560196078895962</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.859958432054109</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.8617215399067335</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.8630506908873281</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.8795231178479554</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8906713513162805</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8931926419579302</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.897088965654146</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.9003776936376836</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.9154708725543129</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.9154708725543129</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.917251381078765</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.9172751401012091</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.9172751401012091</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9230489981880288</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.930157320168655</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9321691585074986</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9323203606015247</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9333930036547322</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9354532440071959</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9359575289274994</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9359588657021808</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9378751853850186</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9438094096117285</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9438986974208232</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9479182143128273</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9490466992495897</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9499927311857714</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9528370525922198</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9534049366329826</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9534335208086133</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9534349506735383</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9535394210864119</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9552536867325282</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.95720419092886</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9573210361030114</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9574212049581856</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9577841989137742</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9582792360826502</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9601458977868387</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9609806416394062</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.981382233718429</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9934094886747302</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9950400404558457</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9950400404558457</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9950407081842474</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9963655561568366</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9975391267074043</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>4.788333947977541E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8.688969291174406E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001192749446499577</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0001475393530102225</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0001971022075361731</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0002273262601418667</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0002339792888494223</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0002475915427231241</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0002558027614981371</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0002558027614981371</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0002558027614981371</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0002592008698518117</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0002592008698518117</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0002730904435918215</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.000317069166319547</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0003455988891233081</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0004077302431933798</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.000465033549071777</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0005147761188965204</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0006101684348587863</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0007234260881150092</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0008070215599851876</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0008373865332919678</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0008995178873620395</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0009457601213477123</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.000953416332346491</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0009538727933735483</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0009538727933735483</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0009587767081864854</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0009886036897336691</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001004560028414418</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001037635660972477</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001142122894810539</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001239148094292487</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001264777062315974</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001286069391386698</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.001337168257951697</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.001422293441114197</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.001482347388982391</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.001493877424083857</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.001505241375502069</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.001514177241157938</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.001514177241157938</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.001514513585249447</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.001514513585249447</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.001514513585249447</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.001539299318337724</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.001573221274197008</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.001577961288285402</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.00159582480099312</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.001635293072168843</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.001678161053258049</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.001702347802358291</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.001722432863350753</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.00175820578357537</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.001838541975174956</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.001857553431930203</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.001857553431930203</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.001862404674500738</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.001881416131255985</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.001881416131255985</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.001894316015703882</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.001895173969413474</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.001895173969413474</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.001900594982909884</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.001930421964457067</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.001949110609954636</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.001982603900010988</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.002035087550692398</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.002094398793539592</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.002135078080237702</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.002160462627293863</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.00217471321381897</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.00218942832839719</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.00222195108343148</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.002222047119743135</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.002228511872537344</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.002229805954534278</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.002237669748134517</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.00227475241358238</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.002288733194131681</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.002303081663757313</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.002346265572288367</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.002395163292986596</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.00242229034555419</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.002433330454592521</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.002453633667439049</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.002464919952652722</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.002467169416875897</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.002467169416875897</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.01321785526511481</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.09374899557949765</v>
+        <v>0.144704450552476</v>
       </c>
       <c r="CP6">
-        <v>0.1574642229714839</v>
+        <v>0.2412508927498154</v>
       </c>
       <c r="CQ6">
-        <v>0.3108885921595961</v>
+        <v>0.5947095597004133</v>
       </c>
       <c r="CR6">
-        <v>0.3133945073864559</v>
+        <v>0.5947095597004133</v>
       </c>
       <c r="CS6">
-        <v>0.3224933419670667</v>
+        <v>0.5947095597004133</v>
       </c>
       <c r="CT6">
-        <v>0.3276619863648161</v>
+        <v>0.5947095597004133</v>
       </c>
       <c r="CU6">
-        <v>0.3303955925762627</v>
+        <v>0.5947095597004133</v>
       </c>
       <c r="CV6">
-        <v>0.3399889627663047</v>
+        <v>0.5947095597004133</v>
       </c>
       <c r="CW6">
-        <v>0.3688705718841776</v>
+        <v>0.5947095597004133</v>
       </c>
       <c r="CX6">
-        <v>0.3692593762035926</v>
+        <v>0.5947095597004133</v>
       </c>
       <c r="CY6">
-        <v>0.4917708177746252</v>
+        <v>0.8596386872001797</v>
       </c>
       <c r="CZ6">
-        <v>0.4954207595847394</v>
+        <v>0.8596386872001797</v>
       </c>
       <c r="DA6">
-        <v>0.4955661171522873</v>
+        <v>0.8596386872001797</v>
       </c>
       <c r="DB6">
-        <v>0.523592872958009</v>
+        <v>0.8596386872001797</v>
       </c>
       <c r="DC6">
-        <v>0.5300541004450501</v>
+        <v>0.8596386872001797</v>
       </c>
       <c r="DD6">
-        <v>0.6089577778821724</v>
+        <v>0.9996823517933991</v>
       </c>
       <c r="DE6">
-        <v>0.6105772359513805</v>
+        <v>0.9996823517933991</v>
       </c>
       <c r="DF6">
-        <v>0.6256462060770942</v>
+        <v>0.9996823517933991</v>
       </c>
       <c r="DG6">
-        <v>0.6274475350005587</v>
+        <v>0.9996823517933991</v>
       </c>
       <c r="DH6">
-        <v>0.6309359605687246</v>
+        <v>0.9996823517933991</v>
       </c>
       <c r="DI6">
-        <v>0.6318550533647889</v>
+        <v>0.9996823517933991</v>
       </c>
       <c r="DJ6">
-        <v>0.6326063314424467</v>
+        <v>0.9996823517933991</v>
       </c>
       <c r="DK6">
-        <v>0.6502861819942439</v>
+        <v>0.9996823517933991</v>
       </c>
       <c r="DL6">
-        <v>0.6504133487159206</v>
+        <v>0.9996823517933991</v>
       </c>
       <c r="DM6">
-        <v>0.6612933493897867</v>
+        <v>0.9996823517933991</v>
       </c>
       <c r="DN6">
-        <v>0.6769399749758039</v>
+        <v>0.9996823517933991</v>
       </c>
       <c r="DO6">
-        <v>0.6890000475047966</v>
+        <v>0.9996823517933991</v>
       </c>
       <c r="DP6">
-        <v>0.7085154785987272</v>
+        <v>0.9996823517933991</v>
       </c>
       <c r="DQ6">
-        <v>0.7386293367554574</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.740470469896282</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.7458877794643545</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.7511670389715515</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.7520680918996374</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.7626728419524302</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.7631263932052683</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.780628829731006</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.7910889386417874</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.7913486609031615</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.7915075922193897</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.7918011417497713</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.792691456465228</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.8056690777366629</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.8141271123734599</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.8163247653669057</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.817561839318213</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.8222963446643735</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.8268936427495421</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.8273698927324992</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.8282702277755056</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.8293890791157693</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.8386965294202801</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.8392594182111555</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.8460871841381613</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.8553532915429565</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.8560404687237557</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.8560410006854307</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.8560413370295221</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.8617620982608883</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.869380135346151</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.869388346564926</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8725635158078078</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8742100347841143</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.876486866961408</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8764928896878158</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8808344197608746</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.9067332063722917</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.9091689868872008</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.9158865482534149</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.9171677532348705</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.9285930275313367</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.9348011339199643</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.9351639617407986</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.9364657956670747</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.937015143753186</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.93733253443908</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9459875624223617</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9519255824019479</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9521296208040008</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9521300772650279</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9524621050956297</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9533876923313764</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9535982609273492</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9541320528298338</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9575433103525001</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9604008237486923</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9617903304654282</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.962468718704614</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9630453128797705</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.964591452759741</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9660132401021854</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.966123189653385</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9665741965246779</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9665741965246779</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9665750836307425</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9696208871419639</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9705413872748174</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9706605893525716</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9708281083265582</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9708370441922141</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9741676901612765</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9755598726951343</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9797206400452658</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9939874771069199</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9984752748147524</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9985420343673291</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9986097788566347</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9986269298699012</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9999960065653919</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10570,16 +10570,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>0.03442615025510735</v>
+        <v>0.009335671113912229</v>
       </c>
       <c r="F2">
-        <v>0.5283476478024626</v>
+        <v>0.8447356261394281</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.05814886829466283</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5251163097504838</v>
+        <v>0.8878114381448897</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.001409253008092072</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5350718634778802</v>
+        <v>0.7226359072391964</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.003229822239057775</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5031622708480046</v>
+        <v>0.558755973440705</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -10734,16 +10734,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.002467169416875897</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.523592872958009</v>
+        <v>0.5947095597004133</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>56</v>
@@ -10829,16 +10829,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>0.03442615025510735</v>
+        <v>0.009335671113912229</v>
       </c>
       <c r="F2">
-        <v>0.7115960543201704</v>
+        <v>0.8447356261394281</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.05814886829466283</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7024148020489267</v>
+        <v>0.8878114381448897</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.001409253008092072</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7008982564423015</v>
+        <v>0.7226359072391964</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E5">
-        <v>0.003229822239057775</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7174573115103092</v>
+        <v>0.7485588432226475</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -10993,16 +10993,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.002467169416875897</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7085154785987272</v>
+        <v>0.8596386872001797</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>56</v>
@@ -11088,16 +11088,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>0.03442615025510735</v>
+        <v>0.009335671113912229</v>
       </c>
       <c r="F2">
-        <v>0.804096751586749</v>
+        <v>0.8447356261394281</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.05814886829466283</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8042167412811151</v>
+        <v>0.8878114381448897</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>0.001409253008092072</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8020337470387885</v>
+        <v>0.8852167908247114</v>
       </c>
       <c r="G4">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>0.003229822239057775</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8009544090161236</v>
+        <v>0.8432800167190088</v>
       </c>
       <c r="G5">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -11252,16 +11252,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.002467169416875897</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8056690777366629</v>
+        <v>0.8596386872001797</v>
       </c>
       <c r="G6">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>56</v>
@@ -11347,16 +11347,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>0.03442615025510735</v>
+        <v>0.009335671113912229</v>
       </c>
       <c r="F2">
-        <v>0.911164817958472</v>
+        <v>0.9778383928642712</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>0.05814886829466283</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9030532563692502</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.001409253008092072</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9115798363984176</v>
+        <v>0.9859037533330788</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.003229822239057775</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9003776936376836</v>
+        <v>0.9537726133324183</v>
       </c>
       <c r="G5">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -11511,16 +11511,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.002467169416875897</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9067332063722917</v>
+        <v>0.9996823517933991</v>
       </c>
       <c r="G6">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>56</v>

--- a/on_trucks/Processed_Stand_Alone/56_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/56_11R22.xlsx
@@ -180,7 +180,7 @@
     <t>11R22.5</t>
   </si>
   <si>
-    <t>710Rバフ50</t>
+    <t>710R</t>
   </si>
   <si>
     <t>50%</t>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0303080121911455</v>
+        <v>0.04474526330661761</v>
       </c>
       <c r="E2">
-        <v>0.03362019398533997</v>
+        <v>0.04679875640740945</v>
       </c>
       <c r="F2">
-        <v>0.257853218983426</v>
+        <v>0.1858191962305922</v>
       </c>
       <c r="G2">
-        <v>0.139621681753635</v>
+        <v>0.1125177710422336</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -686,22 +686,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.009307046095662573</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.02302389220976572</v>
       </c>
       <c r="M2">
-        <v>0.03312645286695425</v>
+        <v>0.04649264580020804</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.02159071061666533</v>
       </c>
       <c r="O2">
-        <v>0.2873856935387467</v>
+        <v>0.2041287989386799</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.01651629677915332</v>
+        <v>0.03619464797014928</v>
       </c>
       <c r="S2">
-        <v>0.03228708178555094</v>
+        <v>0.04597225083647536</v>
       </c>
       <c r="T2">
-        <v>0.1153895001729481</v>
+        <v>0.09749425458540892</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.01819897956677105</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.004388487241468876</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.002808437144182921</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.005604237759174301</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.01382575699189611</v>
+        <v>0.03452656172554074</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0400661109512043</v>
+        <v>0.0507951089146542</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.009540963454129889</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>5.199015421018281E-05</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1016959430681805</v>
+        <v>0.08884610831446711</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.02538123859597912</v>
       </c>
       <c r="F3">
-        <v>0.2206489401804534</v>
+        <v>0.1627697398449063</v>
       </c>
       <c r="G3">
-        <v>0.1079766141332102</v>
+        <v>0.09274924673759515</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -793,22 +793,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007462948657656575</v>
+        <v>0.03028478303538525</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.004938736662748874</v>
+        <v>0.02871610530597796</v>
       </c>
       <c r="M3">
-        <v>0.02808742092015182</v>
+        <v>0.04310191185983549</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.01437565964664485</v>
       </c>
       <c r="O3">
-        <v>0.3673109055856685</v>
+        <v>0.2539131776173248</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.02269224746840743</v>
       </c>
       <c r="S3">
-        <v>0.02264955404079274</v>
+        <v>0.0397225361630474</v>
       </c>
       <c r="T3">
-        <v>0.11397306771034</v>
+        <v>0.09647575750643887</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.001313778459563746</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.002218143252510302</v>
+        <v>0.02702538586481252</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -853,16 +853,16 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.007021641827594435</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.01340601605519825</v>
+        <v>0.0339781168321098</v>
       </c>
       <c r="AG3">
-        <v>0.009631709733088774</v>
+        <v>0.03163256491990968</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -882,22 +882,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3263709608430768</v>
+        <v>0.2616502453699902</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.006604330012431536</v>
       </c>
       <c r="F4">
-        <v>0.3619769644411944</v>
+        <v>0.2874220780238156</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.01308147622289825</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00441175496244287</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.006930072086128379</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03602551085442825</v>
+        <v>0.05149651867366712</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1415944639371167</v>
+        <v>0.1279079413931333</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.008263821974867849</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.02229611864536993</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1064981516892489</v>
+        <v>0.1025050263053454</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0217903123731341</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.01733417283156081</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -957,16 +957,16 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.004350476999973668</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.01860537790183923</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.02753394823493506</v>
+        <v>0.04535027622340158</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2923945284095161</v>
+        <v>0.226287662041849</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2176471828221394</v>
+        <v>0.1748442556992893</v>
       </c>
       <c r="G5">
-        <v>0.001852459925890248</v>
+        <v>0.02632773609184789</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1007,46 +1007,46 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.02316078329112299</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07361617630862161</v>
+        <v>0.07571771768274636</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.005393393348952774</v>
       </c>
       <c r="N5">
-        <v>0.1272706907069757</v>
+        <v>0.1126443933341342</v>
       </c>
       <c r="O5">
-        <v>0.1002923880691882</v>
+        <v>0.09407710142400329</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00421551244140142</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1135076498693061</v>
+        <v>0.103172248246469</v>
       </c>
       <c r="T5">
-        <v>0.01020792930339422</v>
+        <v>0.03207822532985424</v>
       </c>
       <c r="U5">
-        <v>0.003552738506614359</v>
+        <v>0.02749791974501179</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.004611587075943744</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1055,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.007446146702510453</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.006028214550166459</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.01038565235006716</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.05965825607835402</v>
+        <v>0.06611145064463025</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005718516937492077</v>
       </c>
       <c r="E6">
-        <v>0.1428264810421694</v>
+        <v>0.1260239386286452</v>
       </c>
       <c r="F6">
-        <v>0.1015793984709926</v>
+        <v>0.09703236053234364</v>
       </c>
       <c r="G6">
-        <v>0.321623376822354</v>
+        <v>0.2516959581816063</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002870632600202734</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1120,16 +1120,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.003723239759171308</v>
       </c>
       <c r="M6">
-        <v>0.01613740457890952</v>
+        <v>0.03697724671061999</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2457982887749326</v>
+        <v>0.1984003352004571</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.01404056896164248</v>
+        <v>0.03550343160022515</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1388345422167439</v>
+        <v>0.1232181012457643</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.01316348150469672</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1165,25 +1165,25 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.01766478596091157</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.005941462957936017</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.01415939195377156</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.007975973097530195</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.02082942988389696</v>
       </c>
       <c r="AG6">
-        <v>0.01915993913225547</v>
+        <v>0.03910171324472909</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1323,94 +1323,94 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0303080121911455</v>
+        <v>0.04474526330661761</v>
       </c>
       <c r="E2">
-        <v>0.06392820617648548</v>
+        <v>0.09154401971402706</v>
       </c>
       <c r="F2">
-        <v>0.3217814251599115</v>
+        <v>0.2773632159446193</v>
       </c>
       <c r="G2">
-        <v>0.4614031069135465</v>
+        <v>0.3898809869868529</v>
       </c>
       <c r="H2">
-        <v>0.4614031069135465</v>
+        <v>0.3898809869868529</v>
       </c>
       <c r="I2">
-        <v>0.4614031069135465</v>
+        <v>0.3898809869868529</v>
       </c>
       <c r="J2">
-        <v>0.4614031069135465</v>
+        <v>0.3991880330825154</v>
       </c>
       <c r="K2">
-        <v>0.4614031069135465</v>
+        <v>0.3991880330825154</v>
       </c>
       <c r="L2">
-        <v>0.4614031069135465</v>
+        <v>0.4222119252922811</v>
       </c>
       <c r="M2">
-        <v>0.4945295597805007</v>
+        <v>0.4687045710924892</v>
       </c>
       <c r="N2">
-        <v>0.4945295597805007</v>
+        <v>0.4902952817091545</v>
       </c>
       <c r="O2">
-        <v>0.7819152533192475</v>
+        <v>0.6944240806478343</v>
       </c>
       <c r="P2">
-        <v>0.7819152533192475</v>
+        <v>0.6944240806478343</v>
       </c>
       <c r="Q2">
-        <v>0.7819152533192475</v>
+        <v>0.6944240806478343</v>
       </c>
       <c r="R2">
-        <v>0.7984315500984008</v>
+        <v>0.7306187286179836</v>
       </c>
       <c r="S2">
-        <v>0.8307186318839518</v>
+        <v>0.776590979454459</v>
       </c>
       <c r="T2">
-        <v>0.9461081320568998</v>
+        <v>0.8740852340398679</v>
       </c>
       <c r="U2">
-        <v>0.9461081320568998</v>
+        <v>0.892284213606639</v>
       </c>
       <c r="V2">
-        <v>0.9461081320568998</v>
+        <v>0.8966727008481079</v>
       </c>
       <c r="W2">
-        <v>0.9461081320568998</v>
+        <v>0.8994811379922908</v>
       </c>
       <c r="X2">
-        <v>0.9461081320568998</v>
+        <v>0.8994811379922908</v>
       </c>
       <c r="Y2">
-        <v>0.9461081320568998</v>
+        <v>0.8994811379922908</v>
       </c>
       <c r="Z2">
-        <v>0.9461081320568998</v>
+        <v>0.8994811379922908</v>
       </c>
       <c r="AA2">
-        <v>0.9461081320568998</v>
+        <v>0.9050853757514651</v>
       </c>
       <c r="AB2">
-        <v>0.9461081320568998</v>
+        <v>0.9050853757514651</v>
       </c>
       <c r="AC2">
-        <v>0.9461081320568998</v>
+        <v>0.9050853757514651</v>
       </c>
       <c r="AD2">
-        <v>0.959933889048796</v>
+        <v>0.9396119374770058</v>
       </c>
       <c r="AE2">
-        <v>0.959933889048796</v>
+        <v>0.9396119374770058</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.99040704639166</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999480098457899</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -1430,91 +1430,91 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1016959430681805</v>
+        <v>0.08884610831446711</v>
       </c>
       <c r="E3">
-        <v>0.1016959430681805</v>
+        <v>0.1142273469104462</v>
       </c>
       <c r="F3">
-        <v>0.3223448832486339</v>
+        <v>0.2769970867553525</v>
       </c>
       <c r="G3">
-        <v>0.4303214973818442</v>
+        <v>0.3697463334929477</v>
       </c>
       <c r="H3">
-        <v>0.4303214973818442</v>
+        <v>0.3697463334929477</v>
       </c>
       <c r="I3">
-        <v>0.4303214973818442</v>
+        <v>0.3697463334929477</v>
       </c>
       <c r="J3">
-        <v>0.4377844460395007</v>
+        <v>0.4000311165283329</v>
       </c>
       <c r="K3">
-        <v>0.4377844460395007</v>
+        <v>0.4000311165283329</v>
       </c>
       <c r="L3">
-        <v>0.4427231827022496</v>
+        <v>0.4287472218343109</v>
       </c>
       <c r="M3">
-        <v>0.4708106036224014</v>
+        <v>0.4718491336941463</v>
       </c>
       <c r="N3">
-        <v>0.4708106036224014</v>
+        <v>0.4862247933407912</v>
       </c>
       <c r="O3">
-        <v>0.8381215092080699</v>
+        <v>0.740137970958116</v>
       </c>
       <c r="P3">
-        <v>0.8381215092080699</v>
+        <v>0.740137970958116</v>
       </c>
       <c r="Q3">
-        <v>0.8381215092080699</v>
+        <v>0.740137970958116</v>
       </c>
       <c r="R3">
-        <v>0.8381215092080699</v>
+        <v>0.7628302184265234</v>
       </c>
       <c r="S3">
-        <v>0.8607710632488627</v>
+        <v>0.8025527545895709</v>
       </c>
       <c r="T3">
-        <v>0.9747441309592026</v>
+        <v>0.8990285120960098</v>
       </c>
       <c r="U3">
-        <v>0.9747441309592026</v>
+        <v>0.8990285120960098</v>
       </c>
       <c r="V3">
-        <v>0.9747441309592026</v>
+        <v>0.9003422905555735</v>
       </c>
       <c r="W3">
-        <v>0.9747441309592026</v>
+        <v>0.9003422905555735</v>
       </c>
       <c r="X3">
-        <v>0.9747441309592026</v>
+        <v>0.9003422905555735</v>
       </c>
       <c r="Y3">
-        <v>0.9747441309592026</v>
+        <v>0.9003422905555735</v>
       </c>
       <c r="Z3">
-        <v>0.9747441309592026</v>
+        <v>0.9003422905555735</v>
       </c>
       <c r="AA3">
-        <v>0.976962274211713</v>
+        <v>0.927367676420386</v>
       </c>
       <c r="AB3">
-        <v>0.976962274211713</v>
+        <v>0.927367676420386</v>
       </c>
       <c r="AC3">
-        <v>0.976962274211713</v>
+        <v>0.927367676420386</v>
       </c>
       <c r="AD3">
-        <v>0.976962274211713</v>
+        <v>0.9343893182479804</v>
       </c>
       <c r="AE3">
-        <v>0.976962274211713</v>
+        <v>0.9343893182479804</v>
       </c>
       <c r="AF3">
-        <v>0.9903682902669112</v>
+        <v>0.9683674350800903</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -1537,88 +1537,88 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3263709608430768</v>
+        <v>0.2616502453699902</v>
       </c>
       <c r="E4">
-        <v>0.3263709608430768</v>
+        <v>0.2682545753824218</v>
       </c>
       <c r="F4">
-        <v>0.6883479252842712</v>
+        <v>0.5556766534062374</v>
       </c>
       <c r="G4">
-        <v>0.6883479252842712</v>
+        <v>0.5687581296291356</v>
       </c>
       <c r="H4">
-        <v>0.6883479252842712</v>
+        <v>0.5731698845915785</v>
       </c>
       <c r="I4">
-        <v>0.6883479252842712</v>
+        <v>0.5800999566777069</v>
       </c>
       <c r="J4">
-        <v>0.6883479252842712</v>
+        <v>0.5800999566777069</v>
       </c>
       <c r="K4">
-        <v>0.6883479252842712</v>
+        <v>0.5800999566777069</v>
       </c>
       <c r="L4">
-        <v>0.7243734361386995</v>
+        <v>0.631596475351374</v>
       </c>
       <c r="M4">
-        <v>0.7243734361386995</v>
+        <v>0.631596475351374</v>
       </c>
       <c r="N4">
-        <v>0.8659679000758163</v>
+        <v>0.7595044167445073</v>
       </c>
       <c r="O4">
-        <v>0.8659679000758163</v>
+        <v>0.7677682387193752</v>
       </c>
       <c r="P4">
-        <v>0.8659679000758163</v>
+        <v>0.7677682387193752</v>
       </c>
       <c r="Q4">
-        <v>0.8659679000758163</v>
+        <v>0.7900643573647451</v>
       </c>
       <c r="R4">
-        <v>0.8659679000758163</v>
+        <v>0.7900643573647451</v>
       </c>
       <c r="S4">
-        <v>0.9724660517650652</v>
+        <v>0.8925693836700905</v>
       </c>
       <c r="T4">
-        <v>0.9724660517650652</v>
+        <v>0.8925693836700905</v>
       </c>
       <c r="U4">
-        <v>0.9724660517650652</v>
+        <v>0.9143596960432246</v>
       </c>
       <c r="V4">
-        <v>0.9724660517650652</v>
+        <v>0.9143596960432246</v>
       </c>
       <c r="W4">
-        <v>0.9724660517650652</v>
+        <v>0.9143596960432246</v>
       </c>
       <c r="X4">
-        <v>0.9724660517650652</v>
+        <v>0.9143596960432246</v>
       </c>
       <c r="Y4">
-        <v>0.9724660517650652</v>
+        <v>0.9143596960432246</v>
       </c>
       <c r="Z4">
-        <v>0.9724660517650652</v>
+        <v>0.9316938688747854</v>
       </c>
       <c r="AA4">
-        <v>0.9724660517650652</v>
+        <v>0.9316938688747854</v>
       </c>
       <c r="AB4">
-        <v>0.9724660517650652</v>
+        <v>0.9316938688747854</v>
       </c>
       <c r="AC4">
-        <v>0.9724660517650652</v>
+        <v>0.9360443458747592</v>
       </c>
       <c r="AD4">
-        <v>0.9724660517650652</v>
+        <v>0.9546497237765984</v>
       </c>
       <c r="AE4">
-        <v>0.9724660517650652</v>
+        <v>0.9546497237765984</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1644,100 +1644,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2923945284095161</v>
+        <v>0.226287662041849</v>
       </c>
       <c r="E5">
-        <v>0.2923945284095161</v>
+        <v>0.226287662041849</v>
       </c>
       <c r="F5">
-        <v>0.5100417112316555</v>
+        <v>0.4011319177411383</v>
       </c>
       <c r="G5">
-        <v>0.5118941711575458</v>
+        <v>0.4274596538329862</v>
       </c>
       <c r="H5">
-        <v>0.5118941711575458</v>
+        <v>0.4274596538329862</v>
       </c>
       <c r="I5">
-        <v>0.5118941711575458</v>
+        <v>0.4274596538329862</v>
       </c>
       <c r="J5">
-        <v>0.5118941711575458</v>
+        <v>0.4506204371241092</v>
       </c>
       <c r="K5">
-        <v>0.5118941711575458</v>
+        <v>0.4506204371241092</v>
       </c>
       <c r="L5">
-        <v>0.5855103474661674</v>
+        <v>0.5263381548068555</v>
       </c>
       <c r="M5">
-        <v>0.5855103474661674</v>
+        <v>0.5317315481558083</v>
       </c>
       <c r="N5">
-        <v>0.7127810381731431</v>
+        <v>0.6443759414899424</v>
       </c>
       <c r="O5">
-        <v>0.8130734262423313</v>
+        <v>0.7384530429139456</v>
       </c>
       <c r="P5">
-        <v>0.8130734262423313</v>
+        <v>0.7384530429139456</v>
       </c>
       <c r="Q5">
-        <v>0.8130734262423313</v>
+        <v>0.742668555355347</v>
       </c>
       <c r="R5">
-        <v>0.8130734262423313</v>
+        <v>0.742668555355347</v>
       </c>
       <c r="S5">
-        <v>0.9265810761116373</v>
+        <v>0.845840803601816</v>
       </c>
       <c r="T5">
-        <v>0.9367890054150315</v>
+        <v>0.8779190289316703</v>
       </c>
       <c r="U5">
-        <v>0.9403417439216458</v>
+        <v>0.9054169486766821</v>
       </c>
       <c r="V5">
-        <v>0.9403417439216458</v>
+        <v>0.9054169486766821</v>
       </c>
       <c r="W5">
-        <v>0.9403417439216458</v>
+        <v>0.9100285357526259</v>
       </c>
       <c r="X5">
-        <v>0.9403417439216458</v>
+        <v>0.9100285357526259</v>
       </c>
       <c r="Y5">
-        <v>0.9403417439216458</v>
+        <v>0.9100285357526259</v>
       </c>
       <c r="Z5">
-        <v>0.9403417439216458</v>
+        <v>0.9174746824551363</v>
       </c>
       <c r="AA5">
-        <v>0.9403417439216458</v>
+        <v>0.9235028970053027</v>
       </c>
       <c r="AB5">
-        <v>0.9403417439216458</v>
+        <v>0.9235028970053027</v>
       </c>
       <c r="AC5">
-        <v>0.9403417439216458</v>
+        <v>0.9235028970053027</v>
       </c>
       <c r="AD5">
-        <v>0.9403417439216458</v>
+        <v>0.9338885493553699</v>
       </c>
       <c r="AE5">
-        <v>0.9403417439216458</v>
+        <v>0.9338885493553699</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1751,91 +1751,91 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005718516937492077</v>
       </c>
       <c r="E6">
-        <v>0.1428264810421694</v>
+        <v>0.1317424555661373</v>
       </c>
       <c r="F6">
-        <v>0.244405879513162</v>
+        <v>0.2287748160984809</v>
       </c>
       <c r="G6">
-        <v>0.566029256335516</v>
+        <v>0.4804707742800872</v>
       </c>
       <c r="H6">
-        <v>0.566029256335516</v>
+        <v>0.4804707742800872</v>
       </c>
       <c r="I6">
-        <v>0.566029256335516</v>
+        <v>0.48334140688029</v>
       </c>
       <c r="J6">
-        <v>0.566029256335516</v>
+        <v>0.48334140688029</v>
       </c>
       <c r="K6">
-        <v>0.566029256335516</v>
+        <v>0.48334140688029</v>
       </c>
       <c r="L6">
-        <v>0.566029256335516</v>
+        <v>0.4870646466394613</v>
       </c>
       <c r="M6">
-        <v>0.5821666609144256</v>
+        <v>0.5240418933500813</v>
       </c>
       <c r="N6">
-        <v>0.5821666609144256</v>
+        <v>0.5240418933500813</v>
       </c>
       <c r="O6">
-        <v>0.8279649496893582</v>
+        <v>0.7224422285505384</v>
       </c>
       <c r="P6">
-        <v>0.8279649496893582</v>
+        <v>0.7224422285505384</v>
       </c>
       <c r="Q6">
-        <v>0.8279649496893582</v>
+        <v>0.7224422285505384</v>
       </c>
       <c r="R6">
-        <v>0.8420055186510007</v>
+        <v>0.7579456601507636</v>
       </c>
       <c r="S6">
-        <v>0.8420055186510007</v>
+        <v>0.7579456601507636</v>
       </c>
       <c r="T6">
-        <v>0.9808400608677446</v>
+        <v>0.881163761396528</v>
       </c>
       <c r="U6">
-        <v>0.9808400608677446</v>
+        <v>0.881163761396528</v>
       </c>
       <c r="V6">
-        <v>0.9808400608677446</v>
+        <v>0.8943272429012247</v>
       </c>
       <c r="W6">
-        <v>0.9808400608677446</v>
+        <v>0.8943272429012247</v>
       </c>
       <c r="X6">
-        <v>0.9808400608677446</v>
+        <v>0.8943272429012247</v>
       </c>
       <c r="Y6">
-        <v>0.9808400608677446</v>
+        <v>0.8943272429012247</v>
       </c>
       <c r="Z6">
-        <v>0.9808400608677446</v>
+        <v>0.8943272429012247</v>
       </c>
       <c r="AA6">
-        <v>0.9808400608677446</v>
+        <v>0.9119920288621363</v>
       </c>
       <c r="AB6">
-        <v>0.9808400608677446</v>
+        <v>0.9119920288621363</v>
       </c>
       <c r="AC6">
-        <v>0.9808400608677446</v>
+        <v>0.9179334918200723</v>
       </c>
       <c r="AD6">
-        <v>0.9808400608677446</v>
+        <v>0.9320928837738439</v>
       </c>
       <c r="AE6">
-        <v>0.9808400608677446</v>
+        <v>0.9400688568713741</v>
       </c>
       <c r="AF6">
-        <v>0.9808400608677446</v>
+        <v>0.960898286755271</v>
       </c>
       <c r="AG6">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7819152533192475</v>
+        <v>0.6944240806478343</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8381215092080699</v>
+        <v>0.740137970958116</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6883479252842712</v>
+        <v>0.5556766534062374</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2035,16 +2035,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5100417112316555</v>
+        <v>0.5263381548068555</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -2076,16 +2076,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.566029256335516</v>
+        <v>0.5240418933500813</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>56</v>
@@ -2171,16 +2171,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7819152533192475</v>
+        <v>0.7306187286179836</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8381215092080699</v>
+        <v>0.740137970958116</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2253,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7243734361386995</v>
+        <v>0.7595044167445073</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -2294,16 +2294,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.7384530429139456</v>
+      </c>
+      <c r="G5">
         <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7127810381731431</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8279649496893582</v>
+        <v>0.7224422285505384</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -2430,16 +2430,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8307186318839518</v>
+        <v>0.8740852340398679</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -2471,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8381215092080699</v>
+        <v>0.8025527545895709</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -2512,16 +2512,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8659679000758163</v>
+        <v>0.8925693836700905</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -2553,16 +2553,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8130734262423313</v>
+        <v>0.845840803601816</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -2594,16 +2594,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8279649496893582</v>
+        <v>0.881163761396528</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>56</v>
@@ -2689,16 +2689,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9461081320568998</v>
+        <v>0.9050853757514651</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -2730,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9747441309592026</v>
+        <v>0.9003422905555735</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9724660517650652</v>
+        <v>0.9143596960432246</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -2812,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9265810761116373</v>
+        <v>0.9054169486766821</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -2853,16 +2853,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9808400608677446</v>
+        <v>0.9119920288621363</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>56</v>
